--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="372">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -889,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Активация Зоны кассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Menu Board, Café Activation, Cash Zone</t>
@@ -1302,20 +1307,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFCC9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1503,7 +1508,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1521,7 +1526,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1550,47 +1555,47 @@
   <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>
@@ -7003,7 +7008,7 @@
         <v>266</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="n">
@@ -7025,7 +7030,7 @@
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
@@ -7049,7 +7054,7 @@
         <v>59</v>
       </c>
       <c r="AL68" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM68" s="19" t="n">
         <v>130</v>
@@ -7072,10 +7077,10 @@
         <v>249</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>70</v>
@@ -7090,10 +7095,10 @@
         <v>234</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
@@ -7110,7 +7115,7 @@
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -7152,13 +7157,13 @@
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>256</v>
@@ -7172,7 +7177,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -7197,7 +7202,7 @@
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7" t="n">
@@ -7207,7 +7212,7 @@
         <v>62</v>
       </c>
       <c r="AL70" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM70" s="7" t="n">
         <v>311</v>
@@ -7227,16 +7232,16 @@
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="n">
@@ -7248,20 +7253,20 @@
         <v>234</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
@@ -7278,7 +7283,7 @@
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7" t="n">
@@ -7306,16 +7311,16 @@
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="n">
@@ -7327,20 +7332,20 @@
         <v>234</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
@@ -7383,16 +7388,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="n">
@@ -7402,13 +7407,13 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -7418,7 +7423,7 @@
         <v>74</v>
       </c>
       <c r="X73" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
@@ -7436,10 +7441,10 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AI73" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ73" s="7" t="n">
         <v>2</v>
@@ -7466,16 +7471,16 @@
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="n">
@@ -7491,14 +7496,14 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -7517,7 +7522,7 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7" t="n">
@@ -7545,16 +7550,16 @@
         <v>41</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -7568,20 +7573,20 @@
         <v>234</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
@@ -7600,7 +7605,7 @@
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
       <c r="AH75" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7" t="n">
@@ -7626,13 +7631,13 @@
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>252</v>
@@ -7648,7 +7653,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7656,10 +7661,10 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -7683,7 +7688,7 @@
         <v>68</v>
       </c>
       <c r="AL76" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM76" s="21" t="n">
         <v>400</v>
@@ -7703,16 +7708,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="n">
@@ -7725,7 +7730,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -7733,10 +7738,10 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X77" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -7760,7 +7765,7 @@
         <v>69</v>
       </c>
       <c r="AL77" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM77" s="7" t="n">
         <v>68</v>
@@ -7780,13 +7785,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>70</v>
@@ -7798,30 +7803,30 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -7863,16 +7868,16 @@
         <v>41</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
@@ -7881,7 +7886,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N79" s="22" t="n">
         <v>5000034</v>
@@ -7899,10 +7904,10 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -7918,7 +7923,7 @@
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
       <c r="AH79" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7" t="n">
@@ -7946,16 +7951,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="n">
@@ -7968,7 +7973,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -7976,10 +7981,10 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -8003,7 +8008,7 @@
         <v>72</v>
       </c>
       <c r="AL80" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM80" s="7" t="n">
         <v>68</v>
@@ -8023,13 +8028,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>70</v>
@@ -8042,29 +8047,29 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X81" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
@@ -8106,13 +8111,13 @@
         <v>41</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>70</v>
@@ -8124,10 +8129,10 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8142,7 +8147,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8182,16 +8187,16 @@
         <v>40</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>233</v>
@@ -8223,7 +8228,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8246,10 +8251,10 @@
         <v>1</v>
       </c>
       <c r="AH83" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI83" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ83" s="7" t="n">
         <v>2</v>
@@ -8273,16 +8278,16 @@
         <v>40</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>233</v>
@@ -8314,7 +8319,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8337,10 +8342,10 @@
         <v>1</v>
       </c>
       <c r="AH84" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI84" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ84" s="7" t="n">
         <v>2</v>
@@ -8364,16 +8369,16 @@
         <v>40</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>233</v>
@@ -8405,7 +8410,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
@@ -8428,10 +8433,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AI85" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AJ85" s="7" t="n">
         <v>2</v>
@@ -8455,22 +8460,22 @@
         <v>40</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -8481,7 +8486,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8505,7 +8510,7 @@
         <v>78</v>
       </c>
       <c r="AL86" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM86" s="7"/>
     </row>
@@ -8520,35 +8525,35 @@
         <v>40</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>249</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8587,35 +8592,35 @@
         <v>40</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>249</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8654,35 +8659,35 @@
         <v>40</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>249</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8721,22 +8726,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8747,7 +8752,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8786,22 +8791,22 @@
         <v>40</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F91" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="I91" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8812,7 +8817,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8851,22 +8856,22 @@
         <v>40</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -8877,7 +8882,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8916,35 +8921,35 @@
         <v>40</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8968,7 +8973,7 @@
         <v>85</v>
       </c>
       <c r="AL93" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM93" s="7"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -18,6 +18,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="372">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1068,8 +1070,7 @@
     <t xml:space="preserve">number of facings near food</t>
   </si>
   <si>
-    <t xml:space="preserve">food
-</t>
+    <t xml:space="preserve">food</t>
   </si>
   <si>
     <t xml:space="preserve">Food should be near Image</t>
@@ -1554,10 +1555,10 @@
   </sheetPr>
   <dimension ref="A1:AM93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,36 +1567,36 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.0161943319838"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>
@@ -7491,7 +7492,9 @@
       <c r="M74" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="N74" s="11"/>
+      <c r="N74" s="11" t="s">
+        <v>282</v>
+      </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -11,15 +11,17 @@
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="369">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -855,19 +857,6 @@
 59</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсная зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Impulse Activation: Facings</t>
   </si>
   <si>
@@ -921,6 +910,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
   </si>
   <si>
     <t xml:space="preserve">Plus</t>
@@ -1378,7 +1370,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1449,10 +1441,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1553,12 +1541,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AM65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1567,36 +1555,36 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.0161943319838"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="10.6032388663968"/>
@@ -6832,7 +6820,7 @@
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>39</v>
@@ -6859,31 +6847,43 @@
       <c r="J66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K66" s="7"/>
+      <c r="K66" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
+      <c r="M66" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
+      <c r="R66" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
+      <c r="W66" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
-      <c r="AC66" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="AC66" s="7"/>
       <c r="AD66" s="7" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AE66" s="9"/>
       <c r="AF66" s="7"/>
@@ -6896,16 +6896,14 @@
       <c r="AK66" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="AL66" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM66" s="19" t="n">
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>39</v>
@@ -6920,55 +6918,45 @@
         <v>249</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K67" s="7" t="n">
-        <v>9</v>
-      </c>
+      <c r="K67" s="7"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>261</v>
-      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R67" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>262</v>
-      </c>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
-      <c r="W67" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="X67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
+      <c r="AC67" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="AD67" s="7" t="s">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AE67" s="9"/>
       <c r="AF67" s="7"/>
@@ -6976,19 +6964,21 @@
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK67" s="7" t="n">
-        <v>58</v>
-      </c>
-      <c r="AL67" s="7"/>
-      <c r="AM67" s="7" t="n">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="AL67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="AM67" s="18" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>39</v>
@@ -7003,35 +6993,45 @@
         <v>249</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
+      <c r="M68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="P68" s="7"/>
       <c r="Q68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
+      <c r="R68" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
       <c r="X68" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
@@ -7049,21 +7049,19 @@
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK68" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7" t="n">
         <v>59</v>
-      </c>
-      <c r="AL68" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM68" s="19" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>39</v>
@@ -7075,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>270</v>
@@ -7084,40 +7082,26 @@
         <v>271</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
       <c r="Q69" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>262</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
-      <c r="X69" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
@@ -7126,27 +7110,33 @@
         <v>66</v>
       </c>
       <c r="AD69" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE69" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="AE69" s="9" t="n">
+        <v>0.1275</v>
+      </c>
       <c r="AF69" s="7"/>
       <c r="AG69" s="7"/>
-      <c r="AH69" s="7"/>
+      <c r="AH69" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK69" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL69" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="AL69" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="AM69" s="7" t="n">
-        <v>59</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>39</v>
@@ -7158,34 +7148,42 @@
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="11"/>
+      <c r="M70" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="R70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
+      <c r="W70" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
@@ -7195,33 +7193,29 @@
         <v>66</v>
       </c>
       <c r="AD70" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE70" s="9" t="n">
-        <v>0.1275</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AE70" s="9"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7"/>
       <c r="AH70" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK70" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7" t="n">
         <v>62</v>
-      </c>
-      <c r="AL70" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="AM70" s="7" t="n">
-        <v>311</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>39</v>
@@ -7233,20 +7227,20 @@
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -7254,20 +7248,20 @@
         <v>234</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
@@ -7283,15 +7277,13 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
-      <c r="AH71" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="AH71" s="7"/>
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AK71" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL71" s="7"/>
       <c r="AM71" s="7" t="n">
@@ -7300,7 +7292,7 @@
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>39</v>
@@ -7312,43 +7304,43 @@
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>282</v>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="X72" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="X72" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -7359,25 +7351,31 @@
       <c r="AD72" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AE72" s="9"/>
+      <c r="AE72" s="9" t="n">
+        <v>0.0425</v>
+      </c>
       <c r="AF72" s="7"/>
       <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
-      <c r="AI72" s="7"/>
+      <c r="AH72" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI72" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="AJ72" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK72" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL72" s="7"/>
-      <c r="AM72" s="7" t="n">
-        <v>62</v>
+      <c r="AM72" s="15" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>39</v>
@@ -7389,16 +7387,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="n">
@@ -7406,26 +7404,26 @@
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7" t="s">
-        <v>294</v>
+      <c r="M73" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X73" s="7" t="s">
-        <v>294</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
@@ -7434,7 +7432,7 @@
         <v>66</v>
       </c>
       <c r="AD73" s="7" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AE73" s="9" t="n">
         <v>0.0425</v>
@@ -7442,16 +7440,14 @@
       <c r="AF73" s="7"/>
       <c r="AG73" s="7"/>
       <c r="AH73" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI73" s="7" t="s">
-        <v>279</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="AI73" s="7"/>
       <c r="AJ73" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK73" s="7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL73" s="7"/>
       <c r="AM73" s="15" t="n">
@@ -7460,7 +7456,7 @@
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>39</v>
@@ -7472,41 +7468,43 @@
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H74" s="7" t="s">
         <v>300</v>
       </c>
+      <c r="H74" s="19" t="s">
+        <v>301</v>
+      </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="M74" s="7" t="s">
         <v>234</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -7517,7 +7515,7 @@
         <v>66</v>
       </c>
       <c r="AD74" s="7" t="s">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AE74" s="9" t="n">
         <v>0.0425</v>
@@ -7525,14 +7523,14 @@
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
       <c r="AH74" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK74" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL74" s="7"/>
       <c r="AM74" s="15" t="n">
@@ -7540,9 +7538,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="n">
-        <v>38</v>
-      </c>
+      <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
         <v>39</v>
       </c>
@@ -7553,52 +7549,46 @@
         <v>41</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H75" s="20" t="s">
         <v>304</v>
       </c>
+      <c r="H75" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>282</v>
-      </c>
+      <c r="J75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="Q75" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="X75" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="X75" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
-      <c r="AC75" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="AC75" s="7"/>
       <c r="AD75" s="7" t="s">
         <v>76</v>
       </c>
@@ -7607,23 +7597,25 @@
       </c>
       <c r="AF75" s="7"/>
       <c r="AG75" s="7"/>
-      <c r="AH75" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="AH75" s="7"/>
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK75" s="7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL75" s="7"/>
-      <c r="AM75" s="15" t="n">
-        <v>312</v>
+        <v>68</v>
+      </c>
+      <c r="AL75" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM75" s="20" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7"/>
+      <c r="A76" s="7" t="n">
+        <v>54</v>
+      </c>
       <c r="B76" s="7" t="s">
         <v>39</v>
       </c>
@@ -7634,29 +7626,29 @@
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7664,42 +7656,42 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
-      <c r="AC76" s="7"/>
+      <c r="AC76" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="AD76" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AE76" s="9" t="n">
-        <v>0.0425</v>
-      </c>
+      <c r="AE76" s="9"/>
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK76" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL76" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM76" s="7" t="n">
         <v>68</v>
-      </c>
-      <c r="AL76" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AM76" s="21" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>39</v>
@@ -7711,7 +7703,7 @@
         <v>41</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>312</v>
@@ -7720,31 +7712,39 @@
         <v>313</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="M77" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="R77" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X77" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -7762,21 +7762,19 @@
       <c r="AH77" s="7"/>
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK77" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7" t="n">
         <v>69</v>
-      </c>
-      <c r="AL77" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM77" s="7" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>39</v>
@@ -7788,16 +7786,16 @@
         <v>41</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="n">
@@ -7805,31 +7803,29 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>319</v>
-      </c>
+      <c r="M78" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="N78" s="21" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -7844,13 +7840,15 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="7"/>
       <c r="AG78" s="7"/>
-      <c r="AH78" s="7"/>
+      <c r="AH78" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7" t="n">
         <v>4</v>
       </c>
       <c r="AK78" s="7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7" t="n">
@@ -7859,7 +7857,7 @@
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>39</v>
@@ -7871,46 +7869,40 @@
         <v>41</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="N79" s="22" t="n">
-        <v>5000034</v>
-      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R79" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -7925,24 +7917,24 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="7"/>
       <c r="AG79" s="7"/>
-      <c r="AH79" s="7" t="s">
-        <v>325</v>
-      </c>
+      <c r="AH79" s="7"/>
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK79" s="7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AL79" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="AL79" s="13" t="s">
+        <v>325</v>
+      </c>
       <c r="AM79" s="7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>39</v>
@@ -7954,7 +7946,7 @@
         <v>41</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>326</v>
@@ -7963,31 +7955,39 @@
         <v>327</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+      <c r="N80" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="Q80" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="R80" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -8005,21 +8005,19 @@
       <c r="AH80" s="7"/>
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK80" s="7" t="n">
+        <v>73</v>
+      </c>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7" t="n">
         <v>72</v>
-      </c>
-      <c r="AL80" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM80" s="7" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>39</v>
@@ -8031,13 +8029,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>70</v>
@@ -8048,32 +8046,28 @@
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="M81" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="N81" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>332</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
       <c r="Q81" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="X81" s="7" t="s">
-        <v>268</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
@@ -8093,7 +8087,7 @@
         <v>4</v>
       </c>
       <c r="AK81" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7" t="n">
@@ -8102,7 +8096,7 @@
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>39</v>
@@ -8111,46 +8105,48 @@
         <v>40</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="P82" s="11"/>
       <c r="Q82" s="7" t="s">
         <v>72</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8161,27 +8157,37 @@
         <v>66</v>
       </c>
       <c r="AD82" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-      <c r="AH82" s="7"/>
-      <c r="AI82" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="AE82" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI82" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="AJ82" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK82" s="7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7" t="n">
-        <v>72</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>39</v>
@@ -8190,23 +8196,23 @@
         <v>40</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>233</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8214,10 +8220,10 @@
         <v>234</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="7" t="s">
@@ -8231,7 +8237,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8254,16 +8260,16 @@
         <v>1</v>
       </c>
       <c r="AH83" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AI83" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AJ83" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK83" s="7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7" t="n">
@@ -8272,7 +8278,7 @@
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>39</v>
@@ -8281,7 +8287,7 @@
         <v>40</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>344</v>
@@ -8297,7 +8303,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -8305,10 +8311,10 @@
         <v>234</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P84" s="11"/>
       <c r="Q84" s="7" t="s">
@@ -8322,7 +8328,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8345,16 +8351,16 @@
         <v>1</v>
       </c>
       <c r="AH84" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AI84" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AJ84" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AK84" s="7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7" t="n">
@@ -8363,7 +8369,7 @@
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>39</v>
@@ -8372,89 +8378,63 @@
         <v>40</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E85" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="E85" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="15" t="s">
         <v>349</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7" t="n">
-        <v>0.25</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="O85" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
       <c r="R85" s="7" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="7" t="s">
-        <v>341</v>
-      </c>
+      <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
       <c r="AB85" s="7"/>
-      <c r="AC85" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD85" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE85" s="9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AF85" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH85" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI85" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ85" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
       <c r="AK85" s="7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL85" s="7"/>
-      <c r="AM85" s="7" t="n">
-        <v>330</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AL85" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>39</v>
@@ -8463,33 +8443,35 @@
         <v>40</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
+      <c r="N86" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8510,16 +8492,16 @@
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7"/>
       <c r="AK86" s="7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL86" s="13" t="s">
-        <v>356</v>
+        <v>79</v>
+      </c>
+      <c r="AL86" s="7" t="n">
+        <v>68</v>
       </c>
       <c r="AM86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>39</v>
@@ -8528,35 +8510,35 @@
         <v>40</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>249</v>
       </c>
       <c r="F87" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8577,16 +8559,16 @@
       <c r="AI87" s="7"/>
       <c r="AJ87" s="7"/>
       <c r="AK87" s="7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL87" s="7" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AM87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>39</v>
@@ -8595,35 +8577,35 @@
         <v>40</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>249</v>
       </c>
       <c r="F88" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8644,16 +8626,16 @@
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
       <c r="AK88" s="7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL88" s="7" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AM88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>39</v>
@@ -8662,35 +8644,33 @@
         <v>40</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="13" t="s">
-        <v>363</v>
-      </c>
+      <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8711,16 +8691,16 @@
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL89" s="7" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AM89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>39</v>
@@ -8729,22 +8709,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>344</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>345</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8755,7 +8735,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8776,16 +8756,16 @@
       <c r="AI90" s="7"/>
       <c r="AJ90" s="7"/>
       <c r="AK90" s="7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL90" s="7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>39</v>
@@ -8794,22 +8774,22 @@
         <v>40</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8820,7 +8800,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8841,16 +8821,16 @@
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL91" s="7" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AM91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>39</v>
@@ -8859,33 +8839,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>338</v>
+        <v>347</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
+      <c r="N92" s="13" t="s">
+        <v>367</v>
+      </c>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8906,82 +8888,16 @@
       <c r="AI92" s="7"/>
       <c r="AJ92" s="7"/>
       <c r="AK92" s="7" t="n">
-        <v>84</v>
-      </c>
-      <c r="AL92" s="7" t="n">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="AL92" s="13" t="s">
+        <v>368</v>
       </c>
       <c r="AM92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="7"/>
-      <c r="AE93" s="9"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7"/>
-      <c r="AK93" s="7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL93" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM93" s="7"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AM93"/>
+  <autoFilter ref="A1:AM92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -732,10 +733,10 @@
     <t xml:space="preserve">4650075421048</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 7</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
@@ -765,10 +766,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 20</t>
@@ -1490,6 +1491,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1519,10 +1524,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1635,52 +1636,52 @@
   <dimension ref="1:93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H97" activeCellId="0" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.412955465587"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.2753036437247"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.73279352226721"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.8663967611336"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="32.3076923076923"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.1376518218624"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.5222672064777"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.8137651821862"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6165,26 +6166,26 @@
       <c r="E57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5" t="s">
+      <c r="I57" s="16"/>
+      <c r="J57" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="N57" s="9" t="n">
-        <v>111111</v>
+      <c r="N57" s="17" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -6497,26 +6498,26 @@
       <c r="E61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5" t="s">
+      <c r="I61" s="16"/>
+      <c r="J61" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="N61" s="9" t="n">
-        <v>111111</v>
+      <c r="N61" s="17" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
@@ -7064,7 +7065,7 @@
       <c r="AL67" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="AM67" s="20" t="n">
+      <c r="AM67" s="21" t="n">
         <v>130</v>
       </c>
     </row>
@@ -7700,7 +7701,7 @@
       <c r="AL75" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="AM75" s="21" t="n">
+      <c r="AM75" s="22" t="n">
         <v>400</v>
       </c>
     </row>
@@ -7895,7 +7896,7 @@
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="22" t="s">
+      <c r="M78" s="23" t="s">
         <v>319</v>
       </c>
       <c r="N78" s="19" t="s">
@@ -8172,7 +8173,7 @@
       <c r="AD81" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AE81" s="23"/>
+      <c r="AE81" s="24"/>
       <c r="AF81" s="15"/>
       <c r="AG81" s="15"/>
       <c r="AH81" s="15"/>
@@ -8461,7 +8462,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="85" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" s="25" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>68</v>
       </c>
@@ -8528,7 +8529,7 @@
       <c r="AT85" s="5"/>
       <c r="AMJ85" s="0"/>
     </row>
-    <row r="86" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>70</v>
       </c>
@@ -8595,9 +8596,8 @@
       </c>
       <c r="AM86" s="5"/>
       <c r="AT86" s="5"/>
-      <c r="AMJ86" s="0"/>
-    </row>
-    <row r="87" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>71</v>
       </c>
@@ -8664,9 +8664,8 @@
       </c>
       <c r="AM87" s="5"/>
       <c r="AT87" s="13"/>
-      <c r="AMJ87" s="0"/>
-    </row>
-    <row r="88" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>73</v>
       </c>
@@ -8731,9 +8730,8 @@
       </c>
       <c r="AM88" s="5"/>
       <c r="AT88" s="13"/>
-      <c r="AMJ88" s="0"/>
-    </row>
-    <row r="89" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>74</v>
       </c>
@@ -8798,9 +8796,8 @@
       </c>
       <c r="AM89" s="5"/>
       <c r="AT89" s="13"/>
-      <c r="AMJ89" s="0"/>
-    </row>
-    <row r="90" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>75</v>
       </c>
@@ -8865,9 +8862,8 @@
       </c>
       <c r="AM90" s="5"/>
       <c r="AT90" s="13"/>
-      <c r="AMJ90" s="0"/>
-    </row>
-    <row r="91" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>76</v>
       </c>
@@ -8901,7 +8897,7 @@
       <c r="M91" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="N91" s="25" t="s">
+      <c r="N91" s="26" t="s">
         <v>367</v>
       </c>
       <c r="O91" s="5"/>
@@ -8936,39 +8932,38 @@
       </c>
       <c r="AM91" s="5"/>
       <c r="AT91" s="13"/>
-      <c r="AMJ91" s="0"/>
-    </row>
-    <row r="92" s="24" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
+    </row>
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="27" t="n">
         <v>77</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="26" t="s">
+      <c r="B92" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E92" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="16"/>
       <c r="N92" s="29" t="s">
         <v>373</v>
@@ -9004,7 +8999,6 @@
       </c>
       <c r="AL92" s="16"/>
       <c r="AT92" s="13"/>
-      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="n">
@@ -9032,9 +9026,9 @@
       <c r="I93" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
       <c r="M93" s="16"/>
       <c r="N93" s="33"/>
       <c r="O93" s="16"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -836,7 +837,7 @@
   <si>
     <t xml:space="preserve">65
 66
-67</t>
+167</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -1210,7 +1211,7 @@
   <si>
     <t xml:space="preserve">65
 66
-67
+167
 68
 130
 </t>
@@ -1416,52 +1417,52 @@
   <dimension ref="A1:AM98"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F89" activeCellId="0" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.2307692307692"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="254.408906882591"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6948,7 +6949,7 @@
         <v>2</v>
       </c>
       <c r="AK68" s="8" t="n">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AL68" s="11"/>
       <c r="AM68" s="8" t="n">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -11,9 +11,13 @@
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="379">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1416,53 +1420,51 @@
   </sheetPr>
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Q85" activeCellId="0" sqref="Q85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.9797570850202"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7117,16 +7119,16 @@
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" s="8" t="n">
         <v>4</v>
       </c>
+      <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="N71" s="8"/>
+      <c r="N71" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="O71" s="8"/>
       <c r="P71" s="8" t="s">
         <v>276</v>
@@ -7920,7 +7922,9 @@
       <c r="M81" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="N81" s="8"/>
+      <c r="N81" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="O81" s="8" t="s">
         <v>294</v>
       </c>
@@ -8086,7 +8090,9 @@
       <c r="M83" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="N83" s="8"/>
+      <c r="N83" s="8" t="s">
+        <v>323</v>
+      </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8" t="s">
         <v>323</v>
@@ -9247,7 +9253,7 @@
       <c r="AM98" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1"/>
+  <autoFilter ref="A1:AM98"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -12,12 +12,13 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="380">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -940,9 +941,6 @@
     <t xml:space="preserve">AND</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu Board, Café Activation, Cash Zone</t>
   </si>
   <si>
@@ -1046,10 +1044,16 @@
 771</t>
   </si>
   <si>
+    <t xml:space="preserve">Juice and meal: Image</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сок и еда: Имидж</t>
   </si>
   <si>
     <t xml:space="preserve">Rich, Dobriy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice and meal: Food</t>
   </si>
   <si>
     <t xml:space="preserve">Сок и еда: Еда</t>
@@ -1289,12 +1293,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1340,7 +1350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,6 +1399,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1420,51 +1434,51 @@
   </sheetPr>
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Q85" activeCellId="0" sqref="Q85"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="W73" activeCellId="0" sqref="W73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6756,9 +6770,7 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="W66" s="8"/>
       <c r="X66" s="8" t="s">
         <v>256</v>
       </c>
@@ -7214,11 +7226,9 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="8" t="s">
+      <c r="W72" s="8"/>
+      <c r="X72" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X72" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
@@ -7262,16 +7272,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="G73" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="H73" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8" t="n">
@@ -7291,11 +7301,9 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="8" t="s">
+      <c r="W73" s="8"/>
+      <c r="X73" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X73" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
@@ -7319,7 +7327,7 @@
         <v>69</v>
       </c>
       <c r="AL73" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM73" s="8" t="n">
         <v>68</v>
@@ -7339,13 +7347,13 @@
         <v>41</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F74" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>53</v>
@@ -7357,13 +7365,13 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="N74" s="8" t="s">
+      <c r="O74" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="P74" s="8"/>
       <c r="Q74" s="8" t="s">
@@ -7376,11 +7384,9 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="8" t="s">
+      <c r="W74" s="8"/>
+      <c r="X74" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X74" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
@@ -7422,16 +7428,16 @@
         <v>41</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8" t="n">
@@ -7440,10 +7446,10 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N75" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
@@ -7457,11 +7463,9 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="8" t="s">
+      <c r="W75" s="8"/>
+      <c r="X75" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X75" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
@@ -7477,7 +7481,7 @@
       <c r="AF75" s="8"/>
       <c r="AG75" s="8"/>
       <c r="AH75" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AI75" s="8"/>
       <c r="AJ75" s="8" t="n">
@@ -7508,10 +7512,10 @@
         <v>279</v>
       </c>
       <c r="F76" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>273</v>
@@ -7534,11 +7538,9 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="8" t="s">
+      <c r="W76" s="8"/>
+      <c r="X76" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X76" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
@@ -7562,7 +7564,7 @@
         <v>680</v>
       </c>
       <c r="AL76" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM76" s="8" t="n">
         <v>400</v>
@@ -7582,16 +7584,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F77" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="H77" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="n">
@@ -7611,11 +7613,9 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="8" t="s">
+      <c r="W77" s="8"/>
+      <c r="X77" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X77" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
@@ -7639,7 +7639,7 @@
         <v>72</v>
       </c>
       <c r="AL77" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM77" s="8" t="n">
         <v>680</v>
@@ -7659,13 +7659,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F78" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>53</v>
@@ -7677,16 +7677,16 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q78" s="8" t="s">
         <v>55</v>
@@ -7698,11 +7698,9 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="8" t="s">
+      <c r="W78" s="8"/>
+      <c r="X78" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X78" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -7744,13 +7742,13 @@
         <v>41</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F79" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>53</v>
@@ -7762,10 +7760,10 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N79" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
@@ -7779,11 +7777,9 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="8" t="s">
+      <c r="W79" s="8"/>
+      <c r="X79" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X79" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -7825,16 +7821,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F80" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="G80" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="H80" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="n">
@@ -7854,11 +7850,9 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="8" t="s">
+      <c r="W80" s="8"/>
+      <c r="X80" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X80" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
@@ -7882,7 +7876,7 @@
         <v>769</v>
       </c>
       <c r="AL80" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM80" s="8" t="n">
         <v>680</v>
@@ -7902,10 +7896,10 @@
         <v>41</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>317</v>
@@ -7926,7 +7920,7 @@
         <v>318</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P81" s="8" t="s">
         <v>318</v>
@@ -7941,11 +7935,9 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="8" t="s">
+      <c r="W81" s="8"/>
+      <c r="X81" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X81" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
@@ -7987,16 +7979,16 @@
         <v>41</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8" t="n">
@@ -8005,10 +7997,10 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N82" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="N82" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
@@ -8022,11 +8014,9 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="8" t="s">
+      <c r="W82" s="8"/>
+      <c r="X82" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="X82" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -8042,7 +8032,7 @@
       <c r="AF82" s="8"/>
       <c r="AG82" s="8"/>
       <c r="AH82" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AI82" s="8"/>
       <c r="AJ82" s="8" t="n">
@@ -8070,13 +8060,13 @@
         <v>41</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>53</v>
@@ -8088,14 +8078,14 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q83" s="8" t="s">
         <v>55</v>
@@ -8104,16 +8094,14 @@
         <v>277</v>
       </c>
       <c r="S83" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
-      <c r="W83" s="8" t="s">
-        <v>283</v>
-      </c>
+      <c r="W83" s="8"/>
       <c r="X83" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8158,10 +8146,10 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>41</v>
@@ -8200,7 +8188,7 @@
         <v>330</v>
       </c>
       <c r="AL84" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM84" s="8" t="n">
         <v>520</v>
@@ -8217,16 +8205,16 @@
         <v>40</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>210</v>
@@ -8258,7 +8246,7 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8281,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI85" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ85" s="8" t="n">
         <v>2</v>
@@ -8308,16 +8296,16 @@
         <v>40</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>210</v>
@@ -8349,7 +8337,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8372,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="AH86" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI86" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ86" s="8" t="n">
         <v>2</v>
@@ -8399,16 +8387,16 @@
         <v>40</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>210</v>
@@ -8440,7 +8428,7 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -8463,10 +8451,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI87" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ87" s="8" t="n">
         <v>2</v>
@@ -8490,16 +8478,16 @@
         <v>40</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>210</v>
@@ -8514,10 +8502,10 @@
         <v>211</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
@@ -8531,7 +8519,7 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
@@ -8554,10 +8542,10 @@
         <v>1</v>
       </c>
       <c r="AH88" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI88" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ88" s="8" t="n">
         <v>2</v>
@@ -8581,16 +8569,16 @@
         <v>40</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>210</v>
@@ -8605,10 +8593,10 @@
         <v>211</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="8" t="s">
@@ -8622,7 +8610,7 @@
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
@@ -8645,10 +8633,10 @@
         <v>1</v>
       </c>
       <c r="AH89" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI89" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ89" s="8" t="n">
         <v>2</v>
@@ -8672,22 +8660,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>259</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -8698,7 +8686,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8712,7 +8700,7 @@
       <c r="AB90" s="8"/>
       <c r="AC90" s="8"/>
       <c r="AD90" s="8"/>
-      <c r="AE90" s="12"/>
+      <c r="AE90" s="13"/>
       <c r="AF90" s="8"/>
       <c r="AG90" s="8"/>
       <c r="AH90" s="8"/>
@@ -8722,7 +8710,7 @@
         <v>78</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM90" s="8"/>
     </row>
@@ -8737,35 +8725,35 @@
         <v>40</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
-      <c r="N91" s="13" t="s">
-        <v>359</v>
+      <c r="N91" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8779,7 +8767,7 @@
       <c r="AB91" s="8"/>
       <c r="AC91" s="8"/>
       <c r="AD91" s="8"/>
-      <c r="AE91" s="12"/>
+      <c r="AE91" s="13"/>
       <c r="AF91" s="8"/>
       <c r="AG91" s="8"/>
       <c r="AH91" s="8"/>
@@ -8804,35 +8792,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
-      <c r="N92" s="13" t="s">
-        <v>360</v>
+      <c r="N92" s="14" t="s">
+        <v>361</v>
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8846,7 +8834,7 @@
       <c r="AB92" s="8"/>
       <c r="AC92" s="8"/>
       <c r="AD92" s="8"/>
-      <c r="AE92" s="12"/>
+      <c r="AE92" s="13"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
       <c r="AH92" s="8"/>
@@ -8871,22 +8859,22 @@
         <v>40</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -8897,7 +8885,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8911,7 +8899,7 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
       <c r="AD93" s="8"/>
-      <c r="AE93" s="12"/>
+      <c r="AE93" s="13"/>
       <c r="AF93" s="8"/>
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
@@ -8936,22 +8924,22 @@
         <v>40</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F94" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="G94" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>362</v>
-      </c>
       <c r="I94" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -8962,7 +8950,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8976,7 +8964,7 @@
       <c r="AB94" s="8"/>
       <c r="AC94" s="8"/>
       <c r="AD94" s="8"/>
-      <c r="AE94" s="12"/>
+      <c r="AE94" s="13"/>
       <c r="AF94" s="8"/>
       <c r="AG94" s="8"/>
       <c r="AH94" s="8"/>
@@ -9001,22 +8989,22 @@
         <v>40</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -9027,7 +9015,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -9041,7 +9029,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
       <c r="AD95" s="8"/>
-      <c r="AE95" s="12"/>
+      <c r="AE95" s="13"/>
       <c r="AF95" s="8"/>
       <c r="AG95" s="8"/>
       <c r="AH95" s="8"/>
@@ -9066,37 +9054,37 @@
         <v>40</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="N96" s="13" t="s">
         <v>368</v>
+      </c>
+      <c r="N96" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -9110,7 +9098,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
       <c r="AD96" s="8"/>
-      <c r="AE96" s="12"/>
+      <c r="AE96" s="13"/>
       <c r="AF96" s="8"/>
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
@@ -9120,7 +9108,7 @@
         <v>85</v>
       </c>
       <c r="AL96" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM96" s="8"/>
     </row>
@@ -9135,35 +9123,35 @@
         <v>40</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -9179,7 +9167,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
       <c r="AD97" s="8"/>
-      <c r="AE97" s="12"/>
+      <c r="AE97" s="13"/>
       <c r="AF97" s="8"/>
       <c r="AG97" s="8"/>
       <c r="AH97" s="8"/>
@@ -9202,20 +9190,20 @@
         <v>40</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -9226,7 +9214,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>
@@ -9240,7 +9228,7 @@
       <c r="AB98" s="8"/>
       <c r="AC98" s="8"/>
       <c r="AD98" s="8"/>
-      <c r="AE98" s="12"/>
+      <c r="AE98" s="13"/>
       <c r="AF98" s="8"/>
       <c r="AG98" s="8"/>
       <c r="AH98" s="8"/>
@@ -9256,7 +9244,7 @@
   <autoFilter ref="A1:AM98"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="379">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1069,9 +1070,6 @@
   </si>
   <si>
     <t xml:space="preserve">Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Displays</t>
@@ -1434,50 +1432,50 @@
   </sheetPr>
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="W73" activeCellId="0" sqref="W73"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="S83" activeCellId="0" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="35.5627530364373"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="3" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
@@ -8093,15 +8091,15 @@
       <c r="R83" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="S83" s="8" t="s">
-        <v>325</v>
+      <c r="S83" s="8" t="n">
+        <v>0.5</v>
       </c>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
       <c r="X83" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8146,10 +8144,10 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>41</v>
@@ -8188,7 +8186,7 @@
         <v>330</v>
       </c>
       <c r="AL84" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM84" s="8" t="n">
         <v>520</v>
@@ -8205,16 +8203,16 @@
         <v>40</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="F85" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>333</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>210</v>
@@ -8246,7 +8244,7 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8269,10 +8267,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI85" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AI85" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="AJ85" s="8" t="n">
         <v>2</v>
@@ -8296,16 +8294,16 @@
         <v>40</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>210</v>
@@ -8337,7 +8335,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8360,10 +8358,10 @@
         <v>1</v>
       </c>
       <c r="AH86" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI86" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AI86" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="AJ86" s="8" t="n">
         <v>2</v>
@@ -8387,16 +8385,16 @@
         <v>40</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E87" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>210</v>
@@ -8428,7 +8426,7 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -8451,10 +8449,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI87" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AI87" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="AJ87" s="8" t="n">
         <v>2</v>
@@ -8478,16 +8476,16 @@
         <v>40</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F88" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>210</v>
@@ -8502,10 +8500,10 @@
         <v>211</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
@@ -8519,7 +8517,7 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
@@ -8542,10 +8540,10 @@
         <v>1</v>
       </c>
       <c r="AH88" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI88" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AI88" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="AJ88" s="8" t="n">
         <v>2</v>
@@ -8569,16 +8567,16 @@
         <v>40</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>210</v>
@@ -8593,10 +8591,10 @@
         <v>211</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="8" t="s">
@@ -8610,7 +8608,7 @@
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
@@ -8633,10 +8631,10 @@
         <v>1</v>
       </c>
       <c r="AH89" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI89" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="AI89" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="AJ89" s="8" t="n">
         <v>2</v>
@@ -8660,22 +8658,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>259</v>
       </c>
       <c r="F90" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -8686,7 +8684,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8710,7 +8708,7 @@
         <v>78</v>
       </c>
       <c r="AL90" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM90" s="8"/>
     </row>
@@ -8725,35 +8723,35 @@
         <v>40</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F91" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8792,35 +8790,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F92" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="I92" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
       <c r="N92" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8859,22 +8857,22 @@
         <v>40</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="H93" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="I93" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -8885,7 +8883,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8924,22 +8922,22 @@
         <v>40</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>341</v>
-      </c>
       <c r="H94" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -8950,7 +8948,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8989,22 +8987,22 @@
         <v>40</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E95" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="H95" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -9015,7 +9013,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -9054,37 +9052,37 @@
         <v>40</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>284</v>
       </c>
       <c r="F96" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>367</v>
-      </c>
       <c r="H96" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N96" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="N96" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -9108,7 +9106,7 @@
         <v>85</v>
       </c>
       <c r="AL96" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM96" s="8"/>
     </row>
@@ -9123,35 +9121,35 @@
         <v>40</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E97" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="G97" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="H97" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>374</v>
-      </c>
       <c r="I97" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -9190,20 +9188,20 @@
         <v>40</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="H98" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I98" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -9214,7 +9212,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S98" s="8"/>
       <c r="T98" s="8"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="387">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -243,6 +244,12 @@
     <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000064110, 54490130</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
   </si>
   <si>
@@ -309,16 +316,34 @@
     <t xml:space="preserve">Швеппс Гранат - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppes - Pomegranate - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000030856, 5449000226242</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Mojito - 0.33L</t>
   </si>
   <si>
     <t xml:space="preserve">Швеппс Мохито - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppes Mojito - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000171351, 5449000176981</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
   </si>
   <si>
     <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000046390, 50112265</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
@@ -1290,7 +1315,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,6 +1326,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1353,7 +1384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1391,6 +1422,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1455,7 +1502,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1485,56 +1532,56 @@
   </sheetPr>
   <dimension ref="A1:AM98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.9959514170041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.004048582996"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="38.5141700404858"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.4736842105263"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4453441295547"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.7408906882591"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.1821862348178"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.417004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.7651821862348"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.914979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7935222672065"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.4453441295547"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8623481781377"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="30.502024291498"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.56275303643725"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.0931174089069"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.03238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.21052631578947"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1714,7 +1761,7 @@
       </c>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1783,7 +1830,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1866,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1949,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1980,11 +2027,11 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>5449000064110</v>
+      <c r="M6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -2030,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -2047,10 +2094,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>53</v>
@@ -2062,10 +2109,10 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -2113,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -2130,10 +2177,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>53</v>
@@ -2145,10 +2192,10 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -2196,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -2213,10 +2260,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>53</v>
@@ -2228,10 +2275,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -2279,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -2296,10 +2343,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>53</v>
@@ -2311,10 +2358,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2362,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -2379,10 +2426,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>53</v>
@@ -2394,7 +2441,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>42099697</v>
@@ -2443,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -2460,10 +2507,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>53</v>
@@ -2475,10 +2522,10 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -2526,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -2543,10 +2590,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>53</v>
@@ -2558,10 +2605,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -2609,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -2626,10 +2673,10 @@
         <v>45</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>53</v>
@@ -2640,11 +2687,11 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>5449000030856</v>
+      <c r="M14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2690,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -2707,10 +2754,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
@@ -2721,11 +2768,11 @@
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>5449000171351</v>
+      <c r="M15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2771,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -2788,10 +2835,10 @@
         <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>53</v>
@@ -2802,11 +2849,11 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>5449000046390</v>
+      <c r="M16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -2852,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
@@ -2869,10 +2916,10 @@
         <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>53</v>
@@ -2884,10 +2931,10 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2935,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
@@ -2952,10 +2999,10 @@
         <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>53</v>
@@ -2967,10 +3014,10 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -3018,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
@@ -3035,10 +3082,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>53</v>
@@ -3050,10 +3097,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -3101,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
@@ -3118,10 +3165,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>53</v>
@@ -3133,10 +3180,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -3184,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
@@ -3201,10 +3248,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>53</v>
@@ -3216,7 +3263,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N21" s="5" t="n">
         <v>5449000253101</v>
@@ -3265,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
@@ -3282,10 +3329,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>53</v>
@@ -3297,10 +3344,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -3348,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>30</v>
       </c>
@@ -3362,13 +3409,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>48</v>
@@ -3411,13 +3458,13 @@
         <v>23</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AM23" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>31</v>
       </c>
@@ -3431,13 +3478,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>53</v>
@@ -3449,10 +3496,10 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -3500,7 +3547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>32</v>
       </c>
@@ -3514,13 +3561,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>53</v>
@@ -3532,10 +3579,10 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -3583,7 +3630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>33</v>
       </c>
@@ -3597,13 +3644,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>53</v>
@@ -3615,10 +3662,10 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -3666,7 +3713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>34</v>
       </c>
@@ -3680,13 +3727,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>53</v>
@@ -3698,10 +3745,10 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -3749,7 +3796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>35</v>
       </c>
@@ -3763,13 +3810,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>53</v>
@@ -3781,10 +3828,10 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -3832,7 +3879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>36</v>
       </c>
@@ -3846,13 +3893,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>53</v>
@@ -3864,7 +3911,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="N29" s="5" t="n">
         <v>5449000152190</v>
@@ -3913,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>37</v>
       </c>
@@ -3927,13 +3974,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>48</v>
@@ -3976,13 +4023,13 @@
         <v>29</v>
       </c>
       <c r="AL30" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AM30" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>38</v>
       </c>
@@ -3996,13 +4043,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>53</v>
@@ -4014,10 +4061,10 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -4065,7 +4112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>39</v>
       </c>
@@ -4079,13 +4126,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>53</v>
@@ -4097,10 +4144,10 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -4148,7 +4195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>40</v>
       </c>
@@ -4162,13 +4209,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>53</v>
@@ -4180,10 +4227,10 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -4231,7 +4278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>41</v>
       </c>
@@ -4245,13 +4292,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>53</v>
@@ -4263,7 +4310,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N34" s="5" t="n">
         <v>5060517888794</v>
@@ -4314,7 +4361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>42</v>
       </c>
@@ -4328,13 +4375,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>53</v>
@@ -4346,10 +4393,10 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -4397,7 +4444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>43</v>
       </c>
@@ -4411,13 +4458,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>53</v>
@@ -4429,10 +4476,10 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -4480,7 +4527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>44</v>
       </c>
@@ -4494,13 +4541,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>53</v>
@@ -4512,10 +4559,10 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -4563,7 +4610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>45</v>
       </c>
@@ -4577,13 +4624,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>48</v>
@@ -4626,13 +4673,13 @@
         <v>36</v>
       </c>
       <c r="AL38" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AM38" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>46</v>
       </c>
@@ -4646,13 +4693,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>53</v>
@@ -4664,10 +4711,10 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4715,7 +4762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>47</v>
       </c>
@@ -4729,13 +4776,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>53</v>
@@ -4747,10 +4794,10 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4798,7 +4845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>48</v>
       </c>
@@ -4812,13 +4859,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>53</v>
@@ -4830,10 +4877,10 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -4881,7 +4928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>49</v>
       </c>
@@ -4895,13 +4942,13 @@
         <v>41</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>53</v>
@@ -4913,10 +4960,10 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -4964,7 +5011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>50</v>
       </c>
@@ -4978,13 +5025,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>53</v>
@@ -4996,10 +5043,10 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -5047,7 +5094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>52</v>
       </c>
@@ -5061,13 +5108,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>48</v>
@@ -5110,13 +5157,13 @@
         <v>43</v>
       </c>
       <c r="AL44" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AM44" s="5" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>53</v>
       </c>
@@ -5130,13 +5177,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>53</v>
@@ -5148,10 +5195,10 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -5199,7 +5246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>54</v>
       </c>
@@ -5213,13 +5260,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>53</v>
@@ -5231,10 +5278,10 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -5282,7 +5329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>55</v>
       </c>
@@ -5296,13 +5343,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>53</v>
@@ -5314,10 +5361,10 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -5365,7 +5412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
         <v>56</v>
       </c>
@@ -5379,13 +5426,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>53</v>
@@ -5397,10 +5444,10 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -5448,7 +5495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
         <v>57</v>
       </c>
@@ -5462,13 +5509,13 @@
         <v>41</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>53</v>
@@ -5480,10 +5527,10 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5531,7 +5578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
         <v>58</v>
       </c>
@@ -5545,13 +5592,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>53</v>
@@ -5563,10 +5610,10 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -5612,7 +5659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
         <v>59</v>
       </c>
@@ -5626,13 +5673,13 @@
         <v>41</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>53</v>
@@ -5644,10 +5691,10 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -5693,7 +5740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
         <v>60</v>
       </c>
@@ -5707,13 +5754,13 @@
         <v>41</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>53</v>
@@ -5725,10 +5772,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -5776,7 +5823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
         <v>61</v>
       </c>
@@ -5790,13 +5837,13 @@
         <v>41</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>53</v>
@@ -5808,10 +5855,10 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -5859,7 +5906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
         <v>62</v>
       </c>
@@ -5873,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>53</v>
@@ -5891,7 +5938,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N54" s="5" t="n">
         <v>4650075423257</v>
@@ -5942,7 +5989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>63</v>
       </c>
@@ -5956,13 +6003,13 @@
         <v>41</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>53</v>
@@ -5974,7 +6021,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N55" s="5" t="n">
         <v>4650075423233</v>
@@ -6025,7 +6072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
         <v>65</v>
       </c>
@@ -6040,10 +6087,10 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>41</v>
@@ -6082,11 +6129,11 @@
         <v>520</v>
       </c>
       <c r="AL56" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AM56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="n">
         <v>66</v>
       </c>
@@ -6100,16 +6147,16 @@
         <v>41</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5" t="n">
@@ -6118,27 +6165,27 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -6149,7 +6196,7 @@
         <v>49</v>
       </c>
       <c r="AD57" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE57" s="6" t="n">
         <v>0.0425</v>
@@ -6161,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="AH57" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ57" s="5" t="n">
         <v>2</v>
@@ -6177,7 +6224,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="n">
         <v>67</v>
       </c>
@@ -6191,16 +6238,16 @@
         <v>41</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5" t="n">
@@ -6209,27 +6256,27 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -6240,7 +6287,7 @@
         <v>49</v>
       </c>
       <c r="AD58" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE58" s="6" t="n">
         <v>0.0425</v>
@@ -6252,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="AH58" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ58" s="5" t="n">
         <v>2</v>
@@ -6268,7 +6315,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <v>68</v>
       </c>
@@ -6282,16 +6329,16 @@
         <v>41</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5" t="n">
@@ -6300,27 +6347,27 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -6331,7 +6378,7 @@
         <v>49</v>
       </c>
       <c r="AD59" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE59" s="6" t="n">
         <v>0.0425</v>
@@ -6343,10 +6390,10 @@
         <v>1</v>
       </c>
       <c r="AH59" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AJ59" s="5" t="n">
         <v>2</v>
@@ -6359,7 +6406,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="n">
         <v>71</v>
       </c>
@@ -6374,10 +6421,10 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>41</v>
@@ -6416,11 +6463,11 @@
         <v>310</v>
       </c>
       <c r="AL60" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AM60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
         <v>72</v>
       </c>
@@ -6435,10 +6482,10 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>41</v>
@@ -6483,7 +6530,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
         <v>73</v>
       </c>
@@ -6497,16 +6544,16 @@
         <v>41</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6517,7 +6564,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -6534,7 +6581,7 @@
         <v>49</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE62" s="6" t="n">
         <v>0.1275</v>
@@ -6542,7 +6589,7 @@
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5" t="n">
@@ -6552,13 +6599,13 @@
         <v>62</v>
       </c>
       <c r="AL62" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AM62" s="5" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
         <v>74</v>
       </c>
@@ -6572,16 +6619,16 @@
         <v>41</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5" t="n">
@@ -6590,23 +6637,23 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -6623,7 +6670,7 @@
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5" t="n">
@@ -6637,7 +6684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
         <v>75</v>
       </c>
@@ -6651,16 +6698,16 @@
         <v>41</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5" t="n">
@@ -6669,23 +6716,23 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -6714,7 +6761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
         <v>76</v>
       </c>
@@ -6729,10 +6776,10 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>41</v>
@@ -6771,13 +6818,13 @@
         <v>312</v>
       </c>
       <c r="AL65" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AM65" s="5" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
         <v>77</v>
       </c>
@@ -6791,16 +6838,16 @@
         <v>41</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5" t="n">
@@ -6810,13 +6857,13 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
@@ -6824,7 +6871,7 @@
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
@@ -6842,10 +6889,10 @@
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AI66" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AJ66" s="5" t="n">
         <v>2</v>
@@ -6858,7 +6905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <v>78</v>
       </c>
@@ -6872,16 +6919,16 @@
         <v>41</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5" t="n">
@@ -6890,23 +6937,23 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
       <c r="W67" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -6917,7 +6964,7 @@
         <v>49</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE67" s="6" t="n">
         <v>0.0425</v>
@@ -6925,7 +6972,7 @@
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5" t="n">
@@ -6939,7 +6986,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <v>79</v>
       </c>
@@ -6953,16 +7000,16 @@
         <v>41</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -6973,23 +7020,23 @@
         <v>15</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
       <c r="W68" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
@@ -7008,7 +7055,7 @@
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5" t="n">
@@ -7022,7 +7069,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <v>80</v>
       </c>
@@ -7037,10 +7084,10 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>41</v>
@@ -7079,11 +7126,11 @@
         <v>400</v>
       </c>
       <c r="AL69" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AM69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <v>81</v>
       </c>
@@ -7097,16 +7144,16 @@
         <v>41</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5" t="n">
@@ -7156,7 +7203,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <v>82</v>
       </c>
@@ -7170,13 +7217,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>53</v>
@@ -7188,28 +7235,28 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q71" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="9" t="s">
-        <v>278</v>
+      <c r="X71" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
@@ -7235,7 +7282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
         <v>84</v>
       </c>
@@ -7249,16 +7296,16 @@
         <v>41</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5" t="n">
@@ -7271,7 +7318,7 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -7280,7 +7327,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
@@ -7290,10 +7337,10 @@
       <c r="AD72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE72" s="6" t="n">
+      <c r="AE72" s="11" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF72" s="5"/>
+      <c r="AF72" s="12"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
@@ -7310,7 +7357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
         <v>85</v>
       </c>
@@ -7324,16 +7371,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5" t="n">
@@ -7346,7 +7393,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -7355,7 +7402,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
@@ -7367,7 +7414,7 @@
       <c r="AD73" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE73" s="6"/>
+      <c r="AE73" s="11"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
@@ -7379,13 +7426,13 @@
         <v>69</v>
       </c>
       <c r="AL73" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AM73" s="5" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
         <v>86</v>
       </c>
@@ -7399,13 +7446,13 @@
         <v>41</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>53</v>
@@ -7416,14 +7463,14 @@
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="N74" s="9" t="s">
-        <v>292</v>
+      <c r="M74" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P74" s="5"/>
       <c r="Q74" s="5" t="s">
@@ -7438,7 +7485,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
@@ -7450,7 +7497,7 @@
       <c r="AD74" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE74" s="6"/>
+      <c r="AE74" s="11"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
@@ -7466,7 +7513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
         <v>87</v>
       </c>
@@ -7480,16 +7527,16 @@
         <v>41</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5" t="n">
@@ -7498,10 +7545,10 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -7517,7 +7564,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
@@ -7529,11 +7576,11 @@
       <c r="AD75" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE75" s="6"/>
+      <c r="AE75" s="11"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5" t="n">
@@ -7547,7 +7594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
         <v>88</v>
       </c>
@@ -7561,16 +7608,16 @@
         <v>41</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5" t="n">
@@ -7583,7 +7630,7 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
@@ -7592,7 +7639,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
@@ -7602,10 +7649,10 @@
       <c r="AD76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE76" s="6" t="n">
+      <c r="AE76" s="11" t="n">
         <v>0.0175</v>
       </c>
-      <c r="AF76" s="5"/>
+      <c r="AF76" s="12"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
@@ -7616,13 +7663,13 @@
         <v>680</v>
       </c>
       <c r="AL76" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AM76" s="5" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
         <v>89</v>
       </c>
@@ -7636,16 +7683,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="n">
@@ -7658,7 +7705,7 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
@@ -7667,7 +7714,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
@@ -7691,13 +7738,13 @@
         <v>72</v>
       </c>
       <c r="AL77" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AM77" s="5" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
         <v>90</v>
       </c>
@@ -7711,13 +7758,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>53</v>
@@ -7729,22 +7776,22 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q78" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
@@ -7752,7 +7799,7 @@
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
@@ -7780,7 +7827,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
         <v>91</v>
       </c>
@@ -7794,13 +7841,13 @@
         <v>41</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>53</v>
@@ -7812,10 +7859,10 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -7831,7 +7878,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
@@ -7859,7 +7906,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
         <v>92</v>
       </c>
@@ -7873,16 +7920,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="n">
@@ -7895,7 +7942,7 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
@@ -7904,7 +7951,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
@@ -7928,13 +7975,13 @@
         <v>769</v>
       </c>
       <c r="AL80" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="AM80" s="5" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
         <v>93</v>
       </c>
@@ -7948,13 +7995,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>53</v>
@@ -7966,22 +8013,22 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q81" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
@@ -7989,7 +8036,7 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
@@ -8017,7 +8064,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
         <v>94</v>
       </c>
@@ -8031,16 +8078,16 @@
         <v>41</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="n">
@@ -8049,10 +8096,10 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -8068,7 +8115,7 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
@@ -8084,7 +8131,7 @@
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5" t="n">
@@ -8098,7 +8145,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
         <v>95</v>
       </c>
@@ -8112,13 +8159,13 @@
         <v>41</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>53</v>
@@ -8130,20 +8177,20 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="S83" s="5" t="n">
         <v>0.5</v>
@@ -8153,7 +8200,7 @@
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
@@ -8183,7 +8230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
         <v>96</v>
       </c>
@@ -8198,10 +8245,10 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>41</v>
@@ -8240,13 +8287,13 @@
         <v>330</v>
       </c>
       <c r="AL84" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AM84" s="5" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
         <v>97</v>
       </c>
@@ -8257,19 +8304,19 @@
         <v>40</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5" t="n">
@@ -8278,27 +8325,27 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
@@ -8309,7 +8356,7 @@
         <v>49</v>
       </c>
       <c r="AD85" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE85" s="6" t="n">
         <v>0.02</v>
@@ -8321,10 +8368,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AI85" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AJ85" s="5" t="n">
         <v>2</v>
@@ -8337,7 +8384,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
         <v>98</v>
       </c>
@@ -8348,19 +8395,19 @@
         <v>40</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5" t="n">
@@ -8369,27 +8416,27 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
@@ -8400,7 +8447,7 @@
         <v>49</v>
       </c>
       <c r="AD86" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE86" s="6" t="n">
         <v>0.025</v>
@@ -8412,10 +8459,10 @@
         <v>1</v>
       </c>
       <c r="AH86" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AI86" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AJ86" s="5" t="n">
         <v>2</v>
@@ -8428,7 +8475,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
         <v>99</v>
       </c>
@@ -8439,19 +8486,19 @@
         <v>40</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5" t="n">
@@ -8460,27 +8507,27 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
@@ -8491,7 +8538,7 @@
         <v>49</v>
       </c>
       <c r="AD87" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE87" s="6" t="n">
         <v>0.025</v>
@@ -8503,10 +8550,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AI87" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AJ87" s="5" t="n">
         <v>2</v>
@@ -8519,7 +8566,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
         <v>100</v>
       </c>
@@ -8530,19 +8577,19 @@
         <v>40</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5" t="n">
@@ -8551,27 +8598,27 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
@@ -8582,7 +8629,7 @@
         <v>49</v>
       </c>
       <c r="AD88" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE88" s="6" t="n">
         <v>0.02</v>
@@ -8594,10 +8641,10 @@
         <v>1</v>
       </c>
       <c r="AH88" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AI88" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AJ88" s="5" t="n">
         <v>2</v>
@@ -8610,7 +8657,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
         <v>101</v>
       </c>
@@ -8621,19 +8668,19 @@
         <v>40</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5" t="n">
@@ -8642,27 +8689,27 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="5"/>
       <c r="W89" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
@@ -8673,7 +8720,7 @@
         <v>49</v>
       </c>
       <c r="AD89" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AE89" s="6" t="n">
         <v>0.03</v>
@@ -8685,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="AH89" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AI89" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AJ89" s="5" t="n">
         <v>2</v>
@@ -8701,7 +8748,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
         <v>102</v>
       </c>
@@ -8712,22 +8759,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -8738,7 +8785,7 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
@@ -8752,7 +8799,7 @@
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
-      <c r="AE90" s="10"/>
+      <c r="AE90" s="14"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
@@ -8762,11 +8809,11 @@
         <v>78</v>
       </c>
       <c r="AL90" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AM90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
         <v>103</v>
       </c>
@@ -8777,35 +8824,35 @@
         <v>40</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="11" t="s">
-        <v>359</v>
+      <c r="N91" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
@@ -8819,7 +8866,7 @@
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
-      <c r="AE91" s="10"/>
+      <c r="AE91" s="14"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
@@ -8833,7 +8880,7 @@
       </c>
       <c r="AM91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
         <v>104</v>
       </c>
@@ -8844,35 +8891,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="11" t="s">
-        <v>360</v>
+      <c r="N92" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
@@ -8886,7 +8933,7 @@
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
-      <c r="AE92" s="10"/>
+      <c r="AE92" s="14"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
@@ -8900,7 +8947,7 @@
       </c>
       <c r="AM92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
         <v>105</v>
       </c>
@@ -8911,22 +8958,22 @@
         <v>40</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -8937,7 +8984,7 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
@@ -8951,7 +8998,7 @@
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
-      <c r="AE93" s="10"/>
+      <c r="AE93" s="14"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
@@ -8965,7 +9012,7 @@
       </c>
       <c r="AM93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
         <v>106</v>
       </c>
@@ -8976,22 +9023,22 @@
         <v>40</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="H94" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -9002,7 +9049,7 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
@@ -9016,7 +9063,7 @@
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
-      <c r="AE94" s="10"/>
+      <c r="AE94" s="14"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
@@ -9030,7 +9077,7 @@
       </c>
       <c r="AM94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
         <v>107</v>
       </c>
@@ -9041,22 +9088,22 @@
         <v>40</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -9067,7 +9114,7 @@
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
@@ -9081,7 +9128,7 @@
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
-      <c r="AE95" s="10"/>
+      <c r="AE95" s="14"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
@@ -9095,7 +9142,7 @@
       </c>
       <c r="AM95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
         <v>108</v>
       </c>
@@ -9106,37 +9153,37 @@
         <v>40</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>368</v>
+        <v>375</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
@@ -9150,7 +9197,7 @@
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
-      <c r="AE96" s="10"/>
+      <c r="AE96" s="14"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
@@ -9160,11 +9207,11 @@
         <v>85</v>
       </c>
       <c r="AL96" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AM96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
         <v>109</v>
       </c>
@@ -9175,42 +9222,42 @@
         <v>40</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
       <c r="W97" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
@@ -9219,7 +9266,7 @@
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
-      <c r="AE97" s="10"/>
+      <c r="AE97" s="14"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
@@ -9231,7 +9278,7 @@
       <c r="AL97" s="8"/>
       <c r="AM97" s="5"/>
     </row>
-    <row r="98" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
         <v>110</v>
       </c>
@@ -9242,20 +9289,20 @@
         <v>40</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -9266,7 +9313,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
@@ -9280,7 +9327,7 @@
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
-      <c r="AE98" s="10"/>
+      <c r="AE98" s="14"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
@@ -9296,7 +9343,7 @@
   <autoFilter ref="A1:AM98"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AM$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1540,40 +1541,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.9271255060729"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214F8ED-EACC-459B-B3FE-D1DCCC40F2F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AA83A-7458-4D95-9478-CEE8712992F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="389">
   <si>
     <t>Sorting</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -1267,12 +1264,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
     <t>Displays, SS_Displays</t>
   </si>
   <si>
@@ -1280,6 +1271,18 @@
   </si>
   <si>
     <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
   </si>
 </sst>
 </file>
@@ -1782,9 +1785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X72" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2136,7 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2142,7 +2145,7 @@
         <v>49</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="7">
         <v>1.4194E-2</v>
@@ -2179,10 +2182,10 @@
         <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>53</v>
@@ -2194,10 +2197,10 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -2216,7 +2219,7 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2225,7 +2228,7 @@
         <v>49</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="7">
         <v>1.4194E-2</v>
@@ -2262,10 +2265,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>53</v>
@@ -2277,10 +2280,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -2299,14 +2302,14 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE6" s="7">
         <v>1.4194E-2</v>
@@ -2343,10 +2346,10 @@
         <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>53</v>
@@ -2358,10 +2361,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2380,7 +2383,7 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -2389,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE7" s="7">
         <v>1.4194E-2</v>
@@ -2426,10 +2429,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>53</v>
@@ -2441,10 +2444,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2463,7 +2466,7 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -2472,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2509,10 +2512,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>53</v>
@@ -2524,10 +2527,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2546,7 +2549,7 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2555,7 +2558,7 @@
         <v>49</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2592,10 +2595,10 @@
         <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>53</v>
@@ -2607,10 +2610,10 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2629,7 +2632,7 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2638,7 +2641,7 @@
         <v>49</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2675,10 +2678,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>53</v>
@@ -2690,7 +2693,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="6">
         <v>42099697</v>
@@ -2712,14 +2715,14 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2756,10 +2759,10 @@
         <v>45</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>53</v>
@@ -2771,10 +2774,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2793,7 +2796,7 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2802,7 +2805,7 @@
         <v>49</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE12" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2839,10 +2842,10 @@
         <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>53</v>
@@ -2854,10 +2857,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2876,7 +2879,7 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2885,7 +2888,7 @@
         <v>49</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE13" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2922,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>53</v>
@@ -2937,10 +2940,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2959,14 +2962,14 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE14" s="7">
         <v>8.8999999999999999E-3</v>
@@ -3003,10 +3006,10 @@
         <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>53</v>
@@ -3018,10 +3021,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3040,14 +3043,14 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE15" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3084,10 +3087,10 @@
         <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>53</v>
@@ -3099,10 +3102,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -3121,14 +3124,14 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE16" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3165,10 +3168,10 @@
         <v>45</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>53</v>
@@ -3180,10 +3183,10 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -3202,7 +3205,7 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3211,7 +3214,7 @@
         <v>49</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE17" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3248,10 +3251,10 @@
         <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>53</v>
@@ -3263,10 +3266,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -3285,7 +3288,7 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -3294,7 +3297,7 @@
         <v>49</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE18" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3331,10 +3334,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>53</v>
@@ -3346,10 +3349,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3368,7 +3371,7 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -3377,7 +3380,7 @@
         <v>49</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3414,10 +3417,10 @@
         <v>45</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>53</v>
@@ -3429,10 +3432,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3451,7 +3454,7 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3460,7 +3463,7 @@
         <v>49</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE20" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3497,10 +3500,10 @@
         <v>45</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>53</v>
@@ -3512,7 +3515,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N21" s="6">
         <v>5449000253101</v>
@@ -3534,14 +3537,14 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3578,10 +3581,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>53</v>
@@ -3593,10 +3596,10 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3615,7 +3618,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -3624,7 +3627,7 @@
         <v>49</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE22" s="7">
         <v>5.5890000000000002E-3</v>
@@ -3658,13 +3661,13 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>48</v>
@@ -3707,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AM23" s="6">
         <v>300</v>
@@ -3727,13 +3730,13 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>53</v>
@@ -3745,10 +3748,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3767,7 +3770,7 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
@@ -3776,7 +3779,7 @@
         <v>49</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE24" s="7">
         <v>1.2919E-2</v>
@@ -3810,13 +3813,13 @@
         <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>53</v>
@@ -3828,10 +3831,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3850,7 +3853,7 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -3859,7 +3862,7 @@
         <v>49</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE25" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3893,13 +3896,13 @@
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>53</v>
@@ -3911,10 +3914,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3933,7 +3936,7 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
@@ -3942,7 +3945,7 @@
         <v>49</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE26" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3976,13 +3979,13 @@
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>53</v>
@@ -3994,10 +3997,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -4016,7 +4019,7 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
@@ -4025,7 +4028,7 @@
         <v>49</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE27" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4059,13 +4062,13 @@
         <v>41</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>53</v>
@@ -4077,10 +4080,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -4099,7 +4102,7 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
@@ -4108,7 +4111,7 @@
         <v>49</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE28" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4142,13 +4145,13 @@
         <v>41</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>53</v>
@@ -4160,7 +4163,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="6">
         <v>5449000152190</v>
@@ -4182,14 +4185,14 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE29" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4223,13 +4226,13 @@
         <v>41</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>48</v>
@@ -4272,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="AL30" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM30" s="6">
         <v>300</v>
@@ -4292,13 +4295,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>53</v>
@@ -4310,10 +4313,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -4332,7 +4335,7 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
@@ -4341,7 +4344,7 @@
         <v>49</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE31" s="7">
         <v>1.2919E-2</v>
@@ -4375,13 +4378,13 @@
         <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>53</v>
@@ -4393,10 +4396,10 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -4415,7 +4418,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -4424,7 +4427,7 @@
         <v>49</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE32" s="7">
         <v>1.2919E-2</v>
@@ -4458,13 +4461,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>53</v>
@@ -4476,10 +4479,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -4498,7 +4501,7 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
@@ -4507,7 +4510,7 @@
         <v>49</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE33" s="7">
         <v>1.2919E-2</v>
@@ -4541,13 +4544,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>53</v>
@@ -4559,7 +4562,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" s="6">
         <v>5060517888794</v>
@@ -4581,7 +4584,7 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
@@ -4590,7 +4593,7 @@
         <v>49</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE34" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4624,13 +4627,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>53</v>
@@ -4642,10 +4645,10 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -4664,7 +4667,7 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
@@ -4673,7 +4676,7 @@
         <v>49</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE35" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4707,13 +4710,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>53</v>
@@ -4725,10 +4728,10 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -4747,7 +4750,7 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -4756,7 +4759,7 @@
         <v>49</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE36" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4790,13 +4793,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>53</v>
@@ -4808,10 +4811,10 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -4830,7 +4833,7 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -4839,7 +4842,7 @@
         <v>49</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE37" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4873,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>48</v>
@@ -4922,7 +4925,7 @@
         <v>36</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM38" s="6">
         <v>300</v>
@@ -4942,13 +4945,13 @@
         <v>41</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>53</v>
@@ -4960,10 +4963,10 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -4982,7 +4985,7 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
@@ -4991,7 +4994,7 @@
         <v>49</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE39" s="7">
         <v>1.2919E-2</v>
@@ -5025,13 +5028,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>53</v>
@@ -5043,10 +5046,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5065,7 +5068,7 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
@@ -5074,7 +5077,7 @@
         <v>49</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE40" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5108,13 +5111,13 @@
         <v>41</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>53</v>
@@ -5126,10 +5129,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -5148,7 +5151,7 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
@@ -5157,7 +5160,7 @@
         <v>49</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE41" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5191,13 +5194,13 @@
         <v>41</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>53</v>
@@ -5209,10 +5212,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5231,7 +5234,7 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
@@ -5240,7 +5243,7 @@
         <v>49</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE42" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5274,13 +5277,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>53</v>
@@ -5292,10 +5295,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -5314,7 +5317,7 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
@@ -5323,7 +5326,7 @@
         <v>49</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE43" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5357,13 +5360,13 @@
         <v>41</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>48</v>
@@ -5406,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="AL44" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM44" s="6">
         <v>300</v>
@@ -5426,13 +5429,13 @@
         <v>41</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>53</v>
@@ -5444,10 +5447,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -5466,7 +5469,7 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
@@ -5475,7 +5478,7 @@
         <v>49</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE45" s="7">
         <v>1.2919E-2</v>
@@ -5509,13 +5512,13 @@
         <v>41</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>53</v>
@@ -5527,10 +5530,10 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -5549,7 +5552,7 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
@@ -5558,7 +5561,7 @@
         <v>49</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5592,13 +5595,13 @@
         <v>41</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>53</v>
@@ -5610,10 +5613,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5632,7 +5635,7 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
@@ -5641,7 +5644,7 @@
         <v>49</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE47" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5675,13 +5678,13 @@
         <v>41</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>53</v>
@@ -5693,10 +5696,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -5715,7 +5718,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -5724,7 +5727,7 @@
         <v>49</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE48" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5758,13 +5761,13 @@
         <v>41</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>53</v>
@@ -5776,10 +5779,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -5798,7 +5801,7 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -5807,7 +5810,7 @@
         <v>49</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE49" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5841,13 +5844,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>53</v>
@@ -5859,10 +5862,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -5881,14 +5884,14 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE50" s="7">
         <v>3.1700000000000001E-3</v>
@@ -5922,13 +5925,13 @@
         <v>41</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>53</v>
@@ -5940,10 +5943,10 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -5962,14 +5965,14 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE51" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6003,13 +6006,13 @@
         <v>41</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>53</v>
@@ -6021,10 +6024,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -6043,7 +6046,7 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
@@ -6052,7 +6055,7 @@
         <v>49</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE52" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6086,13 +6089,13 @@
         <v>41</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>53</v>
@@ -6104,10 +6107,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -6126,7 +6129,7 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
@@ -6135,7 +6138,7 @@
         <v>49</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE53" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6169,13 +6172,13 @@
         <v>41</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>53</v>
@@ -6187,7 +6190,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N54" s="6">
         <v>4650075423257</v>
@@ -6209,7 +6212,7 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
@@ -6218,7 +6221,7 @@
         <v>49</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE54" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6252,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>53</v>
@@ -6270,7 +6273,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" s="6">
         <v>4650075423233</v>
@@ -6292,7 +6295,7 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
@@ -6301,7 +6304,7 @@
         <v>49</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE55" s="7">
         <v>3.1480000000000002E-3</v>
@@ -6336,10 +6339,10 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>41</v>
@@ -6378,7 +6381,7 @@
         <v>520</v>
       </c>
       <c r="AL56" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM56" s="6"/>
     </row>
@@ -6396,16 +6399,16 @@
         <v>41</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6">
@@ -6414,27 +6417,27 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="O57" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -6445,7 +6448,7 @@
         <v>49</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE57" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6457,10 +6460,10 @@
         <v>1</v>
       </c>
       <c r="AH57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI57" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI57" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ57" s="6">
         <v>2</v>
@@ -6487,16 +6490,16 @@
         <v>41</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6">
@@ -6505,27 +6508,27 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -6536,7 +6539,7 @@
         <v>49</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE58" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6548,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="AH58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI58" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI58" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ58" s="6">
         <v>2</v>
@@ -6578,16 +6581,16 @@
         <v>41</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="H59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6">
@@ -6596,27 +6599,27 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -6627,7 +6630,7 @@
         <v>49</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE59" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6639,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="AH59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI59" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AI59" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AJ59" s="6">
         <v>2</v>
@@ -6670,10 +6673,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>41</v>
@@ -6712,7 +6715,7 @@
         <v>310</v>
       </c>
       <c r="AL60" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM60" s="6"/>
     </row>
@@ -6731,10 +6734,10 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>41</v>
@@ -6793,16 +6796,16 @@
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -6813,7 +6816,7 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -6830,7 +6833,7 @@
         <v>49</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE62" s="7">
         <v>0.1275</v>
@@ -6838,7 +6841,7 @@
       <c r="AF62" s="6"/>
       <c r="AG62" s="6"/>
       <c r="AH62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6">
@@ -6848,7 +6851,7 @@
         <v>62</v>
       </c>
       <c r="AL62" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM62" s="6">
         <v>311</v>
@@ -6868,16 +6871,16 @@
         <v>41</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6">
@@ -6886,23 +6889,23 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -6913,13 +6916,13 @@
         <v>49</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE63" s="7"/>
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6">
@@ -6947,16 +6950,16 @@
         <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6">
@@ -6965,23 +6968,23 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
       <c r="R64" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
@@ -6992,7 +6995,7 @@
         <v>49</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE64" s="7"/>
       <c r="AF64" s="6"/>
@@ -7025,10 +7028,10 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>41</v>
@@ -7067,7 +7070,7 @@
         <v>312</v>
       </c>
       <c r="AL65" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM65" s="6">
         <v>310</v>
@@ -7087,16 +7090,16 @@
         <v>41</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6">
@@ -7106,13 +7109,13 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -7120,7 +7123,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
@@ -7130,7 +7133,7 @@
         <v>49</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE66" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7138,10 +7141,10 @@
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI66" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ66" s="6">
         <v>2</v>
@@ -7168,16 +7171,16 @@
         <v>41</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6">
@@ -7186,23 +7189,23 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -7213,7 +7216,7 @@
         <v>49</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE67" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7221,7 +7224,7 @@
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6">
@@ -7249,16 +7252,16 @@
         <v>41</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -7269,23 +7272,23 @@
         <v>15</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
@@ -7296,7 +7299,7 @@
         <v>49</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE68" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7304,7 +7307,7 @@
       <c r="AF68" s="6"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6">
@@ -7333,10 +7336,10 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>41</v>
@@ -7375,7 +7378,7 @@
         <v>400</v>
       </c>
       <c r="AL69" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM69" s="6"/>
     </row>
@@ -7393,16 +7396,16 @@
         <v>41</v>
       </c>
       <c r="E70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6">
@@ -7430,7 +7433,7 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE70" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7466,13 +7469,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>53</v>
@@ -7484,20 +7487,20 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q71" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -7505,7 +7508,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -7513,7 +7516,7 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE71" s="7"/>
       <c r="AF71" s="6"/>
@@ -7545,16 +7548,16 @@
         <v>41</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6">
@@ -7567,7 +7570,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
@@ -7576,7 +7579,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7584,7 +7587,7 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE72" s="7">
         <v>2.5000000000000001E-2</v>
@@ -7620,16 +7623,16 @@
         <v>41</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6">
@@ -7642,7 +7645,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -7651,7 +7654,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -7661,7 +7664,7 @@
         <v>49</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE73" s="7"/>
       <c r="AF73" s="6"/>
@@ -7675,7 +7678,7 @@
         <v>69</v>
       </c>
       <c r="AL73" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM73" s="6">
         <v>68</v>
@@ -7695,13 +7698,13 @@
         <v>41</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>53</v>
@@ -7713,13 +7716,13 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N74" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="O74" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6" t="s">
@@ -7734,7 +7737,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7744,7 +7747,7 @@
         <v>49</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE74" s="7"/>
       <c r="AF74" s="6"/>
@@ -7776,13 +7779,13 @@
         <v>41</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>53</v>
@@ -7794,10 +7797,10 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N75" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
@@ -7813,7 +7816,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -7823,13 +7826,13 @@
         <v>49</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE75" s="7"/>
       <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6">
@@ -7857,16 +7860,16 @@
         <v>41</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6">
@@ -7879,7 +7882,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -7888,7 +7891,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7896,7 +7899,7 @@
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE76" s="7">
         <v>1.7500000000000002E-2</v>
@@ -7912,7 +7915,7 @@
         <v>680</v>
       </c>
       <c r="AL76" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM76" s="6">
         <v>400</v>
@@ -7932,16 +7935,16 @@
         <v>41</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="H77" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6">
@@ -7954,7 +7957,7 @@
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -7963,7 +7966,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7973,7 +7976,7 @@
         <v>49</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE77" s="7"/>
       <c r="AF77" s="6"/>
@@ -7987,7 +7990,7 @@
         <v>72</v>
       </c>
       <c r="AL77" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM77" s="6">
         <v>680</v>
@@ -8007,13 +8010,13 @@
         <v>41</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>53</v>
@@ -8025,22 +8028,22 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q78" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -8048,7 +8051,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -8058,7 +8061,7 @@
         <v>49</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE78" s="7"/>
       <c r="AF78" s="6"/>
@@ -8090,13 +8093,13 @@
         <v>41</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>53</v>
@@ -8108,10 +8111,10 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N79" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="N79" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -8127,7 +8130,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -8137,7 +8140,7 @@
         <v>49</v>
       </c>
       <c r="AD79" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE79" s="7"/>
       <c r="AF79" s="6"/>
@@ -8169,16 +8172,16 @@
         <v>41</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="H80" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6">
@@ -8191,7 +8194,7 @@
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -8200,7 +8203,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
@@ -8210,7 +8213,7 @@
         <v>49</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE80" s="7"/>
       <c r="AF80" s="6"/>
@@ -8224,7 +8227,7 @@
         <v>769</v>
       </c>
       <c r="AL80" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM80" s="6">
         <v>680</v>
@@ -8244,13 +8247,13 @@
         <v>41</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>53</v>
@@ -8262,22 +8265,22 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
@@ -8285,7 +8288,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
@@ -8295,7 +8298,7 @@
         <v>49</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE81" s="7"/>
       <c r="AF81" s="6"/>
@@ -8327,13 +8330,13 @@
         <v>41</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>53</v>
@@ -8345,10 +8348,10 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="N82" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="N82" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -8364,7 +8367,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -8374,13 +8377,13 @@
         <v>49</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE82" s="7"/>
       <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6">
@@ -8408,13 +8411,13 @@
         <v>41</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>53</v>
@@ -8426,20 +8429,20 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N83" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q83" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S83" s="6">
         <v>0.5</v>
@@ -8449,7 +8452,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -8459,7 +8462,7 @@
         <v>49</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE83" s="7">
         <v>0.03</v>
@@ -8494,10 +8497,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>41</v>
@@ -8536,7 +8539,7 @@
         <v>330</v>
       </c>
       <c r="AL84" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM84" s="6">
         <v>520</v>
@@ -8553,19 +8556,19 @@
         <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6">
@@ -8574,27 +8577,27 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="N85" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="O85" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -8605,7 +8608,7 @@
         <v>49</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE85" s="7">
         <v>0.02</v>
@@ -8617,10 +8620,10 @@
         <v>1</v>
       </c>
       <c r="AH85" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI85" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI85" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ85" s="6">
         <v>2</v>
@@ -8644,19 +8647,19 @@
         <v>40</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="H86" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6">
@@ -8665,27 +8668,27 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -8696,7 +8699,7 @@
         <v>49</v>
       </c>
       <c r="AD86" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE86" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8708,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="AH86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI86" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI86" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ86" s="6">
         <v>2</v>
@@ -8735,19 +8738,19 @@
         <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6">
@@ -8756,27 +8759,27 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -8787,7 +8790,7 @@
         <v>49</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE87" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8799,10 +8802,10 @@
         <v>1</v>
       </c>
       <c r="AH87" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI87" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI87" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ87" s="6">
         <v>2</v>
@@ -8826,19 +8829,19 @@
         <v>40</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F88" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6">
@@ -8847,27 +8850,27 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -8878,7 +8881,7 @@
         <v>49</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE88" s="7">
         <v>0.02</v>
@@ -8890,10 +8893,10 @@
         <v>1</v>
       </c>
       <c r="AH88" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI88" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI88" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ88" s="6">
         <v>2</v>
@@ -8917,19 +8920,19 @@
         <v>40</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="H89" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6">
@@ -8938,27 +8941,27 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6" t="s">
         <v>55</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
@@ -8969,7 +8972,7 @@
         <v>49</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE89" s="7">
         <v>0.03</v>
@@ -8981,10 +8984,10 @@
         <v>1</v>
       </c>
       <c r="AH89" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI89" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="AI89" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AJ89" s="6">
         <v>2</v>
@@ -9008,22 +9011,22 @@
         <v>40</v>
       </c>
       <c r="D90" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -9034,7 +9037,7 @@
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -9058,7 +9061,7 @@
         <v>78</v>
       </c>
       <c r="AL90" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM90" s="6"/>
     </row>
@@ -9073,35 +9076,35 @@
         <v>40</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -9140,35 +9143,35 @@
         <v>40</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -9207,22 +9210,22 @@
         <v>40</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="I93" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -9233,7 +9236,7 @@
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
@@ -9272,22 +9275,22 @@
         <v>40</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -9298,7 +9301,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -9337,22 +9340,22 @@
         <v>40</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -9363,7 +9366,7 @@
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
@@ -9402,37 +9405,37 @@
         <v>40</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F96" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="H96" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I96" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="N96" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>372</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
@@ -9456,7 +9459,7 @@
         <v>85</v>
       </c>
       <c r="AL96" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM96" s="6"/>
     </row>
@@ -9471,42 +9474,42 @@
         <v>40</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H97" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="I97" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
@@ -9538,20 +9541,20 @@
         <v>40</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I98" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
@@ -9562,7 +9565,7 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6AA83A-7458-4D95-9478-CEE8712992F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B5ABAA-E327-4EC7-8F35-3CD31C6597BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AM$98</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AM$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AO$98</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="391">
   <si>
     <t>Sorting</t>
   </si>
@@ -1283,6 +1283,12 @@
   </si>
   <si>
     <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1330,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,8 +1343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1361,12 +1373,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,6 +1425,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,57 +1816,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK98"/>
+  <dimension ref="A1:AMM98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X72" sqref="X72"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4"/>
-    <col min="2" max="2" width="11.6640625" style="4"/>
-    <col min="3" max="3" width="10.6640625" style="4"/>
-    <col min="4" max="4" width="11.109375" style="4"/>
-    <col min="5" max="5" width="16.109375" style="4"/>
-    <col min="6" max="6" width="34.88671875" style="4"/>
-    <col min="7" max="7" width="31.6640625" style="4"/>
+    <col min="1" max="1" width="10.28515625" style="4"/>
+    <col min="2" max="2" width="11.7109375" style="4"/>
+    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="4" max="4" width="11.140625" style="4"/>
+    <col min="5" max="5" width="16.140625" style="4"/>
+    <col min="6" max="6" width="34.85546875" style="4"/>
+    <col min="7" max="7" width="31.7109375" style="4"/>
     <col min="8" max="8" width="44" style="4"/>
-    <col min="9" max="9" width="16.21875" style="4"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="12" width="13.33203125" style="4"/>
-    <col min="13" max="14" width="39.5546875" style="4"/>
-    <col min="15" max="15" width="19.5546875" style="4"/>
-    <col min="16" max="16" width="19.77734375" style="4"/>
-    <col min="17" max="17" width="18.77734375" style="4"/>
-    <col min="18" max="18" width="13.77734375" style="4"/>
-    <col min="19" max="19" width="7" style="4"/>
-    <col min="20" max="20" width="14.5546875" style="4"/>
-    <col min="21" max="21" width="18.109375" style="4"/>
-    <col min="22" max="22" width="22.77734375" style="4"/>
-    <col min="23" max="23" width="22.5546875" style="4"/>
-    <col min="24" max="24" width="35.44140625" style="4"/>
-    <col min="25" max="25" width="20.21875" style="4"/>
-    <col min="26" max="26" width="26.109375" style="4"/>
-    <col min="27" max="27" width="26.77734375" style="4"/>
-    <col min="28" max="28" width="16" style="4"/>
-    <col min="29" max="29" width="13.44140625" style="4"/>
-    <col min="30" max="30" width="16.33203125" style="4"/>
-    <col min="31" max="31" width="14.77734375" style="4"/>
-    <col min="32" max="32" width="12.88671875" style="4"/>
-    <col min="33" max="33" width="13.109375" style="4"/>
-    <col min="34" max="34" width="64.109375" style="4"/>
-    <col min="35" max="35" width="31.21875" style="4"/>
-    <col min="36" max="36" width="7.5546875" style="4"/>
-    <col min="37" max="37" width="8.88671875" style="4"/>
-    <col min="38" max="38" width="10.88671875" style="4"/>
-    <col min="39" max="39" width="9" style="4"/>
-    <col min="40" max="1025" width="9.21875" style="4"/>
-    <col min="1026" max="16384" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="4"/>
+    <col min="12" max="12" width="8.85546875" style="4"/>
+    <col min="13" max="14" width="13.28515625" style="4"/>
+    <col min="15" max="16" width="39.5703125" style="4"/>
+    <col min="17" max="17" width="19.5703125" style="4"/>
+    <col min="18" max="18" width="19.7109375" style="4"/>
+    <col min="19" max="19" width="18.7109375" style="4"/>
+    <col min="20" max="20" width="13.7109375" style="4"/>
+    <col min="21" max="21" width="7" style="4"/>
+    <col min="22" max="22" width="14.5703125" style="4"/>
+    <col min="23" max="23" width="18.140625" style="4"/>
+    <col min="24" max="24" width="22.7109375" style="4"/>
+    <col min="25" max="25" width="22.5703125" style="4"/>
+    <col min="26" max="26" width="35.42578125" style="4"/>
+    <col min="27" max="27" width="20.28515625" style="4"/>
+    <col min="28" max="28" width="26.140625" style="4"/>
+    <col min="29" max="29" width="26.7109375" style="4"/>
+    <col min="30" max="30" width="16" style="4"/>
+    <col min="31" max="31" width="13.42578125" style="4"/>
+    <col min="32" max="32" width="16.28515625" style="4"/>
+    <col min="33" max="33" width="14.7109375" style="4"/>
+    <col min="34" max="34" width="12.85546875" style="4"/>
+    <col min="35" max="35" width="13.140625" style="4"/>
+    <col min="36" max="36" width="64.140625" style="4"/>
+    <col min="37" max="37" width="31.28515625" style="4"/>
+    <col min="38" max="38" width="7.5703125" style="4"/>
+    <col min="39" max="39" width="8.85546875" style="4"/>
+    <col min="40" max="40" width="10.85546875" style="4"/>
+    <col min="41" max="41" width="9" style="4"/>
+    <col min="42" max="1027" width="9.28515625" style="4"/>
+    <col min="1028" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,101 +1893,107 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1997,23 +2038,25 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
+      <c r="AG2" s="7"/>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
-      <c r="AJ2" s="6">
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AM2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
-    <row r="3" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2038,8 +2081,12 @@
       <c r="H3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2058,31 +2105,33 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="AG3" s="7"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AM3" s="6">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2108,64 +2157,66 @@
         <v>53</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG4" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="6">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2191,64 +2242,66 @@
         <v>53</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AF5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AG5" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="6">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="6">
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2274,62 +2327,64 @@
         <v>53</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AG6" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AM6" s="6">
         <v>602</v>
       </c>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="6">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2355,64 +2410,66 @@
         <v>53</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AF7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AG7" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AM7" s="6">
         <v>6</v>
       </c>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="6">
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2438,64 +2495,66 @@
         <v>53</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AG8" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AM8" s="6">
         <v>7</v>
       </c>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="6">
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2521,64 +2580,66 @@
         <v>53</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE9" s="7">
+      <c r="AG9" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AM9" s="6">
         <v>4</v>
       </c>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="6">
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2604,64 +2665,66 @@
         <v>53</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AF10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE10" s="7">
+      <c r="AG10" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AM10" s="6">
         <v>5</v>
       </c>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="6">
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2687,62 +2750,64 @@
         <v>53</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="6">
+      <c r="P11" s="6">
         <v>42099697</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6" t="s">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="7">
+      <c r="AG11" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6">
         <v>3</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AM11" s="6">
         <v>603</v>
       </c>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="6">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2768,64 +2833,66 @@
         <v>53</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AF12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AG12" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AM12" s="6">
         <v>14</v>
       </c>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="6">
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2851,64 +2918,66 @@
         <v>53</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="6" t="s">
+      <c r="AF13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="7">
+      <c r="AG13" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AM13" s="6">
         <v>11</v>
       </c>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="6">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2934,62 +3003,64 @@
         <v>53</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="7">
+      <c r="AG14" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6">
         <v>3</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AM14" s="6">
         <v>606</v>
       </c>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="6">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3015,62 +3086,64 @@
         <v>53</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="7">
+      <c r="AG15" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AM15" s="6">
         <v>607</v>
       </c>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="6">
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3096,62 +3169,64 @@
         <v>53</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="6" t="s">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="7">
+      <c r="AG16" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
-      <c r="AJ16" s="6">
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AM16" s="6">
         <v>605</v>
       </c>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="6">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3177,64 +3252,66 @@
         <v>53</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AF17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AG17" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AJ17" s="6">
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6">
         <v>3</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AM17" s="6">
         <v>9</v>
       </c>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="6">
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3260,64 +3337,66 @@
         <v>53</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AF18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AG18" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AJ18" s="6">
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AM18" s="6">
         <v>17</v>
       </c>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="6">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3343,64 +3422,66 @@
         <v>53</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AJ19" s="6">
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AM19" s="6">
         <v>20</v>
       </c>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="6">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3426,64 +3507,66 @@
         <v>53</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AF20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="7">
+      <c r="AG20" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
-      <c r="AJ20" s="6">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AM20" s="6">
         <v>19</v>
       </c>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="6">
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3509,62 +3592,64 @@
         <v>53</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>5449000253101</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AG21" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AM21" s="6">
         <v>601</v>
       </c>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="6">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3590,64 +3675,66 @@
         <v>53</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AG22" s="7">
         <v>5.5890000000000002E-3</v>
       </c>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="6">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6">
         <v>3</v>
       </c>
-      <c r="AK22" s="6">
+      <c r="AM22" s="6">
         <v>18</v>
       </c>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="6">
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -3672,8 +3759,12 @@
       <c r="H23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3692,31 +3783,33 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
+      <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="6">
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6">
         <v>2</v>
       </c>
-      <c r="AK23" s="6">
+      <c r="AM23" s="6">
         <v>23</v>
       </c>
-      <c r="AL23" s="8" t="s">
+      <c r="AN23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AM23" s="6">
+      <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>31</v>
       </c>
@@ -3742,64 +3835,66 @@
         <v>53</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AF24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AG24" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AJ24" s="6">
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AK24" s="6">
+      <c r="AM24" s="6">
         <v>24</v>
       </c>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="6">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>32</v>
       </c>
@@ -3825,64 +3920,66 @@
         <v>53</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="6" t="s">
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AF25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AG25" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AJ25" s="6">
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AK25" s="6">
+      <c r="AM25" s="6">
         <v>25</v>
       </c>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="6">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>33</v>
       </c>
@@ -3908,64 +4005,66 @@
         <v>53</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AG26" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AJ26" s="6">
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AK26" s="6">
+      <c r="AM26" s="6">
         <v>26</v>
       </c>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="6">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>34</v>
       </c>
@@ -3991,64 +4090,66 @@
         <v>53</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="T27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6" t="s">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="6" t="s">
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE27" s="7">
+      <c r="AG27" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
-      <c r="AJ27" s="6">
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6">
         <v>3</v>
       </c>
-      <c r="AK27" s="6">
+      <c r="AM27" s="6">
         <v>27</v>
       </c>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="6">
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>35</v>
       </c>
@@ -4074,64 +4175,66 @@
         <v>53</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="T28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="6" t="s">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AF28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AJ28" s="6">
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6">
         <v>3</v>
       </c>
-      <c r="AK28" s="6">
+      <c r="AM28" s="6">
         <v>28</v>
       </c>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="6">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>36</v>
       </c>
@@ -4157,62 +4260,64 @@
         <v>53</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N29" s="6">
+      <c r="P29" s="6">
         <v>5449000152190</v>
       </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="T29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6" t="s">
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6" t="s">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AJ29" s="6">
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6">
         <v>3</v>
       </c>
-      <c r="AK29" s="6">
+      <c r="AM29" s="6">
         <v>653</v>
       </c>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="6">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>37</v>
       </c>
@@ -4237,8 +4342,12 @@
       <c r="H30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="I30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4257,31 +4366,33 @@
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AF30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
+      <c r="AG30" s="7"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="6">
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6">
         <v>2</v>
       </c>
-      <c r="AK30" s="6">
+      <c r="AM30" s="6">
         <v>29</v>
       </c>
-      <c r="AL30" s="8" t="s">
+      <c r="AN30" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AM30" s="6">
+      <c r="AO30" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>38</v>
       </c>
@@ -4307,64 +4418,66 @@
         <v>53</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE31" s="7">
+      <c r="AG31" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AJ31" s="6">
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AK31" s="6">
+      <c r="AM31" s="6">
         <v>30</v>
       </c>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="6">
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39</v>
       </c>
@@ -4390,64 +4503,66 @@
         <v>53</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="6">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="T32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6" t="s">
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="6" t="s">
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AF32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="7">
+      <c r="AG32" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AJ32" s="6">
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6">
         <v>3</v>
       </c>
-      <c r="AK32" s="6">
+      <c r="AM32" s="6">
         <v>31</v>
       </c>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="6">
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>40</v>
       </c>
@@ -4473,64 +4588,66 @@
         <v>53</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="T33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6" t="s">
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AF33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AG33" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-      <c r="AJ33" s="6">
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6">
         <v>3</v>
       </c>
-      <c r="AK33" s="6">
+      <c r="AM33" s="6">
         <v>33</v>
       </c>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="6">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>41</v>
       </c>
@@ -4556,64 +4673,66 @@
         <v>53</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="6">
+      <c r="P34" s="6">
         <v>5060517888794</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6" t="s">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AF34" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AG34" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
-      <c r="AJ34" s="6">
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6">
         <v>3</v>
       </c>
-      <c r="AK34" s="6">
+      <c r="AM34" s="6">
         <v>35</v>
       </c>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="6">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42</v>
       </c>
@@ -4639,64 +4758,66 @@
         <v>53</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="T35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6" t="s">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AG35" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
-      <c r="AJ35" s="6">
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6">
         <v>3</v>
       </c>
-      <c r="AK35" s="6">
+      <c r="AM35" s="6">
         <v>34</v>
       </c>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="6">
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43</v>
       </c>
@@ -4722,64 +4843,66 @@
         <v>53</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="6" t="s">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6" t="s">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="6" t="s">
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AF36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6">
         <v>3</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AM36" s="6">
         <v>67</v>
       </c>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="6">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44</v>
       </c>
@@ -4805,64 +4928,66 @@
         <v>53</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="6">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6" t="s">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="P37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-      <c r="V37" s="6" t="s">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6" t="s">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD37" s="6" t="s">
+      <c r="AF37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AG37" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AJ37" s="6">
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6">
         <v>3</v>
       </c>
-      <c r="AK37" s="6">
+      <c r="AM37" s="6">
         <v>32</v>
       </c>
-      <c r="AL37" s="9"/>
-      <c r="AM37" s="6">
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45</v>
       </c>
@@ -4887,8 +5012,12 @@
       <c r="H38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="I38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>347</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -4907,31 +5036,33 @@
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AF38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
+      <c r="AG38" s="7"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AJ38" s="6">
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AK38" s="6">
+      <c r="AM38" s="6">
         <v>36</v>
       </c>
-      <c r="AL38" s="8" t="s">
+      <c r="AN38" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AM38" s="6">
+      <c r="AO38" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>46</v>
       </c>
@@ -4957,64 +5088,66 @@
         <v>53</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="6" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6" t="s">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AG39" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AJ39" s="6">
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6">
         <v>3</v>
       </c>
-      <c r="AK39" s="6">
+      <c r="AM39" s="6">
         <v>39</v>
       </c>
-      <c r="AL39" s="9"/>
-      <c r="AM39" s="6">
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>47</v>
       </c>
@@ -5040,64 +5173,66 @@
         <v>53</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="6" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6" t="s">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="7">
+      <c r="AG40" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
-      <c r="AJ40" s="6">
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6">
         <v>3</v>
       </c>
-      <c r="AK40" s="6">
+      <c r="AM40" s="6">
         <v>37</v>
       </c>
-      <c r="AL40" s="9"/>
-      <c r="AM40" s="6">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>48</v>
       </c>
@@ -5123,64 +5258,66 @@
         <v>53</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="6">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="T41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6" t="s">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="6" t="s">
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD41" s="6" t="s">
+      <c r="AF41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="7">
+      <c r="AG41" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AJ41" s="6">
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6">
         <v>3</v>
       </c>
-      <c r="AK41" s="6">
+      <c r="AM41" s="6">
         <v>38</v>
       </c>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="6">
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>49</v>
       </c>
@@ -5206,64 +5343,66 @@
         <v>53</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="6" t="s">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6" t="s">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="7">
+      <c r="AG42" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="6">
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AK42" s="6">
+      <c r="AM42" s="6">
         <v>40</v>
       </c>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="6">
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>50</v>
       </c>
@@ -5289,64 +5428,66 @@
         <v>53</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-      <c r="V43" s="6" t="s">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6" t="s">
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="6" t="s">
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD43" s="6" t="s">
+      <c r="AF43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="7">
+      <c r="AG43" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
-      <c r="AJ43" s="6">
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6">
         <v>3</v>
       </c>
-      <c r="AK43" s="6">
+      <c r="AM43" s="6">
         <v>41</v>
       </c>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="6">
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>52</v>
       </c>
@@ -5371,8 +5512,12 @@
       <c r="H44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="I44" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -5391,31 +5536,33 @@
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="6" t="s">
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD44" s="6" t="s">
+      <c r="AF44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AE44" s="7"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AJ44" s="6">
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6">
         <v>2</v>
       </c>
-      <c r="AK44" s="6">
+      <c r="AM44" s="6">
         <v>43</v>
       </c>
-      <c r="AL44" s="8" t="s">
+      <c r="AN44" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="AM44" s="6">
+      <c r="AO44" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>53</v>
       </c>
@@ -5441,64 +5588,66 @@
         <v>53</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-      <c r="V45" s="6" t="s">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6" t="s">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="6" t="s">
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD45" s="6" t="s">
+      <c r="AF45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE45" s="7">
+      <c r="AG45" s="7">
         <v>1.2919E-2</v>
       </c>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-      <c r="AJ45" s="6">
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AK45" s="6">
+      <c r="AM45" s="6">
         <v>44</v>
       </c>
-      <c r="AL45" s="9"/>
-      <c r="AM45" s="6">
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>54</v>
       </c>
@@ -5524,64 +5673,66 @@
         <v>53</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="6" t="s">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6" t="s">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="6" t="s">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AF46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE46" s="7">
+      <c r="AG46" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
-      <c r="AJ46" s="6">
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6">
         <v>3</v>
       </c>
-      <c r="AK46" s="6">
+      <c r="AM46" s="6">
         <v>45</v>
       </c>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="6">
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>55</v>
       </c>
@@ -5607,64 +5758,66 @@
         <v>53</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="T47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-      <c r="V47" s="6" t="s">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6" t="s">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6" t="s">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD47" s="6" t="s">
+      <c r="AF47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE47" s="7">
+      <c r="AG47" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
-      <c r="AJ47" s="6">
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6">
         <v>3</v>
       </c>
-      <c r="AK47" s="6">
+      <c r="AM47" s="6">
         <v>46</v>
       </c>
-      <c r="AL47" s="9"/>
-      <c r="AM47" s="6">
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>56</v>
       </c>
@@ -5690,64 +5843,66 @@
         <v>53</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="6">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="6" t="s">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6" t="s">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="6" t="s">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD48" s="6" t="s">
+      <c r="AF48" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE48" s="7">
+      <c r="AG48" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-      <c r="AJ48" s="6">
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6">
         <v>3</v>
       </c>
-      <c r="AK48" s="6">
+      <c r="AM48" s="6">
         <v>47</v>
       </c>
-      <c r="AL48" s="9"/>
-      <c r="AM48" s="6">
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>57</v>
       </c>
@@ -5773,64 +5928,66 @@
         <v>53</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="6">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="P49" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="T49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="6" t="s">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6" t="s">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
-      <c r="AC49" s="6" t="s">
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD49" s="6" t="s">
+      <c r="AF49" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE49" s="7">
+      <c r="AG49" s="7">
         <v>8.4159999999999999E-3</v>
       </c>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
-      <c r="AJ49" s="6">
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6">
         <v>3</v>
       </c>
-      <c r="AK49" s="6">
+      <c r="AM49" s="6">
         <v>48</v>
       </c>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="6">
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>58</v>
       </c>
@@ -5856,62 +6013,64 @@
         <v>53</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="6">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="P50" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="T50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="6" t="s">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6" t="s">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
-      <c r="AD50" s="6" t="s">
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE50" s="7">
+      <c r="AG50" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
-      <c r="AJ50" s="6">
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6">
         <v>3</v>
       </c>
-      <c r="AK50" s="6">
+      <c r="AM50" s="6">
         <v>104</v>
       </c>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="6">
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>59</v>
       </c>
@@ -5937,62 +6096,64 @@
         <v>53</v>
       </c>
       <c r="I51" s="6"/>
-      <c r="J51" s="6">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="P51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R51" s="6" t="s">
+      <c r="T51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="6" t="s">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6" t="s">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-      <c r="AD51" s="6" t="s">
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="7">
+      <c r="AG51" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
-      <c r="AJ51" s="6">
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6">
         <v>3</v>
       </c>
-      <c r="AK51" s="6">
+      <c r="AM51" s="6">
         <v>105</v>
       </c>
-      <c r="AL51" s="9"/>
-      <c r="AM51" s="6">
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>60</v>
       </c>
@@ -6018,64 +6179,66 @@
         <v>53</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="6">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="P52" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="T52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="6" t="s">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6" t="s">
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
-      <c r="AC52" s="6" t="s">
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD52" s="6" t="s">
+      <c r="AF52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="7">
+      <c r="AG52" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-      <c r="AJ52" s="6">
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6">
         <v>3</v>
       </c>
-      <c r="AK52" s="6">
+      <c r="AM52" s="6">
         <v>52</v>
       </c>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="6">
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>61</v>
       </c>
@@ -6101,64 +6264,66 @@
         <v>53</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="6">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R53" s="6" t="s">
+      <c r="T53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="6" t="s">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6" t="s">
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="6" t="s">
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD53" s="6" t="s">
+      <c r="AF53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE53" s="7">
+      <c r="AG53" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
-      <c r="AJ53" s="6">
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6">
         <v>3</v>
       </c>
-      <c r="AK53" s="6">
+      <c r="AM53" s="6">
         <v>50</v>
       </c>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="6">
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>62</v>
       </c>
@@ -6184,64 +6349,66 @@
         <v>53</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N54" s="6">
+      <c r="P54" s="6">
         <v>4650075423257</v>
       </c>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6" t="s">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
-      <c r="AC54" s="6" t="s">
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD54" s="6" t="s">
+      <c r="AF54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="7">
+      <c r="AG54" s="7">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
-      <c r="AJ54" s="6">
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6">
         <v>3</v>
       </c>
-      <c r="AK54" s="6">
+      <c r="AM54" s="6">
         <v>49</v>
       </c>
-      <c r="AL54" s="9"/>
-      <c r="AM54" s="6">
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>63</v>
       </c>
@@ -6267,64 +6434,66 @@
         <v>53</v>
       </c>
       <c r="I55" s="6"/>
-      <c r="J55" s="6">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="N55" s="6">
+      <c r="P55" s="6">
         <v>4650075423233</v>
       </c>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="T55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="6" t="s">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6" t="s">
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
-      <c r="AC55" s="6" t="s">
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD55" s="6" t="s">
+      <c r="AF55" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE55" s="7">
+      <c r="AG55" s="7">
         <v>3.1480000000000002E-3</v>
       </c>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
-      <c r="AJ55" s="6">
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6">
         <v>3</v>
       </c>
-      <c r="AK55" s="6">
+      <c r="AM55" s="6">
         <v>53</v>
       </c>
-      <c r="AL55" s="9"/>
-      <c r="AM55" s="6">
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>65</v>
       </c>
@@ -6369,23 +6538,25 @@
       <c r="AB56" s="6"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="7"/>
+      <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
+      <c r="AG56" s="7"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
-      <c r="AJ56" s="6">
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6">
         <v>1</v>
       </c>
-      <c r="AK56" s="6">
+      <c r="AM56" s="6">
         <v>520</v>
       </c>
-      <c r="AL56" s="8" t="s">
+      <c r="AN56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AM56" s="6"/>
+      <c r="AO56" s="6"/>
     </row>
-    <row r="57" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>66</v>
       </c>
@@ -6410,73 +6581,79 @@
       <c r="H57" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6">
+      <c r="I57" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
         <v>0.5</v>
       </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6" t="s">
+      <c r="R57" s="6"/>
+      <c r="S57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R57" s="6" t="s">
+      <c r="T57" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6" t="s">
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
-      <c r="AC57" s="6" t="s">
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD57" s="6" t="s">
+      <c r="AF57" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE57" s="7">
+      <c r="AG57" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF57" s="6">
+      <c r="AH57" s="6">
         <v>0</v>
       </c>
-      <c r="AG57" s="6">
+      <c r="AI57" s="6">
         <v>1</v>
       </c>
-      <c r="AH57" s="6" t="s">
+      <c r="AJ57" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI57" s="6" t="s">
+      <c r="AK57" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ57" s="6">
+      <c r="AL57" s="6">
         <v>2</v>
       </c>
-      <c r="AK57" s="6">
+      <c r="AM57" s="6">
         <v>54</v>
       </c>
-      <c r="AL57" s="9"/>
-      <c r="AM57" s="6">
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>67</v>
       </c>
@@ -6501,73 +6678,79 @@
       <c r="H58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6">
+      <c r="I58" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6">
         <v>0.15</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6" t="s">
+      <c r="R58" s="6"/>
+      <c r="S58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="T58" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6" t="s">
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
-      <c r="AC58" s="6" t="s">
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD58" s="6" t="s">
+      <c r="AF58" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE58" s="7">
+      <c r="AG58" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF58" s="6">
+      <c r="AH58" s="6">
         <v>0</v>
       </c>
-      <c r="AG58" s="6">
+      <c r="AI58" s="6">
         <v>1</v>
       </c>
-      <c r="AH58" s="6" t="s">
+      <c r="AJ58" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI58" s="6" t="s">
+      <c r="AK58" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ58" s="6">
+      <c r="AL58" s="6">
         <v>2</v>
       </c>
-      <c r="AK58" s="6">
+      <c r="AM58" s="6">
         <v>55</v>
       </c>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="6">
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>68</v>
       </c>
@@ -6592,73 +6775,79 @@
       <c r="H59" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6">
+      <c r="I59" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6">
         <v>0.2</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="P59" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="Q59" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6" t="s">
+      <c r="R59" s="6"/>
+      <c r="S59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R59" s="6" t="s">
+      <c r="T59" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="6" t="s">
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
-      <c r="AC59" s="6" t="s">
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD59" s="6" t="s">
+      <c r="AF59" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE59" s="7">
+      <c r="AG59" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF59" s="6">
+      <c r="AH59" s="6">
         <v>0</v>
       </c>
-      <c r="AG59" s="6">
+      <c r="AI59" s="6">
         <v>1</v>
       </c>
-      <c r="AH59" s="6" t="s">
+      <c r="AJ59" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AI59" s="6" t="s">
+      <c r="AK59" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AJ59" s="6">
+      <c r="AL59" s="6">
         <v>2</v>
       </c>
-      <c r="AK59" s="6">
+      <c r="AM59" s="6">
         <v>56</v>
       </c>
-      <c r="AL59" s="9"/>
-      <c r="AM59" s="6">
+      <c r="AN59" s="9"/>
+      <c r="AO59" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>71</v>
       </c>
@@ -6703,23 +6892,25 @@
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
-      <c r="AE60" s="7"/>
+      <c r="AE60" s="6"/>
       <c r="AF60" s="6"/>
-      <c r="AG60" s="6"/>
+      <c r="AG60" s="7"/>
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
-      <c r="AJ60" s="6">
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6">
         <v>1</v>
       </c>
-      <c r="AK60" s="6">
+      <c r="AM60" s="6">
         <v>310</v>
       </c>
-      <c r="AL60" s="8" t="s">
+      <c r="AN60" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AM60" s="6"/>
+      <c r="AO60" s="6"/>
     </row>
-    <row r="61" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>72</v>
       </c>
@@ -6764,25 +6955,27 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="7"/>
+      <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
+      <c r="AG61" s="7"/>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
-      <c r="AJ61" s="6">
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6">
         <v>1</v>
       </c>
-      <c r="AK61" s="6">
+      <c r="AM61" s="6">
         <v>311</v>
       </c>
-      <c r="AL61" s="9">
+      <c r="AN61" s="9">
         <v>62</v>
       </c>
-      <c r="AM61" s="6">
+      <c r="AO61" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>73</v>
       </c>
@@ -6815,11 +7008,11 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
-      <c r="Q62" s="6" t="s">
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
@@ -6829,35 +7022,37 @@
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
-      <c r="AC62" s="6" t="s">
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD62" s="6" t="s">
+      <c r="AF62" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE62" s="7">
+      <c r="AG62" s="7">
         <v>0.1275</v>
       </c>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6" t="s">
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AI62" s="6"/>
-      <c r="AJ62" s="6">
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6">
         <v>2</v>
       </c>
-      <c r="AK62" s="6">
+      <c r="AM62" s="6">
         <v>62</v>
       </c>
-      <c r="AL62" s="8" t="s">
+      <c r="AN62" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AM62" s="6">
+      <c r="AO62" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>74</v>
       </c>
@@ -6883,60 +7078,62 @@
         <v>246</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="6">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
         <v>0.5</v>
       </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6" t="s">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="P63" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6" t="s">
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6" t="s">
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
-      <c r="AC63" s="6" t="s">
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD63" s="6" t="s">
+      <c r="AF63" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6" t="s">
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6">
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6">
         <v>3</v>
       </c>
-      <c r="AK63" s="6">
+      <c r="AM63" s="6">
         <v>63</v>
       </c>
-      <c r="AL63" s="9"/>
-      <c r="AM63" s="6">
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>75</v>
       </c>
@@ -6962,58 +7159,60 @@
         <v>253</v>
       </c>
       <c r="I64" s="6"/>
-      <c r="J64" s="6">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6">
         <v>0.01</v>
       </c>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6" t="s">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="P64" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="6" t="s">
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-      <c r="W64" s="6" t="s">
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
-      <c r="AC64" s="6" t="s">
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD64" s="6" t="s">
+      <c r="AF64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
+      <c r="AG64" s="7"/>
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
-      <c r="AJ64" s="6">
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6">
         <v>3</v>
       </c>
-      <c r="AK64" s="6">
+      <c r="AM64" s="6">
         <v>64</v>
       </c>
-      <c r="AL64" s="9"/>
-      <c r="AM64" s="6">
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>76</v>
       </c>
@@ -7058,25 +7257,27 @@
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="7"/>
+      <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
+      <c r="AG65" s="7"/>
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
-      <c r="AJ65" s="6">
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6">
         <v>1</v>
       </c>
-      <c r="AK65" s="6">
+      <c r="AM65" s="6">
         <v>312</v>
       </c>
-      <c r="AL65" s="8" t="s">
+      <c r="AN65" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AM65" s="6">
+      <c r="AO65" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>77</v>
       </c>
@@ -7102,62 +7303,64 @@
         <v>261</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="6">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="6" t="s">
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6" t="s">
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
-      <c r="X66" s="6" t="s">
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
-      <c r="AC66" s="6" t="s">
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD66" s="6" t="s">
+      <c r="AF66" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="7">
+      <c r="AG66" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6" t="s">
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="AI66" s="6" t="s">
+      <c r="AK66" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AJ66" s="6">
+      <c r="AL66" s="6">
         <v>2</v>
       </c>
-      <c r="AK66" s="6">
+      <c r="AM66" s="6">
         <v>65</v>
       </c>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="6">
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>78</v>
       </c>
@@ -7183,62 +7386,64 @@
         <v>268</v>
       </c>
       <c r="I67" s="6"/>
-      <c r="J67" s="6">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6" t="s">
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6" t="s">
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="6" t="s">
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
-      <c r="AC67" s="6" t="s">
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD67" s="6" t="s">
+      <c r="AF67" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE67" s="7">
+      <c r="AG67" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6" t="s">
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AI67" s="6"/>
-      <c r="AJ67" s="6">
+      <c r="AK67" s="6"/>
+      <c r="AL67" s="6">
         <v>2</v>
       </c>
-      <c r="AK67" s="6">
+      <c r="AM67" s="6">
         <v>66</v>
       </c>
-      <c r="AL67" s="9"/>
-      <c r="AM67" s="6">
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>79</v>
       </c>
@@ -7265,63 +7470,65 @@
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="6">
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="6">
+      <c r="N68" s="6">
         <v>15</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="O68" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N68" s="6" t="s">
+      <c r="P68" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="6" t="s">
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="6" t="s">
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
-      <c r="AC68" s="6" t="s">
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AF68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE68" s="7">
+      <c r="AG68" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="6" t="s">
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="6">
+      <c r="AK68" s="6"/>
+      <c r="AL68" s="6">
         <v>2</v>
       </c>
-      <c r="AK68" s="6">
+      <c r="AM68" s="6">
         <v>167</v>
       </c>
-      <c r="AL68" s="9"/>
-      <c r="AM68" s="6">
+      <c r="AN68" s="9"/>
+      <c r="AO68" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>80</v>
       </c>
@@ -7366,23 +7573,25 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
-      <c r="AE69" s="7"/>
+      <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
+      <c r="AG69" s="7"/>
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
-      <c r="AJ69" s="6">
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6">
         <v>1</v>
       </c>
-      <c r="AK69" s="6">
+      <c r="AM69" s="6">
         <v>400</v>
       </c>
-      <c r="AL69" s="8" t="s">
+      <c r="AN69" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AM69" s="6"/>
+      <c r="AO69" s="6"/>
     </row>
-    <row r="70" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>81</v>
       </c>
@@ -7408,20 +7617,20 @@
         <v>279</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="6">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6">
         <v>1</v>
       </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="6" t="s">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
@@ -7432,30 +7641,32 @@
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
-      <c r="AD70" s="6" t="s">
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE70" s="7">
+      <c r="AG70" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
-      <c r="AJ70" s="6">
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6">
         <v>2</v>
       </c>
-      <c r="AK70" s="6">
+      <c r="AM70" s="6">
         <v>130</v>
       </c>
-      <c r="AL70" s="9">
+      <c r="AN70" s="9">
         <v>57</v>
       </c>
-      <c r="AM70" s="6">
+      <c r="AO70" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>82</v>
       </c>
@@ -7481,60 +7692,62 @@
         <v>53</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="6">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6">
         <v>4</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6" t="s">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N71" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="O71" s="6"/>
       <c r="P71" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Q71" s="6" t="s">
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R71" s="6" t="s">
+      <c r="T71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="6" t="s">
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
-      <c r="AD71" s="6" t="s">
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="6"/>
+      <c r="AG71" s="7"/>
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
-      <c r="AJ71" s="6">
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6">
         <v>3</v>
       </c>
-      <c r="AK71" s="6">
+      <c r="AM71" s="6">
         <v>57</v>
       </c>
-      <c r="AL71" s="9"/>
-      <c r="AM71" s="6">
+      <c r="AN71" s="9"/>
+      <c r="AO71" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>84</v>
       </c>
@@ -7560,56 +7773,58 @@
         <v>287</v>
       </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="6">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="6" t="s">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="6" t="s">
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
-      <c r="AD72" s="6" t="s">
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE72" s="7">
+      <c r="AG72" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="6"/>
-      <c r="AH72" s="6"/>
+      <c r="AH72" s="5"/>
       <c r="AI72" s="6"/>
-      <c r="AJ72" s="6">
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6">
         <v>2</v>
       </c>
-      <c r="AK72" s="6">
+      <c r="AM72" s="6">
         <v>68</v>
       </c>
-      <c r="AL72" s="9">
+      <c r="AN72" s="9">
         <v>69</v>
       </c>
-      <c r="AM72" s="6">
+      <c r="AO72" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>85</v>
       </c>
@@ -7635,56 +7850,58 @@
         <v>292</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="6">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
         <v>2</v>
       </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="6" t="s">
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="6" t="s">
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
-      <c r="AC73" s="6" t="s">
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD73" s="6" t="s">
+      <c r="AF73" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="6"/>
-      <c r="AG73" s="6"/>
+      <c r="AG73" s="7"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
-      <c r="AJ73" s="6">
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6">
         <v>3</v>
       </c>
-      <c r="AK73" s="6">
+      <c r="AM73" s="6">
         <v>69</v>
       </c>
-      <c r="AL73" s="8" t="s">
+      <c r="AN73" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="AM73" s="6">
+      <c r="AO73" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>86</v>
       </c>
@@ -7710,62 +7927,64 @@
         <v>53</v>
       </c>
       <c r="I74" s="6"/>
-      <c r="J74" s="6">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="P74" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6" t="s">
+      <c r="R74" s="6"/>
+      <c r="S74" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="T74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="6" t="s">
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
-      <c r="AC74" s="6" t="s">
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD74" s="6" t="s">
+      <c r="AF74" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="7"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="6"/>
+      <c r="AG74" s="7"/>
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
-      <c r="AJ74" s="6">
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6">
         <v>4</v>
       </c>
-      <c r="AK74" s="6">
+      <c r="AM74" s="6">
         <v>70</v>
       </c>
-      <c r="AL74" s="9"/>
-      <c r="AM74" s="6">
+      <c r="AN74" s="9"/>
+      <c r="AO74" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>87</v>
       </c>
@@ -7791,62 +8010,64 @@
         <v>53</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6" t="s">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="N75" s="6" t="s">
+      <c r="P75" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6" t="s">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R75" s="6" t="s">
+      <c r="T75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="6" t="s">
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
-      <c r="AC75" s="6" t="s">
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD75" s="6" t="s">
+      <c r="AF75" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="7"/>
-      <c r="AF75" s="6"/>
-      <c r="AG75" s="6"/>
-      <c r="AH75" s="6" t="s">
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="AI75" s="6"/>
-      <c r="AJ75" s="6">
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6">
         <v>4</v>
       </c>
-      <c r="AK75" s="6">
+      <c r="AM75" s="6">
         <v>71</v>
       </c>
-      <c r="AL75" s="9"/>
-      <c r="AM75" s="6">
+      <c r="AN75" s="9"/>
+      <c r="AO75" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>88</v>
       </c>
@@ -7872,56 +8093,58 @@
         <v>287</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6" t="s">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="6" t="s">
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
-      <c r="AD76" s="6" t="s">
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE76" s="7">
+      <c r="AG76" s="7">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
+      <c r="AH76" s="5"/>
       <c r="AI76" s="6"/>
-      <c r="AJ76" s="6">
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6">
         <v>2</v>
       </c>
-      <c r="AK76" s="6">
+      <c r="AM76" s="6">
         <v>680</v>
       </c>
-      <c r="AL76" s="8" t="s">
+      <c r="AN76" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="AM76" s="6">
+      <c r="AO76" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>89</v>
       </c>
@@ -7947,56 +8170,58 @@
         <v>292</v>
       </c>
       <c r="I77" s="6"/>
-      <c r="J77" s="6">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6">
         <v>2</v>
       </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="6" t="s">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="6" t="s">
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
-      <c r="AC77" s="6" t="s">
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD77" s="6" t="s">
+      <c r="AF77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
+      <c r="AG77" s="7"/>
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
-      <c r="AJ77" s="6">
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6">
         <v>3</v>
       </c>
-      <c r="AK77" s="6">
+      <c r="AM77" s="6">
         <v>72</v>
       </c>
-      <c r="AL77" s="8" t="s">
+      <c r="AN77" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="AM77" s="6">
+      <c r="AO77" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>90</v>
       </c>
@@ -8022,64 +8247,66 @@
         <v>53</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="6">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6" t="s">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="P78" s="6" t="s">
         <v>312</v>
       </c>
       <c r="Q78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="S78" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R78" s="6" t="s">
+      <c r="T78" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
-      <c r="X78" s="6" t="s">
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
-      <c r="AC78" s="6" t="s">
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD78" s="6" t="s">
+      <c r="AF78" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="7"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
+      <c r="AG78" s="7"/>
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
-      <c r="AJ78" s="6">
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6">
         <v>4</v>
       </c>
-      <c r="AK78" s="6">
+      <c r="AM78" s="6">
         <v>73</v>
       </c>
-      <c r="AL78" s="9"/>
-      <c r="AM78" s="6">
+      <c r="AN78" s="9"/>
+      <c r="AO78" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>91</v>
       </c>
@@ -8105,60 +8332,62 @@
         <v>53</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="6">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6">
         <v>1</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6" t="s">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="N79" s="6" t="s">
+      <c r="P79" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6" t="s">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R79" s="6" t="s">
+      <c r="T79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
-      <c r="X79" s="6" t="s">
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
-      <c r="AC79" s="6" t="s">
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD79" s="6" t="s">
+      <c r="AF79" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
+      <c r="AG79" s="7"/>
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
-      <c r="AJ79" s="6">
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6">
         <v>4</v>
       </c>
-      <c r="AK79" s="6">
+      <c r="AM79" s="6">
         <v>74</v>
       </c>
-      <c r="AL79" s="9"/>
-      <c r="AM79" s="6">
+      <c r="AN79" s="9"/>
+      <c r="AO79" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>92</v>
       </c>
@@ -8184,56 +8413,58 @@
         <v>292</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="6">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6">
         <v>2</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="6" t="s">
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="6" t="s">
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
-      <c r="AC80" s="6" t="s">
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD80" s="6" t="s">
+      <c r="AF80" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="6"/>
-      <c r="AG80" s="6"/>
+      <c r="AG80" s="7"/>
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
-      <c r="AJ80" s="6">
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6">
         <v>3</v>
       </c>
-      <c r="AK80" s="6">
+      <c r="AM80" s="6">
         <v>769</v>
       </c>
-      <c r="AL80" s="8" t="s">
+      <c r="AN80" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="AM80" s="6">
+      <c r="AO80" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>93</v>
       </c>
@@ -8259,64 +8490,66 @@
         <v>53</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="6">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>322</v>
       </c>
       <c r="Q81" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="S81" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="T81" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="6" t="s">
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
-      <c r="AC81" s="6" t="s">
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD81" s="6" t="s">
+      <c r="AF81" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
+      <c r="AG81" s="7"/>
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
-      <c r="AJ81" s="6">
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6">
         <v>4</v>
       </c>
-      <c r="AK81" s="6">
+      <c r="AM81" s="6">
         <v>770</v>
       </c>
-      <c r="AL81" s="9"/>
-      <c r="AM81" s="6">
+      <c r="AN81" s="9"/>
+      <c r="AO81" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>94</v>
       </c>
@@ -8342,62 +8575,64 @@
         <v>53</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="6">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6">
         <v>1</v>
       </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="P82" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6" t="s">
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R82" s="6" t="s">
+      <c r="T82" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="6" t="s">
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
-      <c r="AC82" s="6" t="s">
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD82" s="6" t="s">
+      <c r="AF82" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="6"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6" t="s">
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="6">
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6">
         <v>4</v>
       </c>
-      <c r="AK82" s="6">
+      <c r="AM82" s="6">
         <v>771</v>
       </c>
-      <c r="AL82" s="9"/>
-      <c r="AM82" s="6">
+      <c r="AN82" s="9"/>
+      <c r="AO82" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>95</v>
       </c>
@@ -8423,66 +8658,68 @@
         <v>53</v>
       </c>
       <c r="I83" s="6"/>
-      <c r="J83" s="6">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6">
         <v>8</v>
       </c>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6" t="s">
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="N83" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="O83" s="6"/>
       <c r="P83" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="Q83" s="6" t="s">
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="S83" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R83" s="6" t="s">
+      <c r="T83" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="S83" s="6">
+      <c r="U83" s="6">
         <v>0.5</v>
       </c>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="6" t="s">
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
-      <c r="AC83" s="6" t="s">
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD83" s="6" t="s">
+      <c r="AF83" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE83" s="7">
+      <c r="AG83" s="7">
         <v>0.03</v>
       </c>
-      <c r="AF83" s="6"/>
-      <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
-      <c r="AJ83" s="6">
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6">
         <v>2</v>
       </c>
-      <c r="AK83" s="6">
+      <c r="AM83" s="6">
         <v>820</v>
       </c>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="6">
+      <c r="AN83" s="9"/>
+      <c r="AO83" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>96</v>
       </c>
@@ -8527,25 +8764,27 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
-      <c r="AE84" s="7"/>
+      <c r="AE84" s="6"/>
       <c r="AF84" s="6"/>
-      <c r="AG84" s="6"/>
+      <c r="AG84" s="7"/>
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
-      <c r="AJ84" s="6">
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6">
         <v>1</v>
       </c>
-      <c r="AK84" s="6">
+      <c r="AM84" s="6">
         <v>330</v>
       </c>
-      <c r="AL84" s="8" t="s">
+      <c r="AN84" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="AM84" s="6">
+      <c r="AO84" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>97</v>
       </c>
@@ -8571,72 +8810,74 @@
         <v>216</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="6">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6">
         <v>0.5</v>
       </c>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="P85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6" t="s">
+      <c r="R85" s="6"/>
+      <c r="S85" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="T85" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6" t="s">
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
-      <c r="AC85" s="6" t="s">
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD85" s="6" t="s">
+      <c r="AF85" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE85" s="7">
+      <c r="AG85" s="7">
         <v>0.02</v>
       </c>
-      <c r="AF85" s="6">
+      <c r="AH85" s="6">
         <v>0</v>
       </c>
-      <c r="AG85" s="6">
+      <c r="AI85" s="6">
         <v>1</v>
       </c>
-      <c r="AH85" s="6" t="s">
+      <c r="AJ85" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI85" s="6" t="s">
+      <c r="AK85" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ85" s="6">
+      <c r="AL85" s="6">
         <v>2</v>
       </c>
-      <c r="AK85" s="6">
+      <c r="AM85" s="6">
         <v>75</v>
       </c>
-      <c r="AL85" s="9"/>
-      <c r="AM85" s="6">
+      <c r="AN85" s="9"/>
+      <c r="AO85" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>98</v>
       </c>
@@ -8662,72 +8903,74 @@
         <v>216</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6">
         <v>0.15</v>
       </c>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="P86" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6" t="s">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="T86" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6" t="s">
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
-      <c r="AC86" s="6" t="s">
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD86" s="6" t="s">
+      <c r="AF86" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE86" s="7">
+      <c r="AG86" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF86" s="6">
+      <c r="AH86" s="6">
         <v>0</v>
       </c>
-      <c r="AG86" s="6">
+      <c r="AI86" s="6">
         <v>1</v>
       </c>
-      <c r="AH86" s="6" t="s">
+      <c r="AJ86" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI86" s="6" t="s">
+      <c r="AK86" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ86" s="6">
+      <c r="AL86" s="6">
         <v>2</v>
       </c>
-      <c r="AK86" s="6">
+      <c r="AM86" s="6">
         <v>76</v>
       </c>
-      <c r="AL86" s="9"/>
-      <c r="AM86" s="6">
+      <c r="AN86" s="9"/>
+      <c r="AO86" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>99</v>
       </c>
@@ -8753,72 +8996,74 @@
         <v>216</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="6">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6">
         <v>0.2</v>
       </c>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="P87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6" t="s">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R87" s="6" t="s">
+      <c r="T87" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6" t="s">
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
-      <c r="AC87" s="6" t="s">
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD87" s="6" t="s">
+      <c r="AF87" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE87" s="7">
+      <c r="AG87" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF87" s="6">
+      <c r="AH87" s="6">
         <v>0</v>
       </c>
-      <c r="AG87" s="6">
+      <c r="AI87" s="6">
         <v>1</v>
       </c>
-      <c r="AH87" s="6" t="s">
+      <c r="AJ87" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI87" s="6" t="s">
+      <c r="AK87" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ87" s="6">
+      <c r="AL87" s="6">
         <v>2</v>
       </c>
-      <c r="AK87" s="6">
+      <c r="AM87" s="6">
         <v>77</v>
       </c>
-      <c r="AL87" s="9"/>
-      <c r="AM87" s="6">
+      <c r="AN87" s="9"/>
+      <c r="AO87" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>100</v>
       </c>
@@ -8844,72 +9089,74 @@
         <v>216</v>
       </c>
       <c r="I88" s="6"/>
-      <c r="J88" s="6">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6">
         <v>0.4</v>
       </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6" t="s">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="P88" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6" t="s">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="T88" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="6" t="s">
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
-      <c r="AC88" s="6" t="s">
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD88" s="6" t="s">
+      <c r="AF88" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE88" s="7">
+      <c r="AG88" s="7">
         <v>0.02</v>
       </c>
-      <c r="AF88" s="6">
+      <c r="AH88" s="6">
         <v>0</v>
       </c>
-      <c r="AG88" s="6">
+      <c r="AI88" s="6">
         <v>1</v>
       </c>
-      <c r="AH88" s="6" t="s">
+      <c r="AJ88" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI88" s="6" t="s">
+      <c r="AK88" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ88" s="6">
+      <c r="AL88" s="6">
         <v>2</v>
       </c>
-      <c r="AK88" s="6">
+      <c r="AM88" s="6">
         <v>777</v>
       </c>
-      <c r="AL88" s="9"/>
-      <c r="AM88" s="6">
+      <c r="AN88" s="9"/>
+      <c r="AO88" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>101</v>
       </c>
@@ -8935,72 +9182,74 @@
         <v>216</v>
       </c>
       <c r="I89" s="6"/>
-      <c r="J89" s="6">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6">
         <v>0.3</v>
       </c>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6" t="s">
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N89" s="6" t="s">
+      <c r="P89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="O89" s="6" t="s">
+      <c r="Q89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6" t="s">
+      <c r="R89" s="6"/>
+      <c r="S89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R89" s="6" t="s">
+      <c r="T89" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="6" t="s">
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
-      <c r="AC89" s="6" t="s">
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AD89" s="6" t="s">
+      <c r="AF89" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE89" s="7">
+      <c r="AG89" s="7">
         <v>0.03</v>
       </c>
-      <c r="AF89" s="6">
+      <c r="AH89" s="6">
         <v>0</v>
       </c>
-      <c r="AG89" s="6">
+      <c r="AI89" s="6">
         <v>1</v>
       </c>
-      <c r="AH89" s="6" t="s">
+      <c r="AJ89" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AI89" s="6" t="s">
+      <c r="AK89" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AJ89" s="6">
+      <c r="AL89" s="6">
         <v>2</v>
       </c>
-      <c r="AK89" s="6">
+      <c r="AM89" s="6">
         <v>778</v>
       </c>
-      <c r="AL89" s="9"/>
-      <c r="AM89" s="6">
+      <c r="AN89" s="9"/>
+      <c r="AO89" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>102</v>
       </c>
@@ -9025,22 +9274,22 @@
       <c r="H90" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6" t="s">
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
@@ -9051,21 +9300,23 @@
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
-      <c r="AE90" s="10"/>
+      <c r="AE90" s="6"/>
       <c r="AF90" s="6"/>
-      <c r="AG90" s="6"/>
+      <c r="AG90" s="10"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
-      <c r="AK90" s="6">
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6">
         <v>78</v>
       </c>
-      <c r="AL90" s="8" t="s">
+      <c r="AN90" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AM90" s="6"/>
+      <c r="AO90" s="6"/>
     </row>
-    <row r="91" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>103</v>
       </c>
@@ -9090,24 +9341,24 @@
       <c r="H91" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-      <c r="R91" s="6" t="s">
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
@@ -9118,21 +9369,23 @@
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
-      <c r="AE91" s="10"/>
+      <c r="AE91" s="6"/>
       <c r="AF91" s="6"/>
-      <c r="AG91" s="6"/>
+      <c r="AG91" s="10"/>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
-      <c r="AK91" s="6">
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6">
         <v>79</v>
       </c>
-      <c r="AL91" s="9">
+      <c r="AN91" s="9">
         <v>68</v>
       </c>
-      <c r="AM91" s="6"/>
+      <c r="AO91" s="6"/>
     </row>
-    <row r="92" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>104</v>
       </c>
@@ -9157,24 +9410,24 @@
       <c r="H92" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-      <c r="R92" s="6" t="s">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
@@ -9185,21 +9438,23 @@
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
-      <c r="AE92" s="10"/>
+      <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
-      <c r="AG92" s="6"/>
+      <c r="AG92" s="10"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
-      <c r="AK92" s="6">
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6">
         <v>80</v>
       </c>
-      <c r="AL92" s="9">
+      <c r="AN92" s="9">
         <v>130</v>
       </c>
-      <c r="AM92" s="6"/>
+      <c r="AO92" s="6"/>
     </row>
-    <row r="93" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>105</v>
       </c>
@@ -9224,22 +9479,22 @@
       <c r="H93" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-      <c r="R93" s="6" t="s">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
@@ -9250,21 +9505,23 @@
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
-      <c r="AE93" s="10"/>
+      <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
-      <c r="AG93" s="6"/>
+      <c r="AG93" s="10"/>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
-      <c r="AK93" s="6">
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6">
         <v>82</v>
       </c>
-      <c r="AL93" s="9">
+      <c r="AN93" s="9">
         <v>76</v>
       </c>
-      <c r="AM93" s="6"/>
+      <c r="AO93" s="6"/>
     </row>
-    <row r="94" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>106</v>
       </c>
@@ -9289,22 +9546,22 @@
       <c r="H94" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-      <c r="R94" s="6" t="s">
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
@@ -9315,21 +9572,23 @@
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
-      <c r="AE94" s="10"/>
+      <c r="AE94" s="6"/>
       <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
+      <c r="AG94" s="10"/>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
-      <c r="AK94" s="6">
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6">
         <v>83</v>
       </c>
-      <c r="AL94" s="9">
+      <c r="AN94" s="9">
         <v>77</v>
       </c>
-      <c r="AM94" s="6"/>
+      <c r="AO94" s="6"/>
     </row>
-    <row r="95" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>107</v>
       </c>
@@ -9354,22 +9613,22 @@
       <c r="H95" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-      <c r="R95" s="6" t="s">
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
@@ -9380,21 +9639,23 @@
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
-      <c r="AE95" s="10"/>
+      <c r="AE95" s="6"/>
       <c r="AF95" s="6"/>
-      <c r="AG95" s="6"/>
+      <c r="AG95" s="10"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
-      <c r="AK95" s="6">
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6">
         <v>84</v>
       </c>
-      <c r="AL95" s="9">
+      <c r="AN95" s="9">
         <v>75</v>
       </c>
-      <c r="AM95" s="6"/>
+      <c r="AO95" s="6"/>
     </row>
-    <row r="96" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>108</v>
       </c>
@@ -9419,26 +9680,26 @@
       <c r="H96" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6" t="s">
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="P96" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-      <c r="R96" s="6" t="s">
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
@@ -9449,21 +9710,23 @@
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
-      <c r="AE96" s="10"/>
+      <c r="AE96" s="6"/>
       <c r="AF96" s="6"/>
-      <c r="AG96" s="6"/>
+      <c r="AG96" s="10"/>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
-      <c r="AK96" s="6">
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="6"/>
+      <c r="AM96" s="6">
         <v>85</v>
       </c>
-      <c r="AL96" s="8" t="s">
+      <c r="AN96" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AM96" s="6"/>
+      <c r="AO96" s="6"/>
     </row>
-    <row r="97" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>109</v>
       </c>
@@ -9488,49 +9751,51 @@
       <c r="H97" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="6" t="s">
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-      <c r="R97" s="6" t="s">
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="6" t="s">
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
-      <c r="AE97" s="10"/>
+      <c r="AE97" s="6"/>
       <c r="AF97" s="6"/>
-      <c r="AG97" s="6"/>
+      <c r="AG97" s="10"/>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
-      <c r="AK97" s="6">
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6">
         <v>86</v>
       </c>
-      <c r="AL97" s="9"/>
-      <c r="AM97" s="6"/>
+      <c r="AN97" s="9"/>
+      <c r="AO97" s="6"/>
     </row>
-    <row r="98" spans="1:39" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>110</v>
       </c>
@@ -9553,22 +9818,22 @@
       <c r="H98" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-      <c r="R98" s="6" t="s">
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
@@ -9579,20 +9844,22 @@
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
-      <c r="AE98" s="10"/>
+      <c r="AE98" s="6"/>
       <c r="AF98" s="6"/>
-      <c r="AG98" s="6"/>
+      <c r="AG98" s="10"/>
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
-      <c r="AK98" s="6">
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="6"/>
+      <c r="AM98" s="6">
         <v>521</v>
       </c>
-      <c r="AL98" s="9"/>
-      <c r="AM98" s="6"/>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC36A4A-E863-4FDD-B351-35635861571E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Petrol" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AO$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AO$98</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AO$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,167 +38,167 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="392">
   <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category KPI Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrol_CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>Converted?</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000027</t>
+  </si>
+  <si>
+    <t>Petrol_CAP</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
+  </si>
+  <si>
+    <t>1
 23
 29
 36
 43</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">2
@@ -212,217 +223,217 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L/0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000064110, 54490130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Гранат - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Pomegranate - 0.33L/0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000030856, 5449000226242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Mojito - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Мохито - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Mojito - 0.33L/0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000171351, 5449000176981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.33L/0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000046390, 50112265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня- 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000251626, 5449000251619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 0.9/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000044839, 5449000280152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>54491472</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t>5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000064110, 54490130</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131836</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000000996</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>40822938</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>54491069</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000131805</t>
+  </si>
+  <si>
+    <t>Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes - Pomegranate - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000030856, 5449000226242</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Мохито - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000171351, 5449000176981</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000046390, 50112265</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000214744</t>
+  </si>
+  <si>
+    <t>Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Спрайт - 1л</t>
+  </si>
+  <si>
+    <t>5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня- 0.9л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>5449000251626, 5449000251619</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 1л</t>
+  </si>
+  <si>
+    <t>5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.9L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.9л</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t>5449000044839, 5449000280152</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t xml:space="preserve">24
@@ -434,67 +445,67 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000005489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmartWater Still - 0.6L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смарт вода - 0.6л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000034335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000026583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>40822426</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>90494406</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t>5449000005489</t>
+  </si>
+  <si>
+    <t>SmartWater Still - 0.6L</t>
+  </si>
+  <si>
+    <t>Смарт вода - 0.6л</t>
+  </si>
+  <si>
+    <t>5449000034335</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t>5449000026583</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>30
 31
 32
 33
@@ -503,73 +514,73 @@
 67</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060335632906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466510869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Ultra - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466516038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000148056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060517884710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>5060335632906</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869</t>
+  </si>
+  <si>
+    <t>Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Ультра - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466516038</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000148056</t>
+  </si>
+  <si>
+    <t>Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t>5060517884710</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
+  </si>
+  <si>
+    <t>ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">37
@@ -580,58 +591,58 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189301, 5449000235947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Peach-Rose - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Персик - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189332, 5449000235770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice (JNSD) Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t>4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000189301, 5449000235947</t>
+  </si>
+  <si>
+    <t>Fuze Peach-Rose - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000189332, 5449000235770</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000233615</t>
+  </si>
+  <si>
+    <t>Juice (JNSD) Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
   <si>
     <t xml:space="preserve">44
@@ -648,476 +659,473 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Orange - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Apple - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich - Cherry - 0.3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рич - Вишня PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075421048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174577787</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>4650075420980</t>
+  </si>
+  <si>
+    <t>Rich - Orange - 0.3L</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>4650075421024</t>
+  </si>
+  <si>
+    <t>Rich - Apple - 0.3L</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>4650075421000</t>
+  </si>
+  <si>
+    <t>Rich - Cherry - 0.3L</t>
+  </si>
+  <si>
+    <t>Рич - Вишня PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t>4650075421048</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430565</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174579729</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t>4607174577794</t>
+  </si>
+  <si>
+    <t>Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Гуава-Маракуйя - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Арбуз-Клубника - 0.45л</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>54
 55
 56</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must have scene type "Panoramic Photo of the Warm Shelf" to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo of the Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>STANDARD 20</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>MAN in CAT</t>
+  </si>
+  <si>
+    <t>Warm Shelf</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Must have scene type "Panoramic Photo of the Warm Shelf" to pass</t>
+  </si>
+  <si>
+    <t>Panoramic Photo of the Warm Shelf</t>
+  </si>
+  <si>
+    <t>STANDARD 21</t>
+  </si>
+  <si>
+    <t>Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t>STANDARD 25</t>
+  </si>
+  <si>
+    <t>Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
+  </si>
+  <si>
+    <t>63
 64</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
+  </si>
+  <si>
+    <t>65
 66
 167</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>130
 68
 820
 680</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone Activation Impulse/Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсная Зона/Зона кассы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola, Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>Zone Activation Impulse/Cash</t>
+  </si>
+  <si>
+    <t>Активация Импульсная Зона/Зона кассы</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>Coca-Cola, Burn</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Coke and meal</t>
+  </si>
+  <si>
+    <t>Кола и еда</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>70
 71</t>
   </si>
   <si>
-    <t xml:space="preserve">Coke and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72
+    <t>Coke and meal: Image</t>
+  </si>
+  <si>
+    <t>Кола и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Coke, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Coke and meal: Food</t>
+  </si>
+  <si>
+    <t>Кола и еда: Еда</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t>Food should be near Image</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>72
 769</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73
+    <t>Start the day</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе</t>
+  </si>
+  <si>
+    <t>73
 74</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua, SmartWater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the day: Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Start the day: Image</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Имидж</t>
+  </si>
+  <si>
+    <t>Bonaqua, SmartWater</t>
+  </si>
+  <si>
+    <t>Start the day: Coffee</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Кофе</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>A5B10102</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Burn parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисплей Берн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays, SS_Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодная Полка</t>
+    <t>Juice and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>Juice and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Display Burn parasite</t>
+  </si>
+  <si>
+    <t>Дисплей Берн</t>
+  </si>
+  <si>
+    <t>Burn 0.5</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Displays, SS_Displays</t>
+  </si>
+  <si>
+    <t>Cold Shelf</t>
+  </si>
+  <si>
+    <t>Холодная Полка</t>
   </si>
   <si>
     <t xml:space="preserve">75
@@ -1128,73 +1136,73 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must have scene type "Panoramic Photo of the Cold Shelf" to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo of the Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Энергетики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Ice Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Чай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Сок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of KPI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>LOCAL 13</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share SSD</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки SSD</t>
+  </si>
+  <si>
+    <t>Other Coolers</t>
+  </si>
+  <si>
+    <t>Must have scene type "Panoramic Photo of the Cold Shelf" to pass</t>
+  </si>
+  <si>
+    <t>Panoramic Photo of the Cold Shelf</t>
+  </si>
+  <si>
+    <t>LOCAL 10</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Water</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Вода</t>
+  </si>
+  <si>
+    <t>LOCAL 12</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Energy</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Энергетики</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Ice Tea</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Чай</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Juice</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Сок</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of KPI scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">65
@@ -1203,48 +1211,48 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in NARTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in NARTD</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Combo
 No_Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPU
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">CHILLED_SS_WATER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLED_SS_ENERGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLED_SS_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG
+    <t>CHILLED_SS_WATER</t>
+  </si>
+  <si>
+    <t>KPI result</t>
+  </si>
+  <si>
+    <t>CHILLED_SS_ENERGY</t>
+  </si>
+  <si>
+    <t>CHILLED_SS_SSD</t>
+  </si>
+  <si>
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTG
 No_O_A</t>
   </si>
   <si>
@@ -1256,64 +1264,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol, Promo SSD Display IC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1323,12 +1318,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1346,190 +1348,456 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AO98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.4777327935223"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.0485829959514"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3036437246964"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.48178137651822"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="42.5060728744939"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.0242914979757"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.6234817813765"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="7.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="24.2226720647773"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.0485829959514"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.8218623481781"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="28.6801619433198"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="17.4817813765182"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.8259109311741"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="69.0121457489879"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="33.7085020242915"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.11336032388664"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="9.48178137651822"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="9.59919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="1" width="9.93927125506073"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="11.88671875" style="1"/>
+    <col min="5" max="5" width="17.21875" style="1"/>
+    <col min="6" max="6" width="37.44140625" style="1"/>
+    <col min="7" max="7" width="34" style="1"/>
+    <col min="8" max="8" width="47.33203125" style="1"/>
+    <col min="9" max="9" width="26.88671875" style="1"/>
+    <col min="10" max="10" width="27.44140625" style="1"/>
+    <col min="11" max="11" width="17.44140625" style="1"/>
+    <col min="12" max="12" width="9.44140625" style="1"/>
+    <col min="13" max="14" width="14.33203125" style="1"/>
+    <col min="15" max="16" width="42.5546875" style="1"/>
+    <col min="17" max="17" width="21" style="1"/>
+    <col min="18" max="18" width="21.109375" style="1"/>
+    <col min="19" max="19" width="20" style="1"/>
+    <col min="20" max="20" width="14.6640625" style="1"/>
+    <col min="21" max="21" width="7.44140625" style="1"/>
+    <col min="22" max="22" width="15.6640625" style="1"/>
+    <col min="23" max="23" width="19.44140625" style="1"/>
+    <col min="24" max="24" width="24.33203125" style="1"/>
+    <col min="25" max="25" width="24.21875" style="1"/>
+    <col min="26" max="26" width="38" style="1"/>
+    <col min="27" max="27" width="21.77734375" style="1"/>
+    <col min="28" max="28" width="28.109375" style="1"/>
+    <col min="29" max="29" width="28.6640625" style="1"/>
+    <col min="30" max="30" width="17.109375" style="1"/>
+    <col min="31" max="31" width="14.44140625" style="1"/>
+    <col min="32" max="32" width="17.44140625" style="1"/>
+    <col min="33" max="33" width="15.77734375" style="1"/>
+    <col min="34" max="34" width="13.77734375" style="1"/>
+    <col min="35" max="35" width="14" style="1"/>
+    <col min="36" max="36" width="69" style="1"/>
+    <col min="37" max="37" width="33.6640625" style="1"/>
+    <col min="38" max="38" width="8.109375" style="1"/>
+    <col min="39" max="39" width="9.44140625" style="1"/>
+    <col min="40" max="40" width="11.6640625" style="1"/>
+    <col min="41" max="41" width="9.5546875" style="1"/>
+    <col min="42" max="1025" width="9.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,8 +1922,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1706,10 +1974,10 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AL2" s="6" t="n">
+      <c r="AL2" s="6">
         <v>1</v>
       </c>
-      <c r="AM2" s="6" t="n">
+      <c r="AM2" s="6">
         <v>300</v>
       </c>
       <c r="AN2" s="8" t="s">
@@ -1717,8 +1985,8 @@
       </c>
       <c r="AO2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1779,21 +2047,21 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="6" t="n">
+      <c r="AL3" s="6">
         <v>2</v>
       </c>
-      <c r="AM3" s="6" t="n">
+      <c r="AM3" s="6">
         <v>1</v>
       </c>
       <c r="AN3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AO3" s="6" t="n">
+      <c r="AO3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1820,7 +2088,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
       <c r="M4" s="6"/>
@@ -1859,26 +2127,26 @@
       <c r="AF4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="7" t="n">
-        <v>0.014194</v>
+      <c r="AG4" s="7">
+        <v>1.4194E-2</v>
       </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="6">
         <v>3</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="6">
         <v>2</v>
       </c>
       <c r="AN4" s="10"/>
-      <c r="AO4" s="6" t="n">
+      <c r="AO4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1905,7 +2173,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>1</v>
       </c>
       <c r="M5" s="6"/>
@@ -1944,26 +2212,26 @@
       <c r="AF5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG5" s="7" t="n">
-        <v>0.014194</v>
+      <c r="AG5" s="7">
+        <v>1.4194E-2</v>
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6" t="n">
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="6">
         <v>3</v>
       </c>
       <c r="AN5" s="10"/>
-      <c r="AO5" s="6" t="n">
+      <c r="AO5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1990,7 +2258,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="6"/>
@@ -2027,26 +2295,26 @@
       <c r="AF6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG6" s="7" t="n">
-        <v>0.014194</v>
+      <c r="AG6" s="7">
+        <v>1.4194E-2</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
       <c r="AK6" s="6"/>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="6">
         <v>3</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AM6" s="6">
         <v>602</v>
       </c>
       <c r="AN6" s="10"/>
-      <c r="AO6" s="6" t="n">
+      <c r="AO6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2073,7 +2341,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="6"/>
@@ -2112,26 +2380,26 @@
       <c r="AF7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" s="7" t="n">
-        <v>0.014194</v>
+      <c r="AG7" s="7">
+        <v>1.4194E-2</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
       <c r="AK7" s="6"/>
-      <c r="AL7" s="6" t="n">
+      <c r="AL7" s="6">
         <v>3</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AM7" s="6">
         <v>6</v>
       </c>
       <c r="AN7" s="10"/>
-      <c r="AO7" s="6" t="n">
+      <c r="AO7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2158,7 +2426,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
@@ -2197,26 +2465,26 @@
       <c r="AF8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG8" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="6">
         <v>3</v>
       </c>
-      <c r="AM8" s="6" t="n">
+      <c r="AM8" s="6">
         <v>7</v>
       </c>
       <c r="AN8" s="10"/>
-      <c r="AO8" s="6" t="n">
+      <c r="AO8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2243,7 +2511,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="6"/>
@@ -2282,26 +2550,26 @@
       <c r="AF9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG9" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG9" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6" t="n">
+      <c r="AL9" s="6">
         <v>3</v>
       </c>
-      <c r="AM9" s="6" t="n">
+      <c r="AM9" s="6">
         <v>4</v>
       </c>
       <c r="AN9" s="10"/>
-      <c r="AO9" s="6" t="n">
+      <c r="AO9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2328,7 +2596,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="6"/>
@@ -2367,26 +2635,26 @@
       <c r="AF10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG10" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG10" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6" t="n">
+      <c r="AL10" s="6">
         <v>3</v>
       </c>
-      <c r="AM10" s="6" t="n">
+      <c r="AM10" s="6">
         <v>5</v>
       </c>
       <c r="AN10" s="10"/>
-      <c r="AO10" s="6" t="n">
+      <c r="AO10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+    <row r="11" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2413,7 +2681,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="6"/>
@@ -2421,7 +2689,7 @@
       <c r="O11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="6">
         <v>42099697</v>
       </c>
       <c r="Q11" s="6"/>
@@ -2450,26 +2718,26 @@
       <c r="AF11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG11" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG11" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
       <c r="AK11" s="6"/>
-      <c r="AL11" s="6" t="n">
+      <c r="AL11" s="6">
         <v>3</v>
       </c>
-      <c r="AM11" s="6" t="n">
+      <c r="AM11" s="6">
         <v>603</v>
       </c>
       <c r="AN11" s="10"/>
-      <c r="AO11" s="6" t="n">
+      <c r="AO11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2496,7 +2764,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="6">
         <v>1</v>
       </c>
       <c r="M12" s="6"/>
@@ -2535,26 +2803,26 @@
       <c r="AF12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG12" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG12" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
       <c r="AK12" s="6"/>
-      <c r="AL12" s="6" t="n">
+      <c r="AL12" s="6">
         <v>3</v>
       </c>
-      <c r="AM12" s="6" t="n">
+      <c r="AM12" s="6">
         <v>14</v>
       </c>
       <c r="AN12" s="10"/>
-      <c r="AO12" s="6" t="n">
+      <c r="AO12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2581,7 +2849,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
       <c r="M13" s="6"/>
@@ -2620,26 +2888,26 @@
       <c r="AF13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG13" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG13" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="6">
         <v>3</v>
       </c>
-      <c r="AM13" s="6" t="n">
+      <c r="AM13" s="6">
         <v>11</v>
       </c>
       <c r="AN13" s="10"/>
-      <c r="AO13" s="6" t="n">
+      <c r="AO13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    <row r="14" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2666,7 +2934,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="6">
         <v>1</v>
       </c>
       <c r="M14" s="6"/>
@@ -2703,26 +2971,26 @@
       <c r="AF14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG14" s="7" t="n">
-        <v>0.0089</v>
+      <c r="AG14" s="7">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="6">
         <v>3</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="6">
         <v>606</v>
       </c>
       <c r="AN14" s="10"/>
-      <c r="AO14" s="6" t="n">
+      <c r="AO14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+    <row r="15" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2749,7 +3017,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>1</v>
       </c>
       <c r="M15" s="6"/>
@@ -2786,26 +3054,26 @@
       <c r="AF15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG15" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG15" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="6">
         <v>3</v>
       </c>
-      <c r="AM15" s="6" t="n">
+      <c r="AM15" s="6">
         <v>607</v>
       </c>
       <c r="AN15" s="10"/>
-      <c r="AO15" s="6" t="n">
+      <c r="AO15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    <row r="16" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2832,7 +3100,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>1</v>
       </c>
       <c r="M16" s="6"/>
@@ -2869,26 +3137,26 @@
       <c r="AF16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG16" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG16" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6" t="n">
+      <c r="AL16" s="6">
         <v>3</v>
       </c>
-      <c r="AM16" s="6" t="n">
+      <c r="AM16" s="6">
         <v>605</v>
       </c>
       <c r="AN16" s="10"/>
-      <c r="AO16" s="6" t="n">
+      <c r="AO16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -2915,7 +3183,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="6">
         <v>1</v>
       </c>
       <c r="M17" s="6"/>
@@ -2954,26 +3222,26 @@
       <c r="AF17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG17" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG17" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="6" t="n">
+      <c r="AL17" s="6">
         <v>3</v>
       </c>
-      <c r="AM17" s="6" t="n">
+      <c r="AM17" s="6">
         <v>9</v>
       </c>
       <c r="AN17" s="10"/>
-      <c r="AO17" s="6" t="n">
+      <c r="AO17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3000,7 +3268,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="6">
         <v>1</v>
       </c>
       <c r="M18" s="6"/>
@@ -3039,26 +3307,26 @@
       <c r="AF18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG18" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG18" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-      <c r="AL18" s="6" t="n">
+      <c r="AL18" s="6">
         <v>3</v>
       </c>
-      <c r="AM18" s="6" t="n">
+      <c r="AM18" s="6">
         <v>17</v>
       </c>
       <c r="AN18" s="10"/>
-      <c r="AO18" s="6" t="n">
+      <c r="AO18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3085,7 +3353,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="6">
         <v>1</v>
       </c>
       <c r="M19" s="6"/>
@@ -3124,26 +3392,26 @@
       <c r="AF19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG19" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG19" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-      <c r="AL19" s="6" t="n">
+      <c r="AL19" s="6">
         <v>3</v>
       </c>
-      <c r="AM19" s="6" t="n">
+      <c r="AM19" s="6">
         <v>20</v>
       </c>
       <c r="AN19" s="10"/>
-      <c r="AO19" s="6" t="n">
+      <c r="AO19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3170,7 +3438,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="6">
         <v>1</v>
       </c>
       <c r="M20" s="6"/>
@@ -3209,26 +3477,26 @@
       <c r="AF20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG20" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG20" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
-      <c r="AL20" s="6" t="n">
+      <c r="AL20" s="6">
         <v>3</v>
       </c>
-      <c r="AM20" s="6" t="n">
+      <c r="AM20" s="6">
         <v>19</v>
       </c>
       <c r="AN20" s="10"/>
-      <c r="AO20" s="6" t="n">
+      <c r="AO20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3255,7 +3523,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>1</v>
       </c>
       <c r="M21" s="6"/>
@@ -3263,7 +3531,7 @@
       <c r="O21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="6">
         <v>5449000253101</v>
       </c>
       <c r="Q21" s="6"/>
@@ -3292,26 +3560,26 @@
       <c r="AF21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="7" t="n">
-        <v>0.005605</v>
+      <c r="AG21" s="7">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-      <c r="AL21" s="6" t="n">
+      <c r="AL21" s="6">
         <v>3</v>
       </c>
-      <c r="AM21" s="6" t="n">
+      <c r="AM21" s="6">
         <v>601</v>
       </c>
       <c r="AN21" s="10"/>
-      <c r="AO21" s="6" t="n">
+      <c r="AO21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3338,7 +3606,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="6">
         <v>1</v>
       </c>
       <c r="M22" s="6"/>
@@ -3377,26 +3645,26 @@
       <c r="AF22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG22" s="7" t="n">
-        <v>0.005589</v>
+      <c r="AG22" s="7">
+        <v>5.5890000000000002E-3</v>
       </c>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="6" t="n">
+      <c r="AL22" s="6">
         <v>3</v>
       </c>
-      <c r="AM22" s="6" t="n">
+      <c r="AM22" s="6">
         <v>18</v>
       </c>
       <c r="AN22" s="10"/>
-      <c r="AO22" s="6" t="n">
+      <c r="AO22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3457,21 +3725,21 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-      <c r="AL23" s="6" t="n">
+      <c r="AL23" s="6">
         <v>2</v>
       </c>
-      <c r="AM23" s="6" t="n">
+      <c r="AM23" s="6">
         <v>23</v>
       </c>
       <c r="AN23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AO23" s="6" t="n">
+      <c r="AO23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3498,7 +3766,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="6">
         <v>1</v>
       </c>
       <c r="M24" s="6"/>
@@ -3537,26 +3805,26 @@
       <c r="AF24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG24" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG24" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
       <c r="AK24" s="6"/>
-      <c r="AL24" s="6" t="n">
+      <c r="AL24" s="6">
         <v>3</v>
       </c>
-      <c r="AM24" s="6" t="n">
+      <c r="AM24" s="6">
         <v>24</v>
       </c>
       <c r="AN24" s="10"/>
-      <c r="AO24" s="6" t="n">
+      <c r="AO24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3583,7 +3851,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="6">
         <v>1</v>
       </c>
       <c r="M25" s="6"/>
@@ -3622,26 +3890,26 @@
       <c r="AF25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG25" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG25" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="6" t="n">
+      <c r="AL25" s="6">
         <v>3</v>
       </c>
-      <c r="AM25" s="6" t="n">
+      <c r="AM25" s="6">
         <v>25</v>
       </c>
       <c r="AN25" s="10"/>
-      <c r="AO25" s="6" t="n">
+      <c r="AO25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -3668,7 +3936,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="6">
         <v>1</v>
       </c>
       <c r="M26" s="6"/>
@@ -3707,26 +3975,26 @@
       <c r="AF26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG26" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG26" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="6"/>
-      <c r="AL26" s="6" t="n">
+      <c r="AL26" s="6">
         <v>3</v>
       </c>
-      <c r="AM26" s="6" t="n">
+      <c r="AM26" s="6">
         <v>26</v>
       </c>
       <c r="AN26" s="10"/>
-      <c r="AO26" s="6" t="n">
+      <c r="AO26" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -3753,7 +4021,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="6">
         <v>1</v>
       </c>
       <c r="M27" s="6"/>
@@ -3792,26 +4060,26 @@
       <c r="AF27" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG27" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG27" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
       <c r="AK27" s="6"/>
-      <c r="AL27" s="6" t="n">
+      <c r="AL27" s="6">
         <v>3</v>
       </c>
-      <c r="AM27" s="6" t="n">
+      <c r="AM27" s="6">
         <v>27</v>
       </c>
       <c r="AN27" s="10"/>
-      <c r="AO27" s="6" t="n">
+      <c r="AO27" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -3838,7 +4106,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="6">
         <v>1</v>
       </c>
       <c r="M28" s="6"/>
@@ -3877,26 +4145,26 @@
       <c r="AF28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG28" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG28" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
       <c r="AK28" s="6"/>
-      <c r="AL28" s="6" t="n">
+      <c r="AL28" s="6">
         <v>3</v>
       </c>
-      <c r="AM28" s="6" t="n">
+      <c r="AM28" s="6">
         <v>28</v>
       </c>
       <c r="AN28" s="10"/>
-      <c r="AO28" s="6" t="n">
+      <c r="AO28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -3923,7 +4191,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="6">
         <v>1</v>
       </c>
       <c r="M29" s="6"/>
@@ -3931,7 +4199,7 @@
       <c r="O29" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="6">
         <v>5449000152190</v>
       </c>
       <c r="Q29" s="6"/>
@@ -3960,26 +4228,26 @@
       <c r="AF29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG29" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG29" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
       <c r="AK29" s="6"/>
-      <c r="AL29" s="6" t="n">
+      <c r="AL29" s="6">
         <v>3</v>
       </c>
-      <c r="AM29" s="6" t="n">
+      <c r="AM29" s="6">
         <v>653</v>
       </c>
       <c r="AN29" s="10"/>
-      <c r="AO29" s="6" t="n">
+      <c r="AO29" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4040,21 +4308,21 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="6"/>
-      <c r="AL30" s="6" t="n">
+      <c r="AL30" s="6">
         <v>2</v>
       </c>
-      <c r="AM30" s="6" t="n">
+      <c r="AM30" s="6">
         <v>29</v>
       </c>
       <c r="AN30" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AO30" s="6" t="n">
+      <c r="AO30" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4081,7 +4349,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="6">
         <v>1</v>
       </c>
       <c r="M31" s="6"/>
@@ -4120,26 +4388,26 @@
       <c r="AF31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG31" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG31" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
-      <c r="AL31" s="6" t="n">
+      <c r="AL31" s="6">
         <v>3</v>
       </c>
-      <c r="AM31" s="6" t="n">
+      <c r="AM31" s="6">
         <v>30</v>
       </c>
       <c r="AN31" s="10"/>
-      <c r="AO31" s="6" t="n">
+      <c r="AO31" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4166,7 +4434,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="6">
         <v>1</v>
       </c>
       <c r="M32" s="6"/>
@@ -4205,26 +4473,26 @@
       <c r="AF32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG32" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG32" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
-      <c r="AL32" s="6" t="n">
+      <c r="AL32" s="6">
         <v>3</v>
       </c>
-      <c r="AM32" s="6" t="n">
+      <c r="AM32" s="6">
         <v>31</v>
       </c>
       <c r="AN32" s="10"/>
-      <c r="AO32" s="6" t="n">
+      <c r="AO32" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -4251,7 +4519,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6" t="n">
+      <c r="L33" s="6">
         <v>1</v>
       </c>
       <c r="M33" s="6"/>
@@ -4290,26 +4558,26 @@
       <c r="AF33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG33" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG33" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
-      <c r="AL33" s="6" t="n">
+      <c r="AL33" s="6">
         <v>3</v>
       </c>
-      <c r="AM33" s="6" t="n">
+      <c r="AM33" s="6">
         <v>33</v>
       </c>
       <c r="AN33" s="10"/>
-      <c r="AO33" s="6" t="n">
+      <c r="AO33" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -4336,7 +4604,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="6">
         <v>1</v>
       </c>
       <c r="M34" s="6"/>
@@ -4344,7 +4612,7 @@
       <c r="O34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="6">
         <v>5060517888794</v>
       </c>
       <c r="Q34" s="6"/>
@@ -4375,26 +4643,26 @@
       <c r="AF34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG34" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG34" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
       <c r="AK34" s="6"/>
-      <c r="AL34" s="6" t="n">
+      <c r="AL34" s="6">
         <v>3</v>
       </c>
-      <c r="AM34" s="6" t="n">
+      <c r="AM34" s="6">
         <v>35</v>
       </c>
       <c r="AN34" s="10"/>
-      <c r="AO34" s="6" t="n">
+      <c r="AO34" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -4421,7 +4689,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="6" t="n">
+      <c r="L35" s="6">
         <v>1</v>
       </c>
       <c r="M35" s="6"/>
@@ -4460,26 +4728,26 @@
       <c r="AF35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG35" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG35" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="6"/>
-      <c r="AL35" s="6" t="n">
+      <c r="AL35" s="6">
         <v>3</v>
       </c>
-      <c r="AM35" s="6" t="n">
+      <c r="AM35" s="6">
         <v>34</v>
       </c>
       <c r="AN35" s="10"/>
-      <c r="AO35" s="6" t="n">
+      <c r="AO35" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4506,7 +4774,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6" t="n">
+      <c r="L36" s="6">
         <v>1</v>
       </c>
       <c r="M36" s="6"/>
@@ -4545,26 +4813,26 @@
       <c r="AF36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG36" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG36" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
       <c r="AK36" s="6"/>
-      <c r="AL36" s="6" t="n">
+      <c r="AL36" s="6">
         <v>3</v>
       </c>
-      <c r="AM36" s="6" t="n">
+      <c r="AM36" s="6">
         <v>67</v>
       </c>
       <c r="AN36" s="10"/>
-      <c r="AO36" s="6" t="n">
+      <c r="AO36" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4591,7 +4859,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="6">
         <v>1</v>
       </c>
       <c r="M37" s="6"/>
@@ -4630,26 +4898,26 @@
       <c r="AF37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG37" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG37" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
       <c r="AK37" s="6"/>
-      <c r="AL37" s="6" t="n">
+      <c r="AL37" s="6">
         <v>3</v>
       </c>
-      <c r="AM37" s="6" t="n">
+      <c r="AM37" s="6">
         <v>32</v>
       </c>
       <c r="AN37" s="10"/>
-      <c r="AO37" s="6" t="n">
+      <c r="AO37" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -4710,21 +4978,21 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
-      <c r="AL38" s="6" t="n">
+      <c r="AL38" s="6">
         <v>2</v>
       </c>
-      <c r="AM38" s="6" t="n">
+      <c r="AM38" s="6">
         <v>36</v>
       </c>
       <c r="AN38" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="AO38" s="6" t="n">
+      <c r="AO38" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -4751,7 +5019,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6" t="n">
+      <c r="L39" s="6">
         <v>1</v>
       </c>
       <c r="M39" s="6"/>
@@ -4790,26 +5058,26 @@
       <c r="AF39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG39" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG39" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
       <c r="AK39" s="6"/>
-      <c r="AL39" s="6" t="n">
+      <c r="AL39" s="6">
         <v>3</v>
       </c>
-      <c r="AM39" s="6" t="n">
+      <c r="AM39" s="6">
         <v>39</v>
       </c>
       <c r="AN39" s="10"/>
-      <c r="AO39" s="6" t="n">
+      <c r="AO39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -4836,7 +5104,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="6">
         <v>1</v>
       </c>
       <c r="M40" s="6"/>
@@ -4875,26 +5143,26 @@
       <c r="AF40" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG40" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG40" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
-      <c r="AL40" s="6" t="n">
+      <c r="AL40" s="6">
         <v>3</v>
       </c>
-      <c r="AM40" s="6" t="n">
+      <c r="AM40" s="6">
         <v>37</v>
       </c>
       <c r="AN40" s="10"/>
-      <c r="AO40" s="6" t="n">
+      <c r="AO40" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4921,7 +5189,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="6" t="n">
+      <c r="L41" s="6">
         <v>1</v>
       </c>
       <c r="M41" s="6"/>
@@ -4960,26 +5228,26 @@
       <c r="AF41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG41" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG41" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
       <c r="AK41" s="6"/>
-      <c r="AL41" s="6" t="n">
+      <c r="AL41" s="6">
         <v>3</v>
       </c>
-      <c r="AM41" s="6" t="n">
+      <c r="AM41" s="6">
         <v>38</v>
       </c>
       <c r="AN41" s="10"/>
-      <c r="AO41" s="6" t="n">
+      <c r="AO41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>49</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5006,7 +5274,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="6" t="n">
+      <c r="L42" s="6">
         <v>1</v>
       </c>
       <c r="M42" s="6"/>
@@ -5045,26 +5313,26 @@
       <c r="AF42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG42" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
       <c r="AK42" s="6"/>
-      <c r="AL42" s="6" t="n">
+      <c r="AL42" s="6">
         <v>3</v>
       </c>
-      <c r="AM42" s="6" t="n">
+      <c r="AM42" s="6">
         <v>40</v>
       </c>
       <c r="AN42" s="10"/>
-      <c r="AO42" s="6" t="n">
+      <c r="AO42" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+    <row r="43" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -5091,7 +5359,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="6">
         <v>1</v>
       </c>
       <c r="M43" s="6"/>
@@ -5130,26 +5398,26 @@
       <c r="AF43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG43" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG43" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
       <c r="AK43" s="6"/>
-      <c r="AL43" s="6" t="n">
+      <c r="AL43" s="6">
         <v>3</v>
       </c>
-      <c r="AM43" s="6" t="n">
+      <c r="AM43" s="6">
         <v>41</v>
       </c>
       <c r="AN43" s="10"/>
-      <c r="AO43" s="6" t="n">
+      <c r="AO43" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+    <row r="44" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>52</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -5210,21 +5478,21 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
-      <c r="AL44" s="6" t="n">
+      <c r="AL44" s="6">
         <v>2</v>
       </c>
-      <c r="AM44" s="6" t="n">
+      <c r="AM44" s="6">
         <v>43</v>
       </c>
       <c r="AN44" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="AO44" s="6" t="n">
+      <c r="AO44" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="45" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>53</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -5251,7 +5519,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="6" t="n">
+      <c r="L45" s="6">
         <v>1</v>
       </c>
       <c r="M45" s="6"/>
@@ -5290,26 +5558,26 @@
       <c r="AF45" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG45" s="7" t="n">
-        <v>0.012919</v>
+      <c r="AG45" s="7">
+        <v>1.2919E-2</v>
       </c>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
       <c r="AK45" s="6"/>
-      <c r="AL45" s="6" t="n">
+      <c r="AL45" s="6">
         <v>3</v>
       </c>
-      <c r="AM45" s="6" t="n">
+      <c r="AM45" s="6">
         <v>44</v>
       </c>
       <c r="AN45" s="10"/>
-      <c r="AO45" s="6" t="n">
+      <c r="AO45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>54</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -5336,7 +5604,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6" t="n">
+      <c r="L46" s="6">
         <v>1</v>
       </c>
       <c r="M46" s="6"/>
@@ -5375,26 +5643,26 @@
       <c r="AF46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG46" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG46" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="6" t="n">
+      <c r="AL46" s="6">
         <v>3</v>
       </c>
-      <c r="AM46" s="6" t="n">
+      <c r="AM46" s="6">
         <v>45</v>
       </c>
       <c r="AN46" s="10"/>
-      <c r="AO46" s="6" t="n">
+      <c r="AO46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+    <row r="47" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5421,7 +5689,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6" t="n">
+      <c r="L47" s="6">
         <v>1</v>
       </c>
       <c r="M47" s="6"/>
@@ -5460,26 +5728,26 @@
       <c r="AF47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG47" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG47" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="6"/>
-      <c r="AL47" s="6" t="n">
+      <c r="AL47" s="6">
         <v>3</v>
       </c>
-      <c r="AM47" s="6" t="n">
+      <c r="AM47" s="6">
         <v>46</v>
       </c>
       <c r="AN47" s="10"/>
-      <c r="AO47" s="6" t="n">
+      <c r="AO47" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+    <row r="48" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>56</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5506,7 +5774,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="6" t="n">
+      <c r="L48" s="6">
         <v>1</v>
       </c>
       <c r="M48" s="6"/>
@@ -5545,26 +5813,26 @@
       <c r="AF48" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG48" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG48" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
-      <c r="AL48" s="6" t="n">
+      <c r="AL48" s="6">
         <v>3</v>
       </c>
-      <c r="AM48" s="6" t="n">
+      <c r="AM48" s="6">
         <v>47</v>
       </c>
       <c r="AN48" s="10"/>
-      <c r="AO48" s="6" t="n">
+      <c r="AO48" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>57</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -5591,7 +5859,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="6" t="n">
+      <c r="L49" s="6">
         <v>1</v>
       </c>
       <c r="M49" s="6"/>
@@ -5630,26 +5898,26 @@
       <c r="AF49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG49" s="7" t="n">
-        <v>0.008416</v>
+      <c r="AG49" s="7">
+        <v>8.4159999999999999E-3</v>
       </c>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
       <c r="AK49" s="6"/>
-      <c r="AL49" s="6" t="n">
+      <c r="AL49" s="6">
         <v>3</v>
       </c>
-      <c r="AM49" s="6" t="n">
+      <c r="AM49" s="6">
         <v>48</v>
       </c>
       <c r="AN49" s="10"/>
-      <c r="AO49" s="6" t="n">
+      <c r="AO49" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+    <row r="50" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>58</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -5676,7 +5944,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6" t="n">
+      <c r="L50" s="6">
         <v>1</v>
       </c>
       <c r="M50" s="6"/>
@@ -5713,26 +5981,26 @@
       <c r="AF50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG50" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG50" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="6"/>
-      <c r="AL50" s="6" t="n">
+      <c r="AL50" s="6">
         <v>3</v>
       </c>
-      <c r="AM50" s="6" t="n">
+      <c r="AM50" s="6">
         <v>104</v>
       </c>
       <c r="AN50" s="10"/>
-      <c r="AO50" s="6" t="n">
+      <c r="AO50" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+    <row r="51" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>59</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5759,7 +6027,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="6" t="n">
+      <c r="L51" s="6">
         <v>1</v>
       </c>
       <c r="M51" s="6"/>
@@ -5796,26 +6064,26 @@
       <c r="AF51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG51" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG51" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
       <c r="AK51" s="6"/>
-      <c r="AL51" s="6" t="n">
+      <c r="AL51" s="6">
         <v>3</v>
       </c>
-      <c r="AM51" s="6" t="n">
+      <c r="AM51" s="6">
         <v>105</v>
       </c>
       <c r="AN51" s="10"/>
-      <c r="AO51" s="6" t="n">
+      <c r="AO51" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+    <row r="52" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -5842,7 +6110,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="6" t="n">
+      <c r="L52" s="6">
         <v>1</v>
       </c>
       <c r="M52" s="6"/>
@@ -5881,26 +6149,26 @@
       <c r="AF52" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG52" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG52" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
       <c r="AK52" s="6"/>
-      <c r="AL52" s="6" t="n">
+      <c r="AL52" s="6">
         <v>3</v>
       </c>
-      <c r="AM52" s="6" t="n">
+      <c r="AM52" s="6">
         <v>52</v>
       </c>
       <c r="AN52" s="10"/>
-      <c r="AO52" s="6" t="n">
+      <c r="AO52" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+    <row r="53" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -5927,7 +6195,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6" t="n">
+      <c r="L53" s="6">
         <v>1</v>
       </c>
       <c r="M53" s="6"/>
@@ -5966,26 +6234,26 @@
       <c r="AF53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG53" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG53" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6"/>
-      <c r="AL53" s="6" t="n">
+      <c r="AL53" s="6">
         <v>3</v>
       </c>
-      <c r="AM53" s="6" t="n">
+      <c r="AM53" s="6">
         <v>50</v>
       </c>
       <c r="AN53" s="10"/>
-      <c r="AO53" s="6" t="n">
+      <c r="AO53" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+    <row r="54" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>62</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6012,7 +6280,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6" t="n">
+      <c r="L54" s="6">
         <v>1</v>
       </c>
       <c r="M54" s="6"/>
@@ -6020,7 +6288,7 @@
       <c r="O54" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="P54" s="6" t="n">
+      <c r="P54" s="6">
         <v>4650075423257</v>
       </c>
       <c r="Q54" s="6"/>
@@ -6051,26 +6319,26 @@
       <c r="AF54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG54" s="7" t="n">
-        <v>0.00317</v>
+      <c r="AG54" s="7">
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
-      <c r="AL54" s="6" t="n">
+      <c r="AL54" s="6">
         <v>3</v>
       </c>
-      <c r="AM54" s="6" t="n">
+      <c r="AM54" s="6">
         <v>49</v>
       </c>
       <c r="AN54" s="10"/>
-      <c r="AO54" s="6" t="n">
+      <c r="AO54" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+    <row r="55" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6097,7 +6365,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="6" t="n">
+      <c r="L55" s="6">
         <v>1</v>
       </c>
       <c r="M55" s="6"/>
@@ -6105,7 +6373,7 @@
       <c r="O55" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="P55" s="6" t="n">
+      <c r="P55" s="6">
         <v>4650075423233</v>
       </c>
       <c r="Q55" s="6"/>
@@ -6136,26 +6404,26 @@
       <c r="AF55" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG55" s="7" t="n">
-        <v>0.003148</v>
+      <c r="AG55" s="7">
+        <v>3.1480000000000002E-3</v>
       </c>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
-      <c r="AL55" s="6" t="n">
+      <c r="AL55" s="6">
         <v>3</v>
       </c>
-      <c r="AM55" s="6" t="n">
+      <c r="AM55" s="6">
         <v>53</v>
       </c>
       <c r="AN55" s="10"/>
-      <c r="AO55" s="6" t="n">
+      <c r="AO55" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
+    <row r="56" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
         <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6206,10 +6474,10 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
-      <c r="AL56" s="6" t="n">
+      <c r="AL56" s="6">
         <v>1</v>
       </c>
-      <c r="AM56" s="6" t="n">
+      <c r="AM56" s="6">
         <v>520</v>
       </c>
       <c r="AN56" s="8" t="s">
@@ -6217,8 +6485,8 @@
       </c>
       <c r="AO56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
+    <row r="57" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6249,7 +6517,7 @@
         <v>51</v>
       </c>
       <c r="K57" s="6"/>
-      <c r="L57" s="6" t="n">
+      <c r="L57" s="6">
         <v>0.5</v>
       </c>
       <c r="M57" s="6"/>
@@ -6288,13 +6556,13 @@
       <c r="AF57" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG57" s="7" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AH57" s="6" t="n">
+      <c r="AG57" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AH57" s="6">
         <v>0</v>
       </c>
-      <c r="AI57" s="6" t="n">
+      <c r="AI57" s="6">
         <v>1</v>
       </c>
       <c r="AJ57" s="6" t="s">
@@ -6303,19 +6571,19 @@
       <c r="AK57" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AL57" s="6" t="n">
+      <c r="AL57" s="6">
         <v>2</v>
       </c>
-      <c r="AM57" s="6" t="n">
+      <c r="AM57" s="6">
         <v>54</v>
       </c>
       <c r="AN57" s="10"/>
-      <c r="AO57" s="6" t="n">
+      <c r="AO57" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
+    <row r="58" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>67</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -6346,7 +6614,7 @@
         <v>124</v>
       </c>
       <c r="K58" s="6"/>
-      <c r="L58" s="6" t="n">
+      <c r="L58" s="6">
         <v>0.15</v>
       </c>
       <c r="M58" s="6"/>
@@ -6385,13 +6653,13 @@
       <c r="AF58" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG58" s="7" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AH58" s="6" t="n">
+      <c r="AG58" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AH58" s="6">
         <v>0</v>
       </c>
-      <c r="AI58" s="6" t="n">
+      <c r="AI58" s="6">
         <v>1</v>
       </c>
       <c r="AJ58" s="6" t="s">
@@ -6400,19 +6668,19 @@
       <c r="AK58" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AL58" s="6" t="n">
+      <c r="AL58" s="6">
         <v>2</v>
       </c>
-      <c r="AM58" s="6" t="n">
+      <c r="AM58" s="6">
         <v>55</v>
       </c>
       <c r="AN58" s="10"/>
-      <c r="AO58" s="6" t="n">
+      <c r="AO58" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
+    <row r="59" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6443,7 +6711,7 @@
         <v>145</v>
       </c>
       <c r="K59" s="6"/>
-      <c r="L59" s="6" t="n">
+      <c r="L59" s="6">
         <v>0.2</v>
       </c>
       <c r="M59" s="6"/>
@@ -6482,13 +6750,13 @@
       <c r="AF59" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG59" s="7" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AH59" s="6" t="n">
+      <c r="AG59" s="7">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AH59" s="6">
         <v>0</v>
       </c>
-      <c r="AI59" s="6" t="n">
+      <c r="AI59" s="6">
         <v>1</v>
       </c>
       <c r="AJ59" s="6" t="s">
@@ -6497,19 +6765,19 @@
       <c r="AK59" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AL59" s="6" t="n">
+      <c r="AL59" s="6">
         <v>2</v>
       </c>
-      <c r="AM59" s="6" t="n">
+      <c r="AM59" s="6">
         <v>56</v>
       </c>
       <c r="AN59" s="10"/>
-      <c r="AO59" s="6" t="n">
+      <c r="AO59" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+    <row r="60" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>71</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6560,10 +6828,10 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
       <c r="AK60" s="6"/>
-      <c r="AL60" s="6" t="n">
+      <c r="AL60" s="6">
         <v>1</v>
       </c>
-      <c r="AM60" s="6" t="n">
+      <c r="AM60" s="6">
         <v>310</v>
       </c>
       <c r="AN60" s="8" t="s">
@@ -6571,8 +6839,8 @@
       </c>
       <c r="AO60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+    <row r="61" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>72</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -6623,21 +6891,21 @@
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
       <c r="AK61" s="6"/>
-      <c r="AL61" s="6" t="n">
+      <c r="AL61" s="6">
         <v>1</v>
       </c>
-      <c r="AM61" s="6" t="n">
+      <c r="AM61" s="6">
         <v>311</v>
       </c>
-      <c r="AN61" s="10" t="n">
+      <c r="AN61" s="10">
         <v>62</v>
       </c>
-      <c r="AO61" s="6" t="n">
+      <c r="AO61" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
+    <row r="62" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>73</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6691,7 +6959,7 @@
       <c r="AF62" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG62" s="7" t="n">
+      <c r="AG62" s="7">
         <v>0.1275</v>
       </c>
       <c r="AH62" s="6"/>
@@ -6700,21 +6968,21 @@
         <v>250</v>
       </c>
       <c r="AK62" s="6"/>
-      <c r="AL62" s="6" t="n">
+      <c r="AL62" s="6">
         <v>2</v>
       </c>
-      <c r="AM62" s="6" t="n">
+      <c r="AM62" s="6">
         <v>62</v>
       </c>
       <c r="AN62" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="AO62" s="6" t="n">
+      <c r="AO62" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
+    <row r="63" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>74</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -6741,7 +7009,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6" t="n">
+      <c r="L63" s="6">
         <v>0.5</v>
       </c>
       <c r="M63" s="6"/>
@@ -6783,19 +7051,19 @@
         <v>258</v>
       </c>
       <c r="AK63" s="6"/>
-      <c r="AL63" s="6" t="n">
+      <c r="AL63" s="6">
         <v>3</v>
       </c>
-      <c r="AM63" s="6" t="n">
+      <c r="AM63" s="6">
         <v>63</v>
       </c>
       <c r="AN63" s="10"/>
-      <c r="AO63" s="6" t="n">
+      <c r="AO63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
+    <row r="64" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>75</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -6822,7 +7090,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="6" t="n">
+      <c r="L64" s="6">
         <v>0.01</v>
       </c>
       <c r="M64" s="6"/>
@@ -6862,19 +7130,19 @@
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
       <c r="AK64" s="6"/>
-      <c r="AL64" s="6" t="n">
+      <c r="AL64" s="6">
         <v>3</v>
       </c>
-      <c r="AM64" s="6" t="n">
+      <c r="AM64" s="6">
         <v>64</v>
       </c>
       <c r="AN64" s="10"/>
-      <c r="AO64" s="6" t="n">
+      <c r="AO64" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
+    <row r="65" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>76</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -6925,21 +7193,21 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
       <c r="AK65" s="6"/>
-      <c r="AL65" s="6" t="n">
+      <c r="AL65" s="6">
         <v>1</v>
       </c>
-      <c r="AM65" s="6" t="n">
+      <c r="AM65" s="6">
         <v>312</v>
       </c>
       <c r="AN65" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AO65" s="6" t="n">
+      <c r="AO65" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
+    <row r="66" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
         <v>77</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -6966,7 +7234,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6" t="n">
+      <c r="L66" s="6">
         <v>1</v>
       </c>
       <c r="M66" s="6"/>
@@ -6999,8 +7267,8 @@
       <c r="AF66" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG66" s="7" t="n">
-        <v>0.0425</v>
+      <c r="AG66" s="7">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
@@ -7010,19 +7278,19 @@
       <c r="AK66" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="AL66" s="6" t="n">
+      <c r="AL66" s="6">
         <v>2</v>
       </c>
-      <c r="AM66" s="6" t="n">
+      <c r="AM66" s="6">
         <v>65</v>
       </c>
       <c r="AN66" s="10"/>
-      <c r="AO66" s="6" t="n">
+      <c r="AO66" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
+    <row r="67" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>78</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -7049,7 +7317,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="6" t="n">
+      <c r="L67" s="6">
         <v>1</v>
       </c>
       <c r="M67" s="6"/>
@@ -7084,8 +7352,8 @@
       <c r="AF67" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG67" s="7" t="n">
-        <v>0.0425</v>
+      <c r="AG67" s="7">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
@@ -7093,19 +7361,19 @@
         <v>278</v>
       </c>
       <c r="AK67" s="6"/>
-      <c r="AL67" s="6" t="n">
+      <c r="AL67" s="6">
         <v>2</v>
       </c>
-      <c r="AM67" s="6" t="n">
+      <c r="AM67" s="6">
         <v>66</v>
       </c>
       <c r="AN67" s="10"/>
-      <c r="AO67" s="6" t="n">
+      <c r="AO67" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
+    <row r="68" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
         <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -7133,10 +7401,10 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="6" t="n">
+      <c r="M68" s="6">
         <v>1</v>
       </c>
-      <c r="N68" s="6" t="n">
+      <c r="N68" s="6">
         <v>15</v>
       </c>
       <c r="O68" s="6" t="s">
@@ -7169,8 +7437,8 @@
       <c r="AF68" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG68" s="7" t="n">
-        <v>0.0425</v>
+      <c r="AG68" s="7">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
@@ -7178,19 +7446,19 @@
         <v>278</v>
       </c>
       <c r="AK68" s="6"/>
-      <c r="AL68" s="6" t="n">
+      <c r="AL68" s="6">
         <v>2</v>
       </c>
-      <c r="AM68" s="6" t="n">
+      <c r="AM68" s="6">
         <v>167</v>
       </c>
       <c r="AN68" s="10"/>
-      <c r="AO68" s="6" t="n">
+      <c r="AO68" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
+    <row r="69" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>80</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -7241,10 +7509,10 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
       <c r="AK69" s="6"/>
-      <c r="AL69" s="6" t="n">
+      <c r="AL69" s="6">
         <v>1</v>
       </c>
-      <c r="AM69" s="6" t="n">
+      <c r="AM69" s="6">
         <v>400</v>
       </c>
       <c r="AN69" s="8" t="s">
@@ -7252,8 +7520,8 @@
       </c>
       <c r="AO69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
+    <row r="70" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
         <v>81</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -7280,7 +7548,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="6" t="n">
+      <c r="L70" s="6">
         <v>1</v>
       </c>
       <c r="M70" s="6"/>
@@ -7307,28 +7575,28 @@
       <c r="AF70" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG70" s="7" t="n">
-        <v>0.0425</v>
+      <c r="AG70" s="7">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
       <c r="AK70" s="6"/>
-      <c r="AL70" s="6" t="n">
+      <c r="AL70" s="6">
         <v>2</v>
       </c>
-      <c r="AM70" s="6" t="n">
+      <c r="AM70" s="6">
         <v>130</v>
       </c>
-      <c r="AN70" s="10" t="n">
+      <c r="AN70" s="10">
         <v>57</v>
       </c>
-      <c r="AO70" s="6" t="n">
+      <c r="AO70" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
+    <row r="71" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
         <v>82</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7355,7 +7623,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="6" t="n">
+      <c r="L71" s="6">
         <v>4</v>
       </c>
       <c r="M71" s="6"/>
@@ -7382,7 +7650,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
@@ -7397,19 +7665,19 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
       <c r="AK71" s="6"/>
-      <c r="AL71" s="6" t="n">
+      <c r="AL71" s="6">
         <v>3</v>
       </c>
-      <c r="AM71" s="6" t="n">
+      <c r="AM71" s="6">
         <v>57</v>
       </c>
       <c r="AN71" s="10"/>
-      <c r="AO71" s="6" t="n">
+      <c r="AO71" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
+    <row r="72" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>84</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -7422,21 +7690,21 @@
         <v>43</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="6" t="n">
+      <c r="L72" s="6">
         <v>1</v>
       </c>
       <c r="M72" s="6"/>
@@ -7446,7 +7714,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
@@ -7455,7 +7723,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
@@ -7465,28 +7733,28 @@
       <c r="AF72" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG72" s="7" t="n">
-        <v>0.025</v>
+      <c r="AG72" s="7">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AH72" s="12"/>
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
       <c r="AK72" s="6"/>
-      <c r="AL72" s="6" t="n">
+      <c r="AL72" s="6">
         <v>2</v>
       </c>
-      <c r="AM72" s="6" t="n">
+      <c r="AM72" s="6">
         <v>68</v>
       </c>
-      <c r="AN72" s="10" t="n">
+      <c r="AN72" s="10">
         <v>69</v>
       </c>
-      <c r="AO72" s="6" t="n">
+      <c r="AO72" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
+    <row r="73" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>85</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -7499,21 +7767,21 @@
         <v>43</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="6" t="n">
+      <c r="L73" s="6">
         <v>2</v>
       </c>
       <c r="M73" s="6"/>
@@ -7523,7 +7791,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -7532,7 +7800,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
@@ -7549,21 +7817,21 @@
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
       <c r="AK73" s="6"/>
-      <c r="AL73" s="6" t="n">
+      <c r="AL73" s="6">
         <v>3</v>
       </c>
-      <c r="AM73" s="6" t="n">
+      <c r="AM73" s="6">
         <v>69</v>
       </c>
       <c r="AN73" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO73" s="6" t="n">
+        <v>303</v>
+      </c>
+      <c r="AO73" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
+    <row r="74" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>86</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7576,13 +7844,13 @@
         <v>43</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>56</v>
@@ -7590,19 +7858,19 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="6" t="n">
+      <c r="L74" s="6">
         <v>1</v>
       </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="6" t="s">
@@ -7617,7 +7885,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
@@ -7634,19 +7902,19 @@
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
       <c r="AK74" s="6"/>
-      <c r="AL74" s="6" t="n">
+      <c r="AL74" s="6">
         <v>4</v>
       </c>
-      <c r="AM74" s="6" t="n">
+      <c r="AM74" s="6">
         <v>70</v>
       </c>
       <c r="AN74" s="10"/>
-      <c r="AO74" s="6" t="n">
+      <c r="AO74" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
+    <row r="75" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>87</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -7659,13 +7927,13 @@
         <v>43</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>56</v>
@@ -7673,16 +7941,16 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="6" t="n">
+      <c r="L75" s="6">
         <v>1</v>
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="P75" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -7698,7 +7966,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
@@ -7714,22 +7982,22 @@
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AK75" s="6"/>
-      <c r="AL75" s="6" t="n">
+      <c r="AL75" s="6">
         <v>4</v>
       </c>
-      <c r="AM75" s="6" t="n">
+      <c r="AM75" s="6">
         <v>71</v>
       </c>
       <c r="AN75" s="10"/>
-      <c r="AO75" s="6" t="n">
+      <c r="AO75" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
+    <row r="76" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>88</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -7742,21 +8010,21 @@
         <v>43</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="6" t="n">
+      <c r="L76" s="6">
         <v>1</v>
       </c>
       <c r="M76" s="6"/>
@@ -7766,7 +8034,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -7775,7 +8043,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
@@ -7785,28 +8053,28 @@
       <c r="AF76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG76" s="7" t="n">
-        <v>0.0175</v>
+      <c r="AG76" s="7">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="AH76" s="12"/>
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
       <c r="AK76" s="6"/>
-      <c r="AL76" s="6" t="n">
+      <c r="AL76" s="6">
         <v>2</v>
       </c>
-      <c r="AM76" s="6" t="n">
+      <c r="AM76" s="6">
         <v>680</v>
       </c>
       <c r="AN76" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO76" s="6" t="n">
+        <v>316</v>
+      </c>
+      <c r="AO76" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="n">
+    <row r="77" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>89</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7819,21 +8087,21 @@
         <v>43</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="H77" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="6" t="n">
+      <c r="L77" s="6">
         <v>2</v>
       </c>
       <c r="M77" s="6"/>
@@ -7843,7 +8111,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -7852,7 +8120,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
@@ -7869,21 +8137,21 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
       <c r="AK77" s="6"/>
-      <c r="AL77" s="6" t="n">
+      <c r="AL77" s="6">
         <v>3</v>
       </c>
-      <c r="AM77" s="6" t="n">
+      <c r="AM77" s="6">
         <v>72</v>
       </c>
       <c r="AN77" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO77" s="6" t="n">
+        <v>319</v>
+      </c>
+      <c r="AO77" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="n">
+    <row r="78" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>90</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -7896,13 +8164,13 @@
         <v>43</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>56</v>
@@ -7910,22 +8178,22 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="6" t="n">
+      <c r="L78" s="6">
         <v>1</v>
       </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S78" s="6" t="s">
         <v>58</v>
@@ -7939,7 +8207,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
@@ -7956,19 +8224,19 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
       <c r="AK78" s="6"/>
-      <c r="AL78" s="6" t="n">
+      <c r="AL78" s="6">
         <v>4</v>
       </c>
-      <c r="AM78" s="6" t="n">
+      <c r="AM78" s="6">
         <v>73</v>
       </c>
       <c r="AN78" s="10"/>
-      <c r="AO78" s="6" t="n">
+      <c r="AO78" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="n">
+    <row r="79" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>91</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -7981,13 +8249,13 @@
         <v>43</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>56</v>
@@ -7995,16 +8263,16 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="6" t="n">
+      <c r="L79" s="6">
         <v>1</v>
       </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="P79" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -8020,7 +8288,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
@@ -8037,19 +8305,19 @@
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
       <c r="AK79" s="6"/>
-      <c r="AL79" s="6" t="n">
+      <c r="AL79" s="6">
         <v>4</v>
       </c>
-      <c r="AM79" s="6" t="n">
+      <c r="AM79" s="6">
         <v>74</v>
       </c>
       <c r="AN79" s="10"/>
-      <c r="AO79" s="6" t="n">
+      <c r="AO79" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="n">
+    <row r="80" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>92</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8062,21 +8330,21 @@
         <v>43</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="H80" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="6" t="n">
+      <c r="L80" s="6">
         <v>2</v>
       </c>
       <c r="M80" s="6"/>
@@ -8086,7 +8354,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -8095,7 +8363,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
@@ -8112,21 +8380,21 @@
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
       <c r="AK80" s="6"/>
-      <c r="AL80" s="6" t="n">
+      <c r="AL80" s="6">
         <v>3</v>
       </c>
-      <c r="AM80" s="6" t="n">
+      <c r="AM80" s="6">
         <v>769</v>
       </c>
       <c r="AN80" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO80" s="6" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO80" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="n">
+    <row r="81" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>93</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8139,13 +8407,13 @@
         <v>43</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>56</v>
@@ -8153,22 +8421,22 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="6" t="n">
+      <c r="L81" s="6">
         <v>1</v>
       </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S81" s="6" t="s">
         <v>58</v>
@@ -8182,7 +8450,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
@@ -8199,19 +8467,19 @@
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
       <c r="AK81" s="6"/>
-      <c r="AL81" s="6" t="n">
+      <c r="AL81" s="6">
         <v>4</v>
       </c>
-      <c r="AM81" s="6" t="n">
+      <c r="AM81" s="6">
         <v>770</v>
       </c>
       <c r="AN81" s="10"/>
-      <c r="AO81" s="6" t="n">
+      <c r="AO81" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="n">
+    <row r="82" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>94</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8224,13 +8492,13 @@
         <v>43</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>56</v>
@@ -8238,16 +8506,16 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="6" t="n">
+      <c r="L82" s="6">
         <v>1</v>
       </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="P82" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="P82" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
@@ -8263,7 +8531,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
@@ -8279,22 +8547,22 @@
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AK82" s="6"/>
-      <c r="AL82" s="6" t="n">
+      <c r="AL82" s="6">
         <v>4</v>
       </c>
-      <c r="AM82" s="6" t="n">
+      <c r="AM82" s="6">
         <v>771</v>
       </c>
       <c r="AN82" s="10"/>
-      <c r="AO82" s="6" t="n">
+      <c r="AO82" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="n">
+    <row r="83" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
         <v>95</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -8307,13 +8575,13 @@
         <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F83" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>56</v>
@@ -8321,20 +8589,20 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="6" t="n">
+      <c r="L83" s="6">
         <v>8</v>
       </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="P83" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="P83" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S83" s="6" t="s">
         <v>58</v>
@@ -8342,7 +8610,7 @@
       <c r="T83" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="U83" s="6" t="n">
+      <c r="U83" s="6">
         <v>0.5</v>
       </c>
       <c r="V83" s="6"/>
@@ -8350,7 +8618,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
@@ -8362,26 +8630,26 @@
       <c r="AF83" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AG83" s="7" t="n">
+      <c r="AG83" s="7">
         <v>0.03</v>
       </c>
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
       <c r="AK83" s="6"/>
-      <c r="AL83" s="6" t="n">
+      <c r="AL83" s="6">
         <v>2</v>
       </c>
-      <c r="AM83" s="6" t="n">
+      <c r="AM83" s="6">
         <v>820</v>
       </c>
       <c r="AN83" s="10"/>
-      <c r="AO83" s="6" t="n">
+      <c r="AO83" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="n">
+    <row r="84" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>96</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -8395,10 +8663,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>43</v>
@@ -8432,21 +8700,21 @@
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
       <c r="AK84" s="6"/>
-      <c r="AL84" s="6" t="n">
+      <c r="AL84" s="6">
         <v>1</v>
       </c>
-      <c r="AM84" s="6" t="n">
+      <c r="AM84" s="6">
         <v>330</v>
       </c>
       <c r="AN84" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="AO84" s="6" t="n">
+        <v>342</v>
+      </c>
+      <c r="AO84" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="n">
+    <row r="85" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
         <v>97</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -8456,16 +8724,16 @@
         <v>42</v>
       </c>
       <c r="D85" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>227</v>
@@ -8473,7 +8741,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="6" t="n">
+      <c r="L85" s="6">
         <v>0.5</v>
       </c>
       <c r="M85" s="6"/>
@@ -8499,7 +8767,7 @@
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
@@ -8512,34 +8780,34 @@
       <c r="AF85" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG85" s="7" t="n">
+      <c r="AG85" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH85" s="6" t="n">
+      <c r="AH85" s="6">
         <v>0</v>
       </c>
-      <c r="AI85" s="6" t="n">
+      <c r="AI85" s="6">
         <v>1</v>
       </c>
       <c r="AJ85" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK85" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AK85" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL85" s="6" t="n">
+      <c r="AL85" s="6">
         <v>2</v>
       </c>
-      <c r="AM85" s="6" t="n">
+      <c r="AM85" s="6">
         <v>75</v>
       </c>
       <c r="AN85" s="10"/>
-      <c r="AO85" s="6" t="n">
+      <c r="AO85" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="n">
+    <row r="86" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
         <v>98</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -8549,16 +8817,16 @@
         <v>42</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>227</v>
@@ -8566,7 +8834,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="6" t="n">
+      <c r="L86" s="6">
         <v>0.15</v>
       </c>
       <c r="M86" s="6"/>
@@ -8592,7 +8860,7 @@
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
@@ -8605,34 +8873,34 @@
       <c r="AF86" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG86" s="7" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AH86" s="6" t="n">
+      <c r="AG86" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH86" s="6">
         <v>0</v>
       </c>
-      <c r="AI86" s="6" t="n">
+      <c r="AI86" s="6">
         <v>1</v>
       </c>
       <c r="AJ86" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK86" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AK86" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL86" s="6" t="n">
+      <c r="AL86" s="6">
         <v>2</v>
       </c>
-      <c r="AM86" s="6" t="n">
+      <c r="AM86" s="6">
         <v>76</v>
       </c>
       <c r="AN86" s="10"/>
-      <c r="AO86" s="6" t="n">
+      <c r="AO86" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="n">
+    <row r="87" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -8642,16 +8910,16 @@
         <v>42</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>227</v>
@@ -8659,7 +8927,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="6" t="n">
+      <c r="L87" s="6">
         <v>0.2</v>
       </c>
       <c r="M87" s="6"/>
@@ -8685,7 +8953,7 @@
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
@@ -8698,34 +8966,34 @@
       <c r="AF87" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG87" s="7" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AH87" s="6" t="n">
+      <c r="AG87" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH87" s="6">
         <v>0</v>
       </c>
-      <c r="AI87" s="6" t="n">
+      <c r="AI87" s="6">
         <v>1</v>
       </c>
       <c r="AJ87" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK87" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AK87" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL87" s="6" t="n">
+      <c r="AL87" s="6">
         <v>2</v>
       </c>
-      <c r="AM87" s="6" t="n">
+      <c r="AM87" s="6">
         <v>77</v>
       </c>
       <c r="AN87" s="10"/>
-      <c r="AO87" s="6" t="n">
+      <c r="AO87" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="n">
+    <row r="88" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
         <v>100</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -8735,16 +9003,16 @@
         <v>42</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F88" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>227</v>
@@ -8752,7 +9020,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6" t="n">
+      <c r="L88" s="6">
         <v>0.4</v>
       </c>
       <c r="M88" s="6"/>
@@ -8778,7 +9046,7 @@
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
@@ -8791,34 +9059,34 @@
       <c r="AF88" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG88" s="7" t="n">
+      <c r="AG88" s="7">
         <v>0.02</v>
       </c>
-      <c r="AH88" s="6" t="n">
+      <c r="AH88" s="6">
         <v>0</v>
       </c>
-      <c r="AI88" s="6" t="n">
+      <c r="AI88" s="6">
         <v>1</v>
       </c>
       <c r="AJ88" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK88" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AK88" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL88" s="6" t="n">
+      <c r="AL88" s="6">
         <v>2</v>
       </c>
-      <c r="AM88" s="6" t="n">
+      <c r="AM88" s="6">
         <v>777</v>
       </c>
       <c r="AN88" s="10"/>
-      <c r="AO88" s="6" t="n">
+      <c r="AO88" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="n">
+    <row r="89" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
         <v>101</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -8828,16 +9096,16 @@
         <v>42</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F89" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>227</v>
@@ -8845,7 +9113,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="6" t="n">
+      <c r="L89" s="6">
         <v>0.3</v>
       </c>
       <c r="M89" s="6"/>
@@ -8871,7 +9139,7 @@
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
@@ -8884,34 +9152,34 @@
       <c r="AF89" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AG89" s="7" t="n">
+      <c r="AG89" s="7">
         <v>0.03</v>
       </c>
-      <c r="AH89" s="6" t="n">
+      <c r="AH89" s="6">
         <v>0</v>
       </c>
-      <c r="AI89" s="6" t="n">
+      <c r="AI89" s="6">
         <v>1</v>
       </c>
       <c r="AJ89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK89" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AK89" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AL89" s="6" t="n">
+      <c r="AL89" s="6">
         <v>2</v>
       </c>
-      <c r="AM89" s="6" t="n">
+      <c r="AM89" s="6">
         <v>778</v>
       </c>
       <c r="AN89" s="10"/>
-      <c r="AO89" s="6" t="n">
+      <c r="AO89" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="n">
+    <row r="90" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
         <v>102</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -8921,24 +9189,24 @@
         <v>42</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>274</v>
       </c>
       <c r="F90" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -8949,7 +9217,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -8969,16 +9237,16 @@
       <c r="AJ90" s="6"/>
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
-      <c r="AM90" s="6" t="n">
+      <c r="AM90" s="6">
         <v>78</v>
       </c>
       <c r="AN90" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AO90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="n">
+    <row r="91" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
         <v>103</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -8988,37 +9256,37 @@
         <v>42</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -9038,16 +9306,16 @@
       <c r="AJ91" s="6"/>
       <c r="AK91" s="6"/>
       <c r="AL91" s="6"/>
-      <c r="AM91" s="6" t="n">
+      <c r="AM91" s="6">
         <v>79</v>
       </c>
-      <c r="AN91" s="10" t="n">
+      <c r="AN91" s="10">
         <v>68</v>
       </c>
       <c r="AO91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="n">
+    <row r="92" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
         <v>104</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -9057,37 +9325,37 @@
         <v>42</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>285</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -9107,16 +9375,16 @@
       <c r="AJ92" s="6"/>
       <c r="AK92" s="6"/>
       <c r="AL92" s="6"/>
-      <c r="AM92" s="6" t="n">
+      <c r="AM92" s="6">
         <v>80</v>
       </c>
-      <c r="AN92" s="10" t="n">
+      <c r="AN92" s="10">
         <v>130</v>
       </c>
       <c r="AO92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="n">
+    <row r="93" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
         <v>105</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -9126,24 +9394,24 @@
         <v>42</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -9154,7 +9422,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
@@ -9174,16 +9442,16 @@
       <c r="AJ93" s="6"/>
       <c r="AK93" s="6"/>
       <c r="AL93" s="6"/>
-      <c r="AM93" s="6" t="n">
+      <c r="AM93" s="6">
         <v>82</v>
       </c>
-      <c r="AN93" s="10" t="n">
+      <c r="AN93" s="10">
         <v>76</v>
       </c>
       <c r="AO93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="n">
+    <row r="94" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
         <v>106</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -9193,24 +9461,24 @@
         <v>42</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -9221,7 +9489,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -9241,16 +9509,16 @@
       <c r="AJ94" s="6"/>
       <c r="AK94" s="6"/>
       <c r="AL94" s="6"/>
-      <c r="AM94" s="6" t="n">
+      <c r="AM94" s="6">
         <v>83</v>
       </c>
-      <c r="AN94" s="10" t="n">
+      <c r="AN94" s="10">
         <v>77</v>
       </c>
       <c r="AO94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="n">
+    <row r="95" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
         <v>107</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -9260,24 +9528,24 @@
         <v>42</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="H95" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -9288,7 +9556,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
@@ -9308,16 +9576,16 @@
       <c r="AJ95" s="6"/>
       <c r="AK95" s="6"/>
       <c r="AL95" s="6"/>
-      <c r="AM95" s="6" t="n">
+      <c r="AM95" s="6">
         <v>84</v>
       </c>
-      <c r="AN95" s="10" t="n">
+      <c r="AN95" s="10">
         <v>75</v>
       </c>
       <c r="AO95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="n">
+    <row r="96" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
         <v>108</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -9327,39 +9595,39 @@
         <v>42</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F96" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="H96" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="P96" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="P96" s="14" t="s">
-        <v>381</v>
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -9379,16 +9647,16 @@
       <c r="AJ96" s="6"/>
       <c r="AK96" s="6"/>
       <c r="AL96" s="6"/>
-      <c r="AM96" s="6" t="n">
+      <c r="AM96" s="6">
         <v>85</v>
       </c>
       <c r="AN96" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AO96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="n">
+    <row r="97" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
         <v>109</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -9398,37 +9666,37 @@
         <v>42</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
@@ -9450,14 +9718,14 @@
       <c r="AJ97" s="6"/>
       <c r="AK97" s="6"/>
       <c r="AL97" s="6"/>
-      <c r="AM97" s="6" t="n">
+      <c r="AM97" s="6">
         <v>86</v>
       </c>
       <c r="AN97" s="10"/>
       <c r="AO97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="n">
+    <row r="98" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
         <v>110</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -9467,22 +9735,22 @@
         <v>42</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="G98" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="H98" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -9493,7 +9761,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
@@ -9513,21 +9781,15 @@
       <c r="AJ98" s="6"/>
       <c r="AK98" s="6"/>
       <c r="AL98" s="6"/>
-      <c r="AM98" s="6" t="n">
+      <c r="AM98" s="6">
         <v>521</v>
       </c>
       <c r="AN98" s="10"/>
       <c r="AO98" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO98"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AO98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC36A4A-E863-4FDD-B351-35635861571E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7FFAB-1C43-4B2E-9140-12BC557BA9C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Petrol!$A$1:$AO$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -244,9 +244,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -911,9 +908,6 @@
     <t>NUM_SCENES</t>
   </si>
   <si>
-    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
-  </si>
-  <si>
     <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
   </si>
   <si>
@@ -992,9 +986,6 @@
     <t>AND</t>
   </si>
   <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
     <t>OCCASIONS</t>
   </si>
   <si>
@@ -1117,9 +1108,6 @@
   </si>
   <si>
     <t>Burn</t>
-  </si>
-  <si>
-    <t>Displays, SS_Displays</t>
   </si>
   <si>
     <t>Cold Shelf</t>
@@ -1291,7 +1279,19 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol, Promo SSD Display IC</t>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Café Activation; Cash Zone; SS_Café Activation; SS_Cash Zone - Petrol; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Café Activation; Cash Zone; SS_Menu Board - Petrol; SS_Café Activation; SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Displays; SS_Displays</t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK98"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Z72" sqref="Z72"/>
+      <selection pane="bottomLeft" activeCell="Z84" sqref="Z1:AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,7 +1778,7 @@
     <col min="23" max="23" width="19.44140625" style="1"/>
     <col min="24" max="24" width="24.33203125" style="1"/>
     <col min="25" max="25" width="24.21875" style="1"/>
-    <col min="26" max="26" width="38" style="1"/>
+    <col min="26" max="26" width="102.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.77734375" style="1"/>
     <col min="28" max="28" width="28.109375" style="1"/>
     <col min="29" max="29" width="28.6640625" style="1"/>
@@ -2116,7 +2116,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -2125,7 +2125,7 @@
         <v>52</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG4" s="7">
         <v>1.4194E-2</v>
@@ -2162,10 +2162,10 @@
         <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>56</v>
@@ -2179,10 +2179,10 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -2201,7 +2201,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -2210,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="7">
         <v>1.4194E-2</v>
@@ -2247,10 +2247,10 @@
         <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>56</v>
@@ -2264,10 +2264,10 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -2286,14 +2286,14 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="7">
         <v>1.4194E-2</v>
@@ -2330,10 +2330,10 @@
         <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>56</v>
@@ -2347,10 +2347,10 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -2369,7 +2369,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -2378,7 +2378,7 @@
         <v>52</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG7" s="7">
         <v>1.4194E-2</v>
@@ -2415,10 +2415,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>56</v>
@@ -2432,10 +2432,10 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -2454,7 +2454,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -2463,7 +2463,7 @@
         <v>52</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2500,10 +2500,10 @@
         <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>56</v>
@@ -2517,10 +2517,10 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -2539,7 +2539,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -2548,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2585,10 +2585,10 @@
         <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>56</v>
@@ -2602,10 +2602,10 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -2624,7 +2624,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
@@ -2633,7 +2633,7 @@
         <v>52</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2670,10 +2670,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>56</v>
@@ -2687,7 +2687,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="6">
         <v>42099697</v>
@@ -2709,14 +2709,14 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2753,10 +2753,10 @@
         <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>56</v>
@@ -2770,10 +2770,10 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -2792,7 +2792,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -2801,7 +2801,7 @@
         <v>52</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG12" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2838,10 +2838,10 @@
         <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>56</v>
@@ -2855,10 +2855,10 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -2877,7 +2877,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
@@ -2886,7 +2886,7 @@
         <v>52</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG13" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2923,10 +2923,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>56</v>
@@ -2940,10 +2940,10 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2962,14 +2962,14 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG14" s="7">
         <v>8.8999999999999999E-3</v>
@@ -3006,10 +3006,10 @@
         <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>56</v>
@@ -3023,10 +3023,10 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -3045,14 +3045,14 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG15" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3089,10 +3089,10 @@
         <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>56</v>
@@ -3106,10 +3106,10 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -3128,14 +3128,14 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3172,10 +3172,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>56</v>
@@ -3189,10 +3189,10 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -3211,7 +3211,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -3220,7 +3220,7 @@
         <v>52</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG17" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3257,10 +3257,10 @@
         <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>56</v>
@@ -3274,10 +3274,10 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -3296,7 +3296,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
@@ -3305,7 +3305,7 @@
         <v>52</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3342,10 +3342,10 @@
         <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>56</v>
@@ -3359,10 +3359,10 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -3381,7 +3381,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -3390,7 +3390,7 @@
         <v>52</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG19" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3427,10 +3427,10 @@
         <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>56</v>
@@ -3444,10 +3444,10 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -3466,7 +3466,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -3475,7 +3475,7 @@
         <v>52</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3512,10 +3512,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>56</v>
@@ -3529,7 +3529,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P21" s="6">
         <v>5449000253101</v>
@@ -3551,14 +3551,14 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG21" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3595,10 +3595,10 @@
         <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>56</v>
@@ -3612,10 +3612,10 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -3634,7 +3634,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
@@ -3643,7 +3643,7 @@
         <v>52</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="7">
         <v>5.5890000000000002E-3</v>
@@ -3677,13 +3677,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>50</v>
@@ -3692,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3732,7 +3732,7 @@
         <v>23</v>
       </c>
       <c r="AN23" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AO23" s="6">
         <v>300</v>
@@ -3752,13 +3752,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>56</v>
@@ -3772,10 +3772,10 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -3794,7 +3794,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
@@ -3803,7 +3803,7 @@
         <v>52</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG24" s="7">
         <v>1.2919E-2</v>
@@ -3837,13 +3837,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>56</v>
@@ -3857,10 +3857,10 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -3879,7 +3879,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
@@ -3888,7 +3888,7 @@
         <v>52</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="7">
         <v>8.4159999999999999E-3</v>
@@ -3922,13 +3922,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>56</v>
@@ -3942,10 +3942,10 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -3964,7 +3964,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
@@ -3973,7 +3973,7 @@
         <v>52</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4007,13 +4007,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>56</v>
@@ -4027,10 +4027,10 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -4049,7 +4049,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
@@ -4058,7 +4058,7 @@
         <v>52</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG27" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4092,13 +4092,13 @@
         <v>43</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>56</v>
@@ -4112,10 +4112,10 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -4134,7 +4134,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -4143,7 +4143,7 @@
         <v>52</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4177,13 +4177,13 @@
         <v>43</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>56</v>
@@ -4197,7 +4197,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P29" s="6">
         <v>5449000152190</v>
@@ -4219,14 +4219,14 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG29" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4260,13 +4260,13 @@
         <v>43</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>50</v>
@@ -4275,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -4315,7 +4315,7 @@
         <v>29</v>
       </c>
       <c r="AN30" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO30" s="6">
         <v>300</v>
@@ -4335,13 +4335,13 @@
         <v>43</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>56</v>
@@ -4355,10 +4355,10 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -4377,7 +4377,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
@@ -4386,7 +4386,7 @@
         <v>52</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG31" s="7">
         <v>1.2919E-2</v>
@@ -4420,13 +4420,13 @@
         <v>43</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>56</v>
@@ -4440,10 +4440,10 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -4462,7 +4462,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
@@ -4471,7 +4471,7 @@
         <v>52</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="7">
         <v>1.2919E-2</v>
@@ -4505,13 +4505,13 @@
         <v>43</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>56</v>
@@ -4525,10 +4525,10 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -4547,7 +4547,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
@@ -4556,7 +4556,7 @@
         <v>52</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG33" s="7">
         <v>1.2919E-2</v>
@@ -4590,13 +4590,13 @@
         <v>43</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>56</v>
@@ -4610,7 +4610,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P34" s="6">
         <v>5060517888794</v>
@@ -4632,7 +4632,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
@@ -4641,7 +4641,7 @@
         <v>52</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4675,13 +4675,13 @@
         <v>43</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>56</v>
@@ -4695,10 +4695,10 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -4717,7 +4717,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
@@ -4726,7 +4726,7 @@
         <v>52</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG35" s="7">
         <v>8.4159999999999999E-3</v>
@@ -4760,13 +4760,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>56</v>
@@ -4780,10 +4780,10 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -4802,7 +4802,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
@@ -4811,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG36" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4845,13 +4845,13 @@
         <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>56</v>
@@ -4865,10 +4865,10 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -4887,7 +4887,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
@@ -4896,7 +4896,7 @@
         <v>52</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="7">
         <v>3.1700000000000001E-3</v>
@@ -4930,13 +4930,13 @@
         <v>43</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>50</v>
@@ -4945,7 +4945,7 @@
         <v>44</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -4985,7 +4985,7 @@
         <v>36</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO38" s="6">
         <v>300</v>
@@ -5005,13 +5005,13 @@
         <v>43</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>56</v>
@@ -5025,10 +5025,10 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -5047,7 +5047,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
@@ -5056,7 +5056,7 @@
         <v>52</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG39" s="7">
         <v>1.2919E-2</v>
@@ -5090,13 +5090,13 @@
         <v>43</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>56</v>
@@ -5110,10 +5110,10 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -5132,7 +5132,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
@@ -5141,7 +5141,7 @@
         <v>52</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG40" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5175,13 +5175,13 @@
         <v>43</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>56</v>
@@ -5195,10 +5195,10 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -5217,7 +5217,7 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG41" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5260,13 +5260,13 @@
         <v>43</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>56</v>
@@ -5280,10 +5280,10 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -5302,7 +5302,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
@@ -5311,7 +5311,7 @@
         <v>52</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG42" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5345,13 +5345,13 @@
         <v>43</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>56</v>
@@ -5365,10 +5365,10 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -5387,7 +5387,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6"/>
@@ -5396,7 +5396,7 @@
         <v>52</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG43" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5430,13 +5430,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>50</v>
@@ -5445,7 +5445,7 @@
         <v>44</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -5485,7 +5485,7 @@
         <v>43</v>
       </c>
       <c r="AN44" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO44" s="6">
         <v>300</v>
@@ -5505,13 +5505,13 @@
         <v>43</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>56</v>
@@ -5525,10 +5525,10 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
@@ -5547,7 +5547,7 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -5556,7 +5556,7 @@
         <v>52</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG45" s="7">
         <v>1.2919E-2</v>
@@ -5590,13 +5590,13 @@
         <v>43</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>56</v>
@@ -5610,10 +5610,10 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
@@ -5632,7 +5632,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
@@ -5641,7 +5641,7 @@
         <v>52</v>
       </c>
       <c r="AF46" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG46" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5675,13 +5675,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>56</v>
@@ -5695,10 +5695,10 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
@@ -5717,7 +5717,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
@@ -5726,7 +5726,7 @@
         <v>52</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG47" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5760,13 +5760,13 @@
         <v>43</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>56</v>
@@ -5780,10 +5780,10 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -5802,7 +5802,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
@@ -5811,7 +5811,7 @@
         <v>52</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG48" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5845,13 +5845,13 @@
         <v>43</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>56</v>
@@ -5865,10 +5865,10 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
@@ -5887,7 +5887,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
@@ -5896,7 +5896,7 @@
         <v>52</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG49" s="7">
         <v>8.4159999999999999E-3</v>
@@ -5930,13 +5930,13 @@
         <v>43</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>56</v>
@@ -5950,10 +5950,10 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
@@ -5972,14 +5972,14 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
       <c r="AF50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG50" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6013,13 +6013,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>56</v>
@@ -6033,10 +6033,10 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
@@ -6055,14 +6055,14 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
       <c r="AD51" s="6"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG51" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6096,13 +6096,13 @@
         <v>43</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>56</v>
@@ -6116,10 +6116,10 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
@@ -6138,7 +6138,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
@@ -6147,7 +6147,7 @@
         <v>52</v>
       </c>
       <c r="AF52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG52" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6181,13 +6181,13 @@
         <v>43</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>56</v>
@@ -6201,10 +6201,10 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
@@ -6223,7 +6223,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
@@ -6232,7 +6232,7 @@
         <v>52</v>
       </c>
       <c r="AF53" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG53" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6266,13 +6266,13 @@
         <v>43</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>56</v>
@@ -6286,7 +6286,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P54" s="6">
         <v>4650075423257</v>
@@ -6308,7 +6308,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
@@ -6317,7 +6317,7 @@
         <v>52</v>
       </c>
       <c r="AF54" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG54" s="7">
         <v>3.1700000000000001E-3</v>
@@ -6351,13 +6351,13 @@
         <v>43</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>56</v>
@@ -6371,7 +6371,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P55" s="6">
         <v>4650075423233</v>
@@ -6393,7 +6393,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
@@ -6402,7 +6402,7 @@
         <v>52</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG55" s="7">
         <v>3.1480000000000002E-3</v>
@@ -6437,10 +6437,10 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>43</v>
@@ -6481,7 +6481,7 @@
         <v>520</v>
       </c>
       <c r="AN56" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AO56" s="6"/>
     </row>
@@ -6499,19 +6499,19 @@
         <v>43</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="I57" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>51</v>
@@ -6523,7 +6523,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>51</v>
@@ -6536,14 +6536,14 @@
         <v>58</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
@@ -6554,7 +6554,7 @@
         <v>52</v>
       </c>
       <c r="AF57" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG57" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6566,10 +6566,10 @@
         <v>1</v>
       </c>
       <c r="AJ57" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK57" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="AK57" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="AL57" s="6">
         <v>2</v>
@@ -6596,22 +6596,22 @@
         <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6">
@@ -6620,27 +6620,27 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R58" s="6"/>
       <c r="S58" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
@@ -6651,7 +6651,7 @@
         <v>52</v>
       </c>
       <c r="AF58" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG58" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6663,10 +6663,10 @@
         <v>1</v>
       </c>
       <c r="AJ58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK58" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="AK58" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="AL58" s="6">
         <v>2</v>
@@ -6693,22 +6693,22 @@
         <v>43</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="H59" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6">
@@ -6717,27 +6717,27 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
@@ -6748,7 +6748,7 @@
         <v>52</v>
       </c>
       <c r="AF59" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG59" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6760,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="AJ59" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK59" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="AK59" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="AL59" s="6">
         <v>2</v>
@@ -6791,10 +6791,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>43</v>
@@ -6835,7 +6835,7 @@
         <v>310</v>
       </c>
       <c r="AN60" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO60" s="6"/>
     </row>
@@ -6854,10 +6854,10 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>43</v>
@@ -6918,16 +6918,16 @@
         <v>43</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -6940,7 +6940,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
@@ -6957,7 +6957,7 @@
         <v>52</v>
       </c>
       <c r="AF62" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG62" s="7">
         <v>0.1275</v>
@@ -6965,7 +6965,7 @@
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK62" s="6"/>
       <c r="AL62" s="6">
@@ -6975,7 +6975,7 @@
         <v>62</v>
       </c>
       <c r="AN62" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO62" s="6">
         <v>311</v>
@@ -6995,16 +6995,16 @@
         <v>43</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -7015,23 +7015,23 @@
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
@@ -7042,13 +7042,13 @@
         <v>52</v>
       </c>
       <c r="AF63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG63" s="7"/>
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6">
@@ -7076,16 +7076,16 @@
         <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -7096,23 +7096,23 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
@@ -7123,7 +7123,7 @@
         <v>52</v>
       </c>
       <c r="AF64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG64" s="7"/>
       <c r="AH64" s="6"/>
@@ -7156,10 +7156,10 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>43</v>
@@ -7200,7 +7200,7 @@
         <v>312</v>
       </c>
       <c r="AN65" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO65" s="6">
         <v>310</v>
@@ -7220,16 +7220,16 @@
         <v>43</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -7241,13 +7241,13 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
@@ -7255,7 +7255,7 @@
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
@@ -7265,7 +7265,7 @@
         <v>52</v>
       </c>
       <c r="AF66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG66" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7273,10 +7273,10 @@
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK66" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL66" s="6">
         <v>2</v>
@@ -7303,16 +7303,16 @@
         <v>43</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -7323,23 +7323,23 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
@@ -7350,7 +7350,7 @@
         <v>52</v>
       </c>
       <c r="AF67" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG67" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7358,7 +7358,7 @@
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AK67" s="6"/>
       <c r="AL67" s="6">
@@ -7386,16 +7386,16 @@
         <v>43</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F68" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -7408,23 +7408,23 @@
         <v>15</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
@@ -7435,7 +7435,7 @@
         <v>52</v>
       </c>
       <c r="AF68" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG68" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7443,7 +7443,7 @@
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AK68" s="6"/>
       <c r="AL68" s="6">
@@ -7472,10 +7472,10 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>43</v>
@@ -7516,7 +7516,7 @@
         <v>400</v>
       </c>
       <c r="AN69" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO69" s="6"/>
     </row>
@@ -7534,16 +7534,16 @@
         <v>43</v>
       </c>
       <c r="E70" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="H70" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -7573,7 +7573,7 @@
       <c r="AD70" s="6"/>
       <c r="AE70" s="6"/>
       <c r="AF70" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG70" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7609,13 +7609,13 @@
         <v>43</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>56</v>
@@ -7629,20 +7629,20 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S71" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
@@ -7650,7 +7650,7 @@
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
@@ -7658,7 +7658,7 @@
       <c r="AD71" s="6"/>
       <c r="AE71" s="6"/>
       <c r="AF71" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG71" s="7"/>
       <c r="AH71" s="6"/>
@@ -7690,16 +7690,16 @@
         <v>43</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -7714,7 +7714,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
@@ -7723,7 +7723,7 @@
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
@@ -7731,7 +7731,7 @@
       <c r="AD72" s="6"/>
       <c r="AE72" s="6"/>
       <c r="AF72" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG72" s="7">
         <v>2.5000000000000001E-2</v>
@@ -7767,16 +7767,16 @@
         <v>43</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -7791,7 +7791,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -7800,7 +7800,7 @@
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
@@ -7810,7 +7810,7 @@
         <v>52</v>
       </c>
       <c r="AF73" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG73" s="7"/>
       <c r="AH73" s="6"/>
@@ -7824,7 +7824,7 @@
         <v>69</v>
       </c>
       <c r="AN73" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO73" s="6">
         <v>68</v>
@@ -7844,13 +7844,13 @@
         <v>43</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>56</v>
@@ -7864,13 +7864,13 @@
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="6" t="s">
@@ -7885,7 +7885,7 @@
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
@@ -7895,7 +7895,7 @@
         <v>52</v>
       </c>
       <c r="AF74" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG74" s="7"/>
       <c r="AH74" s="6"/>
@@ -7927,13 +7927,13 @@
         <v>43</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>56</v>
@@ -7947,10 +7947,10 @@
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
@@ -7966,7 +7966,7 @@
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
@@ -7976,13 +7976,13 @@
         <v>52</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG75" s="7"/>
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AK75" s="6"/>
       <c r="AL75" s="6">
@@ -8010,16 +8010,16 @@
         <v>43</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -8034,7 +8034,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -8043,7 +8043,7 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
@@ -8051,7 +8051,7 @@
       <c r="AD76" s="6"/>
       <c r="AE76" s="6"/>
       <c r="AF76" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG76" s="7">
         <v>1.7500000000000002E-2</v>
@@ -8067,7 +8067,7 @@
         <v>680</v>
       </c>
       <c r="AN76" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AO76" s="6">
         <v>400</v>
@@ -8087,16 +8087,16 @@
         <v>43</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -8111,7 +8111,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -8120,7 +8120,7 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
@@ -8130,7 +8130,7 @@
         <v>52</v>
       </c>
       <c r="AF77" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG77" s="7"/>
       <c r="AH77" s="6"/>
@@ -8144,7 +8144,7 @@
         <v>72</v>
       </c>
       <c r="AN77" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO77" s="6">
         <v>680</v>
@@ -8164,13 +8164,13 @@
         <v>43</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>56</v>
@@ -8184,22 +8184,22 @@
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S78" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
@@ -8207,7 +8207,7 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
@@ -8217,7 +8217,7 @@
         <v>52</v>
       </c>
       <c r="AF78" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG78" s="7"/>
       <c r="AH78" s="6"/>
@@ -8249,13 +8249,13 @@
         <v>43</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>56</v>
@@ -8269,10 +8269,10 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
@@ -8288,7 +8288,7 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
@@ -8298,7 +8298,7 @@
         <v>52</v>
       </c>
       <c r="AF79" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG79" s="7"/>
       <c r="AH79" s="6"/>
@@ -8330,16 +8330,16 @@
         <v>43</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -8354,7 +8354,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -8363,7 +8363,7 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
@@ -8373,7 +8373,7 @@
         <v>52</v>
       </c>
       <c r="AF80" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG80" s="7"/>
       <c r="AH80" s="6"/>
@@ -8387,7 +8387,7 @@
         <v>769</v>
       </c>
       <c r="AN80" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AO80" s="6">
         <v>680</v>
@@ -8407,13 +8407,13 @@
         <v>43</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>56</v>
@@ -8427,22 +8427,22 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S81" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
@@ -8450,7 +8450,7 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
@@ -8460,7 +8460,7 @@
         <v>52</v>
       </c>
       <c r="AF81" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG81" s="7"/>
       <c r="AH81" s="6"/>
@@ -8492,13 +8492,13 @@
         <v>43</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>56</v>
@@ -8512,10 +8512,10 @@
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
@@ -8531,7 +8531,7 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
@@ -8541,13 +8541,13 @@
         <v>52</v>
       </c>
       <c r="AF82" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG82" s="7"/>
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AK82" s="6"/>
       <c r="AL82" s="6">
@@ -8575,13 +8575,13 @@
         <v>43</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>56</v>
@@ -8595,20 +8595,20 @@
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S83" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U83" s="6">
         <v>0.5</v>
@@ -8618,7 +8618,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
@@ -8628,7 +8628,7 @@
         <v>52</v>
       </c>
       <c r="AF83" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AG83" s="7">
         <v>0.03</v>
@@ -8663,10 +8663,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>43</v>
@@ -8707,7 +8707,7 @@
         <v>330</v>
       </c>
       <c r="AN84" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AO84" s="6">
         <v>520</v>
@@ -8724,19 +8724,19 @@
         <v>42</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -8747,7 +8747,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P85" s="6" t="s">
         <v>51</v>
@@ -8760,14 +8760,14 @@
         <v>58</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
@@ -8778,7 +8778,7 @@
         <v>52</v>
       </c>
       <c r="AF85" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG85" s="7">
         <v>0.02</v>
@@ -8790,10 +8790,10 @@
         <v>1</v>
       </c>
       <c r="AJ85" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AK85" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL85" s="6">
         <v>2</v>
@@ -8817,19 +8817,19 @@
         <v>42</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -8840,27 +8840,27 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
@@ -8871,7 +8871,7 @@
         <v>52</v>
       </c>
       <c r="AF86" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG86" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8883,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="AJ86" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AK86" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL86" s="6">
         <v>2</v>
@@ -8910,19 +8910,19 @@
         <v>42</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -8933,27 +8933,27 @@
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
@@ -8964,7 +8964,7 @@
         <v>52</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG87" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8976,10 +8976,10 @@
         <v>1</v>
       </c>
       <c r="AJ87" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AK87" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL87" s="6">
         <v>2</v>
@@ -9003,19 +9003,19 @@
         <v>42</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E88" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -9026,27 +9026,27 @@
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
@@ -9057,7 +9057,7 @@
         <v>52</v>
       </c>
       <c r="AF88" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG88" s="7">
         <v>0.02</v>
@@ -9069,10 +9069,10 @@
         <v>1</v>
       </c>
       <c r="AJ88" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AK88" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL88" s="6">
         <v>2</v>
@@ -9096,19 +9096,19 @@
         <v>42</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -9119,27 +9119,27 @@
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R89" s="6"/>
       <c r="S89" s="6" t="s">
         <v>58</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
@@ -9150,7 +9150,7 @@
         <v>52</v>
       </c>
       <c r="AF89" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG89" s="7">
         <v>0.03</v>
@@ -9162,10 +9162,10 @@
         <v>1</v>
       </c>
       <c r="AJ89" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AK89" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL89" s="6">
         <v>2</v>
@@ -9189,24 +9189,24 @@
         <v>42</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -9217,7 +9217,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
@@ -9241,7 +9241,7 @@
         <v>78</v>
       </c>
       <c r="AN90" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AO90" s="6"/>
     </row>
@@ -9256,37 +9256,37 @@
         <v>42</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -9325,37 +9325,37 @@
         <v>42</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
@@ -9394,24 +9394,24 @@
         <v>42</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -9422,7 +9422,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
@@ -9461,24 +9461,24 @@
         <v>42</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -9489,7 +9489,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -9528,24 +9528,24 @@
         <v>42</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -9556,7 +9556,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
@@ -9595,39 +9595,39 @@
         <v>42</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P96" s="14" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -9651,7 +9651,7 @@
         <v>85</v>
       </c>
       <c r="AN96" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AO96" s="6"/>
     </row>
@@ -9666,44 +9666,44 @@
         <v>42</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
@@ -9735,22 +9735,22 @@
         <v>42</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -9761,7 +9761,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
